--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US_EPS\InputData\bldgs\PCFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\PCFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E94EE93-25F0-436B-95E1-F85FD34BA535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8303B6A-3E9D-40AB-BF33-C209787F54A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1425" windowWidth="18405" windowHeight="14910" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="407">
   <si>
     <t>Source:</t>
   </si>
@@ -1244,6 +1244,18 @@
   </si>
   <si>
     <t>8/ Consumption determined by using the average electric power sector net heat rate for fossil fuels.</t>
+  </si>
+  <si>
+    <t>Energy Consumption</t>
+  </si>
+  <si>
+    <t>AEO 2021</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1469,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1536,34 +1548,12 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="14" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="13" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1599,6 +1589,29 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="14" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="13" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="13" xr:uid="{F0294189-DCE2-4A9C-A206-033C029239E6}"/>
@@ -1951,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,84 +2009,109 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="38" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>309</v>
-      </c>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>310</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>315</v>
       </c>
     </row>
@@ -10283,103 +10321,103 @@
       <c r="A112" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B112" s="56" t="s">
         <v>355</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="57">
         <v>21.012035000000001</v>
       </c>
-      <c r="D112" s="37">
+      <c r="D112" s="57">
         <v>21.043247000000001</v>
       </c>
-      <c r="E112" s="37">
+      <c r="E112" s="57">
         <v>21.216681999999999</v>
       </c>
-      <c r="F112" s="37">
+      <c r="F112" s="57">
         <v>21.018280000000001</v>
       </c>
-      <c r="G112" s="37">
+      <c r="G112" s="57">
         <v>20.85379</v>
       </c>
-      <c r="H112" s="37">
+      <c r="H112" s="57">
         <v>20.627789</v>
       </c>
-      <c r="I112" s="37">
+      <c r="I112" s="57">
         <v>20.385228999999999</v>
       </c>
-      <c r="J112" s="37">
+      <c r="J112" s="57">
         <v>20.220219</v>
       </c>
-      <c r="K112" s="37">
+      <c r="K112" s="57">
         <v>20.168883999999998</v>
       </c>
-      <c r="L112" s="37">
+      <c r="L112" s="57">
         <v>20.144856999999998</v>
       </c>
-      <c r="M112" s="37">
+      <c r="M112" s="57">
         <v>20.183903000000001</v>
       </c>
-      <c r="N112" s="37">
+      <c r="N112" s="57">
         <v>20.200790000000001</v>
       </c>
-      <c r="O112" s="37">
+      <c r="O112" s="57">
         <v>20.210455</v>
       </c>
-      <c r="P112" s="37">
+      <c r="P112" s="57">
         <v>20.251712999999999</v>
       </c>
-      <c r="Q112" s="37">
+      <c r="Q112" s="57">
         <v>20.298100000000002</v>
       </c>
-      <c r="R112" s="37">
+      <c r="R112" s="57">
         <v>20.374268000000001</v>
       </c>
-      <c r="S112" s="37">
+      <c r="S112" s="57">
         <v>20.453151999999999</v>
       </c>
-      <c r="T112" s="37">
+      <c r="T112" s="57">
         <v>20.522358000000001</v>
       </c>
-      <c r="U112" s="37">
+      <c r="U112" s="57">
         <v>20.597715000000001</v>
       </c>
-      <c r="V112" s="37">
+      <c r="V112" s="57">
         <v>20.691054999999999</v>
       </c>
-      <c r="W112" s="37">
+      <c r="W112" s="57">
         <v>20.79027</v>
       </c>
-      <c r="X112" s="37">
+      <c r="X112" s="57">
         <v>20.887352</v>
       </c>
-      <c r="Y112" s="37">
+      <c r="Y112" s="57">
         <v>20.988150000000001</v>
       </c>
-      <c r="Z112" s="37">
+      <c r="Z112" s="57">
         <v>21.068726000000002</v>
       </c>
-      <c r="AA112" s="37">
+      <c r="AA112" s="57">
         <v>21.118212</v>
       </c>
-      <c r="AB112" s="37">
+      <c r="AB112" s="57">
         <v>21.216028000000001</v>
       </c>
-      <c r="AC112" s="37">
+      <c r="AC112" s="57">
         <v>21.321000999999999</v>
       </c>
-      <c r="AD112" s="37">
+      <c r="AD112" s="57">
         <v>21.423819999999999</v>
       </c>
-      <c r="AE112" s="37">
+      <c r="AE112" s="57">
         <v>21.530754000000002</v>
       </c>
-      <c r="AF112" s="37">
+      <c r="AF112" s="57">
         <v>21.665205</v>
       </c>
-      <c r="AG112" s="37">
+      <c r="AG112" s="57">
         <v>21.802175999999999</v>
       </c>
-      <c r="AH112" s="38">
+      <c r="AH112" s="58">
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
@@ -11128,97 +11166,97 @@
       <c r="B124" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C124" s="39">
+      <c r="C124" s="36">
         <v>5958</v>
       </c>
-      <c r="D124" s="39">
+      <c r="D124" s="36">
         <v>6244</v>
       </c>
-      <c r="E124" s="39">
+      <c r="E124" s="36">
         <v>6198</v>
       </c>
-      <c r="F124" s="39">
+      <c r="F124" s="36">
         <v>6187</v>
       </c>
-      <c r="G124" s="39">
+      <c r="G124" s="36">
         <v>6176</v>
       </c>
-      <c r="H124" s="39">
+      <c r="H124" s="36">
         <v>6165</v>
       </c>
-      <c r="I124" s="39">
+      <c r="I124" s="36">
         <v>6153</v>
       </c>
-      <c r="J124" s="39">
+      <c r="J124" s="36">
         <v>6142</v>
       </c>
-      <c r="K124" s="39">
+      <c r="K124" s="36">
         <v>6130</v>
       </c>
-      <c r="L124" s="39">
+      <c r="L124" s="36">
         <v>6118</v>
       </c>
-      <c r="M124" s="39">
+      <c r="M124" s="36">
         <v>6107</v>
       </c>
-      <c r="N124" s="39">
+      <c r="N124" s="36">
         <v>6095</v>
       </c>
-      <c r="O124" s="39">
+      <c r="O124" s="36">
         <v>6083</v>
       </c>
-      <c r="P124" s="39">
+      <c r="P124" s="36">
         <v>6071</v>
       </c>
-      <c r="Q124" s="39">
+      <c r="Q124" s="36">
         <v>6059</v>
       </c>
-      <c r="R124" s="39">
+      <c r="R124" s="36">
         <v>6048</v>
       </c>
-      <c r="S124" s="39">
+      <c r="S124" s="36">
         <v>6036</v>
       </c>
-      <c r="T124" s="39">
+      <c r="T124" s="36">
         <v>6024</v>
       </c>
-      <c r="U124" s="39">
+      <c r="U124" s="36">
         <v>6012</v>
       </c>
-      <c r="V124" s="39">
+      <c r="V124" s="36">
         <v>6000</v>
       </c>
-      <c r="W124" s="39">
+      <c r="W124" s="36">
         <v>5988</v>
       </c>
-      <c r="X124" s="39">
+      <c r="X124" s="36">
         <v>5976</v>
       </c>
-      <c r="Y124" s="39">
+      <c r="Y124" s="36">
         <v>5964</v>
       </c>
-      <c r="Z124" s="39">
+      <c r="Z124" s="36">
         <v>5952</v>
       </c>
-      <c r="AA124" s="39">
+      <c r="AA124" s="36">
         <v>5940</v>
       </c>
-      <c r="AB124" s="39">
+      <c r="AB124" s="36">
         <v>5929</v>
       </c>
-      <c r="AC124" s="39">
+      <c r="AC124" s="36">
         <v>5917</v>
       </c>
-      <c r="AD124" s="39">
+      <c r="AD124" s="36">
         <v>5905</v>
       </c>
-      <c r="AE124" s="39">
+      <c r="AE124" s="36">
         <v>5893</v>
       </c>
-      <c r="AF124" s="39">
+      <c r="AF124" s="36">
         <v>5881</v>
       </c>
-      <c r="AG124" s="39">
+      <c r="AG124" s="36">
         <v>5869</v>
       </c>
       <c r="AH124" s="28">
@@ -11232,97 +11270,97 @@
       <c r="B125" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C125" s="39">
+      <c r="C125" s="36">
         <v>5371</v>
       </c>
-      <c r="D125" s="39">
+      <c r="D125" s="36">
         <v>5595</v>
       </c>
-      <c r="E125" s="39">
+      <c r="E125" s="36">
         <v>5569</v>
       </c>
-      <c r="F125" s="39">
+      <c r="F125" s="36">
         <v>5558</v>
       </c>
-      <c r="G125" s="39">
+      <c r="G125" s="36">
         <v>5548</v>
       </c>
-      <c r="H125" s="39">
+      <c r="H125" s="36">
         <v>5538</v>
       </c>
-      <c r="I125" s="39">
+      <c r="I125" s="36">
         <v>5528</v>
       </c>
-      <c r="J125" s="39">
+      <c r="J125" s="36">
         <v>5517</v>
       </c>
-      <c r="K125" s="39">
+      <c r="K125" s="36">
         <v>5507</v>
       </c>
-      <c r="L125" s="39">
+      <c r="L125" s="36">
         <v>5497</v>
       </c>
-      <c r="M125" s="39">
+      <c r="M125" s="36">
         <v>5487</v>
       </c>
-      <c r="N125" s="39">
+      <c r="N125" s="36">
         <v>5477</v>
       </c>
-      <c r="O125" s="39">
+      <c r="O125" s="36">
         <v>5467</v>
       </c>
-      <c r="P125" s="39">
+      <c r="P125" s="36">
         <v>5457</v>
       </c>
-      <c r="Q125" s="39">
+      <c r="Q125" s="36">
         <v>5446</v>
       </c>
-      <c r="R125" s="39">
+      <c r="R125" s="36">
         <v>5436</v>
       </c>
-      <c r="S125" s="39">
+      <c r="S125" s="36">
         <v>5426</v>
       </c>
-      <c r="T125" s="39">
+      <c r="T125" s="36">
         <v>5416</v>
       </c>
-      <c r="U125" s="39">
+      <c r="U125" s="36">
         <v>5406</v>
       </c>
-      <c r="V125" s="39">
+      <c r="V125" s="36">
         <v>5396</v>
       </c>
-      <c r="W125" s="39">
+      <c r="W125" s="36">
         <v>5386</v>
       </c>
-      <c r="X125" s="39">
+      <c r="X125" s="36">
         <v>5376</v>
       </c>
-      <c r="Y125" s="39">
+      <c r="Y125" s="36">
         <v>5366</v>
       </c>
-      <c r="Z125" s="39">
+      <c r="Z125" s="36">
         <v>5355</v>
       </c>
-      <c r="AA125" s="39">
+      <c r="AA125" s="36">
         <v>5345</v>
       </c>
-      <c r="AB125" s="39">
+      <c r="AB125" s="36">
         <v>5335</v>
       </c>
-      <c r="AC125" s="39">
+      <c r="AC125" s="36">
         <v>5325</v>
       </c>
-      <c r="AD125" s="39">
+      <c r="AD125" s="36">
         <v>5315</v>
       </c>
-      <c r="AE125" s="39">
+      <c r="AE125" s="36">
         <v>5305</v>
       </c>
-      <c r="AF125" s="39">
+      <c r="AF125" s="36">
         <v>5295</v>
       </c>
-      <c r="AG125" s="39">
+      <c r="AG125" s="36">
         <v>5285</v>
       </c>
       <c r="AH125" s="28">
@@ -11336,97 +11374,97 @@
       <c r="B126" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C126" s="39">
+      <c r="C126" s="36">
         <v>6000</v>
       </c>
-      <c r="D126" s="39">
+      <c r="D126" s="36">
         <v>6217</v>
       </c>
-      <c r="E126" s="39">
+      <c r="E126" s="36">
         <v>6172</v>
       </c>
-      <c r="F126" s="39">
+      <c r="F126" s="36">
         <v>6167</v>
       </c>
-      <c r="G126" s="39">
+      <c r="G126" s="36">
         <v>6163</v>
       </c>
-      <c r="H126" s="39">
+      <c r="H126" s="36">
         <v>6159</v>
       </c>
-      <c r="I126" s="39">
+      <c r="I126" s="36">
         <v>6155</v>
       </c>
-      <c r="J126" s="39">
+      <c r="J126" s="36">
         <v>6151</v>
       </c>
-      <c r="K126" s="39">
+      <c r="K126" s="36">
         <v>6147</v>
       </c>
-      <c r="L126" s="39">
+      <c r="L126" s="36">
         <v>6143</v>
       </c>
-      <c r="M126" s="39">
+      <c r="M126" s="36">
         <v>6138</v>
       </c>
-      <c r="N126" s="39">
+      <c r="N126" s="36">
         <v>6134</v>
       </c>
-      <c r="O126" s="39">
+      <c r="O126" s="36">
         <v>6130</v>
       </c>
-      <c r="P126" s="39">
+      <c r="P126" s="36">
         <v>6126</v>
       </c>
-      <c r="Q126" s="39">
+      <c r="Q126" s="36">
         <v>6122</v>
       </c>
-      <c r="R126" s="39">
+      <c r="R126" s="36">
         <v>6118</v>
       </c>
-      <c r="S126" s="39">
+      <c r="S126" s="36">
         <v>6114</v>
       </c>
-      <c r="T126" s="39">
+      <c r="T126" s="36">
         <v>6109</v>
       </c>
-      <c r="U126" s="39">
+      <c r="U126" s="36">
         <v>6105</v>
       </c>
-      <c r="V126" s="39">
+      <c r="V126" s="36">
         <v>6101</v>
       </c>
-      <c r="W126" s="39">
+      <c r="W126" s="36">
         <v>6097</v>
       </c>
-      <c r="X126" s="39">
+      <c r="X126" s="36">
         <v>6093</v>
       </c>
-      <c r="Y126" s="39">
+      <c r="Y126" s="36">
         <v>6089</v>
       </c>
-      <c r="Z126" s="39">
+      <c r="Z126" s="36">
         <v>6084</v>
       </c>
-      <c r="AA126" s="39">
+      <c r="AA126" s="36">
         <v>6080</v>
       </c>
-      <c r="AB126" s="39">
+      <c r="AB126" s="36">
         <v>6076</v>
       </c>
-      <c r="AC126" s="39">
+      <c r="AC126" s="36">
         <v>6072</v>
       </c>
-      <c r="AD126" s="39">
+      <c r="AD126" s="36">
         <v>6068</v>
       </c>
-      <c r="AE126" s="39">
+      <c r="AE126" s="36">
         <v>6064</v>
       </c>
-      <c r="AF126" s="39">
+      <c r="AF126" s="36">
         <v>6059</v>
       </c>
-      <c r="AG126" s="39">
+      <c r="AG126" s="36">
         <v>6055</v>
       </c>
       <c r="AH126" s="28">
@@ -11440,97 +11478,97 @@
       <c r="B127" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C127" s="39">
+      <c r="C127" s="36">
         <v>6410</v>
       </c>
-      <c r="D127" s="39">
+      <c r="D127" s="36">
         <v>6529</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E127" s="36">
         <v>6490</v>
       </c>
-      <c r="F127" s="39">
+      <c r="F127" s="36">
         <v>6489</v>
       </c>
-      <c r="G127" s="39">
+      <c r="G127" s="36">
         <v>6487</v>
       </c>
-      <c r="H127" s="39">
+      <c r="H127" s="36">
         <v>6485</v>
       </c>
-      <c r="I127" s="39">
+      <c r="I127" s="36">
         <v>6483</v>
       </c>
-      <c r="J127" s="39">
+      <c r="J127" s="36">
         <v>6481</v>
       </c>
-      <c r="K127" s="39">
+      <c r="K127" s="36">
         <v>6479</v>
       </c>
-      <c r="L127" s="39">
+      <c r="L127" s="36">
         <v>6477</v>
       </c>
-      <c r="M127" s="39">
+      <c r="M127" s="36">
         <v>6474</v>
       </c>
-      <c r="N127" s="39">
+      <c r="N127" s="36">
         <v>6472</v>
       </c>
-      <c r="O127" s="39">
+      <c r="O127" s="36">
         <v>6470</v>
       </c>
-      <c r="P127" s="39">
+      <c r="P127" s="36">
         <v>6467</v>
       </c>
-      <c r="Q127" s="39">
+      <c r="Q127" s="36">
         <v>6465</v>
       </c>
-      <c r="R127" s="39">
+      <c r="R127" s="36">
         <v>6462</v>
       </c>
-      <c r="S127" s="39">
+      <c r="S127" s="36">
         <v>6459</v>
       </c>
-      <c r="T127" s="39">
+      <c r="T127" s="36">
         <v>6457</v>
       </c>
-      <c r="U127" s="39">
+      <c r="U127" s="36">
         <v>6454</v>
       </c>
-      <c r="V127" s="39">
+      <c r="V127" s="36">
         <v>6451</v>
       </c>
-      <c r="W127" s="39">
+      <c r="W127" s="36">
         <v>6449</v>
       </c>
-      <c r="X127" s="39">
+      <c r="X127" s="36">
         <v>6446</v>
       </c>
-      <c r="Y127" s="39">
+      <c r="Y127" s="36">
         <v>6443</v>
       </c>
-      <c r="Z127" s="39">
+      <c r="Z127" s="36">
         <v>6440</v>
       </c>
-      <c r="AA127" s="39">
+      <c r="AA127" s="36">
         <v>6437</v>
       </c>
-      <c r="AB127" s="39">
+      <c r="AB127" s="36">
         <v>6434</v>
       </c>
-      <c r="AC127" s="39">
+      <c r="AC127" s="36">
         <v>6431</v>
       </c>
-      <c r="AD127" s="39">
+      <c r="AD127" s="36">
         <v>6428</v>
       </c>
-      <c r="AE127" s="39">
+      <c r="AE127" s="36">
         <v>6426</v>
       </c>
-      <c r="AF127" s="39">
+      <c r="AF127" s="36">
         <v>6423</v>
       </c>
-      <c r="AG127" s="39">
+      <c r="AG127" s="36">
         <v>6420</v>
       </c>
       <c r="AH127" s="28">
@@ -11544,97 +11582,97 @@
       <c r="B128" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C128" s="39">
+      <c r="C128" s="36">
         <v>2335</v>
       </c>
-      <c r="D128" s="39">
+      <c r="D128" s="36">
         <v>2486</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="36">
         <v>2520</v>
       </c>
-      <c r="F128" s="39">
+      <c r="F128" s="36">
         <v>2511</v>
       </c>
-      <c r="G128" s="39">
+      <c r="G128" s="36">
         <v>2503</v>
       </c>
-      <c r="H128" s="39">
+      <c r="H128" s="36">
         <v>2495</v>
       </c>
-      <c r="I128" s="39">
+      <c r="I128" s="36">
         <v>2487</v>
       </c>
-      <c r="J128" s="39">
+      <c r="J128" s="36">
         <v>2479</v>
       </c>
-      <c r="K128" s="39">
+      <c r="K128" s="36">
         <v>2471</v>
       </c>
-      <c r="L128" s="39">
+      <c r="L128" s="36">
         <v>2463</v>
       </c>
-      <c r="M128" s="39">
+      <c r="M128" s="36">
         <v>2455</v>
       </c>
-      <c r="N128" s="39">
+      <c r="N128" s="36">
         <v>2448</v>
       </c>
-      <c r="O128" s="39">
+      <c r="O128" s="36">
         <v>2440</v>
       </c>
-      <c r="P128" s="39">
+      <c r="P128" s="36">
         <v>2432</v>
       </c>
-      <c r="Q128" s="39">
+      <c r="Q128" s="36">
         <v>2424</v>
       </c>
-      <c r="R128" s="39">
+      <c r="R128" s="36">
         <v>2417</v>
       </c>
-      <c r="S128" s="39">
+      <c r="S128" s="36">
         <v>2409</v>
       </c>
-      <c r="T128" s="39">
+      <c r="T128" s="36">
         <v>2401</v>
       </c>
-      <c r="U128" s="39">
+      <c r="U128" s="36">
         <v>2393</v>
       </c>
-      <c r="V128" s="39">
+      <c r="V128" s="36">
         <v>2385</v>
       </c>
-      <c r="W128" s="39">
+      <c r="W128" s="36">
         <v>2378</v>
       </c>
-      <c r="X128" s="39">
+      <c r="X128" s="36">
         <v>2370</v>
       </c>
-      <c r="Y128" s="39">
+      <c r="Y128" s="36">
         <v>2362</v>
       </c>
-      <c r="Z128" s="39">
+      <c r="Z128" s="36">
         <v>2355</v>
       </c>
-      <c r="AA128" s="39">
+      <c r="AA128" s="36">
         <v>2347</v>
       </c>
-      <c r="AB128" s="39">
+      <c r="AB128" s="36">
         <v>2339</v>
       </c>
-      <c r="AC128" s="39">
+      <c r="AC128" s="36">
         <v>2332</v>
       </c>
-      <c r="AD128" s="39">
+      <c r="AD128" s="36">
         <v>2324</v>
       </c>
-      <c r="AE128" s="39">
+      <c r="AE128" s="36">
         <v>2316</v>
       </c>
-      <c r="AF128" s="39">
+      <c r="AF128" s="36">
         <v>2309</v>
       </c>
-      <c r="AG128" s="39">
+      <c r="AG128" s="36">
         <v>2301</v>
       </c>
       <c r="AH128" s="28">
@@ -11648,97 +11686,97 @@
       <c r="B129" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C129" s="39">
+      <c r="C129" s="36">
         <v>3119</v>
       </c>
-      <c r="D129" s="39">
+      <c r="D129" s="36">
         <v>3304</v>
       </c>
-      <c r="E129" s="39">
+      <c r="E129" s="36">
         <v>3319</v>
       </c>
-      <c r="F129" s="39">
+      <c r="F129" s="36">
         <v>3314</v>
       </c>
-      <c r="G129" s="39">
+      <c r="G129" s="36">
         <v>3310</v>
       </c>
-      <c r="H129" s="39">
+      <c r="H129" s="36">
         <v>3306</v>
       </c>
-      <c r="I129" s="39">
+      <c r="I129" s="36">
         <v>3302</v>
       </c>
-      <c r="J129" s="39">
+      <c r="J129" s="36">
         <v>3297</v>
       </c>
-      <c r="K129" s="39">
+      <c r="K129" s="36">
         <v>3293</v>
       </c>
-      <c r="L129" s="39">
+      <c r="L129" s="36">
         <v>3288</v>
       </c>
-      <c r="M129" s="39">
+      <c r="M129" s="36">
         <v>3284</v>
       </c>
-      <c r="N129" s="39">
+      <c r="N129" s="36">
         <v>3280</v>
       </c>
-      <c r="O129" s="39">
+      <c r="O129" s="36">
         <v>3275</v>
       </c>
-      <c r="P129" s="39">
+      <c r="P129" s="36">
         <v>3271</v>
       </c>
-      <c r="Q129" s="39">
+      <c r="Q129" s="36">
         <v>3266</v>
       </c>
-      <c r="R129" s="39">
+      <c r="R129" s="36">
         <v>3262</v>
       </c>
-      <c r="S129" s="39">
+      <c r="S129" s="36">
         <v>3257</v>
       </c>
-      <c r="T129" s="39">
+      <c r="T129" s="36">
         <v>3252</v>
       </c>
-      <c r="U129" s="39">
+      <c r="U129" s="36">
         <v>3248</v>
       </c>
-      <c r="V129" s="39">
+      <c r="V129" s="36">
         <v>3243</v>
       </c>
-      <c r="W129" s="39">
+      <c r="W129" s="36">
         <v>3238</v>
       </c>
-      <c r="X129" s="39">
+      <c r="X129" s="36">
         <v>3234</v>
       </c>
-      <c r="Y129" s="39">
+      <c r="Y129" s="36">
         <v>3229</v>
       </c>
-      <c r="Z129" s="39">
+      <c r="Z129" s="36">
         <v>3224</v>
       </c>
-      <c r="AA129" s="39">
+      <c r="AA129" s="36">
         <v>3220</v>
       </c>
-      <c r="AB129" s="39">
+      <c r="AB129" s="36">
         <v>3215</v>
       </c>
-      <c r="AC129" s="39">
+      <c r="AC129" s="36">
         <v>3210</v>
       </c>
-      <c r="AD129" s="39">
+      <c r="AD129" s="36">
         <v>3206</v>
       </c>
-      <c r="AE129" s="39">
+      <c r="AE129" s="36">
         <v>3201</v>
       </c>
-      <c r="AF129" s="39">
+      <c r="AF129" s="36">
         <v>3196</v>
       </c>
-      <c r="AG129" s="39">
+      <c r="AG129" s="36">
         <v>3191</v>
       </c>
       <c r="AH129" s="28">
@@ -11752,97 +11790,97 @@
       <c r="B130" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C130" s="39">
+      <c r="C130" s="36">
         <v>1829</v>
       </c>
-      <c r="D130" s="39">
+      <c r="D130" s="36">
         <v>1910</v>
       </c>
-      <c r="E130" s="39">
+      <c r="E130" s="36">
         <v>2015</v>
       </c>
-      <c r="F130" s="39">
+      <c r="F130" s="36">
         <v>2009</v>
       </c>
-      <c r="G130" s="39">
+      <c r="G130" s="36">
         <v>2004</v>
       </c>
-      <c r="H130" s="39">
+      <c r="H130" s="36">
         <v>1999</v>
       </c>
-      <c r="I130" s="39">
+      <c r="I130" s="36">
         <v>1994</v>
       </c>
-      <c r="J130" s="39">
+      <c r="J130" s="36">
         <v>1988</v>
       </c>
-      <c r="K130" s="39">
+      <c r="K130" s="36">
         <v>1983</v>
       </c>
-      <c r="L130" s="39">
+      <c r="L130" s="36">
         <v>1978</v>
       </c>
-      <c r="M130" s="39">
+      <c r="M130" s="36">
         <v>1973</v>
       </c>
-      <c r="N130" s="39">
+      <c r="N130" s="36">
         <v>1967</v>
       </c>
-      <c r="O130" s="39">
+      <c r="O130" s="36">
         <v>1962</v>
       </c>
-      <c r="P130" s="39">
+      <c r="P130" s="36">
         <v>1957</v>
       </c>
-      <c r="Q130" s="39">
+      <c r="Q130" s="36">
         <v>1952</v>
       </c>
-      <c r="R130" s="39">
+      <c r="R130" s="36">
         <v>1947</v>
       </c>
-      <c r="S130" s="39">
+      <c r="S130" s="36">
         <v>1942</v>
       </c>
-      <c r="T130" s="39">
+      <c r="T130" s="36">
         <v>1937</v>
       </c>
-      <c r="U130" s="39">
+      <c r="U130" s="36">
         <v>1932</v>
       </c>
-      <c r="V130" s="39">
+      <c r="V130" s="36">
         <v>1927</v>
       </c>
-      <c r="W130" s="39">
+      <c r="W130" s="36">
         <v>1922</v>
       </c>
-      <c r="X130" s="39">
+      <c r="X130" s="36">
         <v>1917</v>
       </c>
-      <c r="Y130" s="39">
+      <c r="Y130" s="36">
         <v>1912</v>
       </c>
-      <c r="Z130" s="39">
+      <c r="Z130" s="36">
         <v>1907</v>
       </c>
-      <c r="AA130" s="39">
+      <c r="AA130" s="36">
         <v>1902</v>
       </c>
-      <c r="AB130" s="39">
+      <c r="AB130" s="36">
         <v>1897</v>
       </c>
-      <c r="AC130" s="39">
+      <c r="AC130" s="36">
         <v>1892</v>
       </c>
-      <c r="AD130" s="39">
+      <c r="AD130" s="36">
         <v>1887</v>
       </c>
-      <c r="AE130" s="39">
+      <c r="AE130" s="36">
         <v>1882</v>
       </c>
-      <c r="AF130" s="39">
+      <c r="AF130" s="36">
         <v>1877</v>
       </c>
-      <c r="AG130" s="39">
+      <c r="AG130" s="36">
         <v>1873</v>
       </c>
       <c r="AH130" s="28">
@@ -11856,97 +11894,97 @@
       <c r="B131" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C131" s="39">
+      <c r="C131" s="36">
         <v>4810</v>
       </c>
-      <c r="D131" s="39">
+      <c r="D131" s="36">
         <v>4802</v>
       </c>
-      <c r="E131" s="39">
+      <c r="E131" s="36">
         <v>4793</v>
       </c>
-      <c r="F131" s="39">
+      <c r="F131" s="36">
         <v>4780</v>
       </c>
-      <c r="G131" s="39">
+      <c r="G131" s="36">
         <v>4768</v>
       </c>
-      <c r="H131" s="39">
+      <c r="H131" s="36">
         <v>4755</v>
       </c>
-      <c r="I131" s="39">
+      <c r="I131" s="36">
         <v>4742</v>
       </c>
-      <c r="J131" s="39">
+      <c r="J131" s="36">
         <v>4730</v>
       </c>
-      <c r="K131" s="39">
+      <c r="K131" s="36">
         <v>4717</v>
       </c>
-      <c r="L131" s="39">
+      <c r="L131" s="36">
         <v>4704</v>
       </c>
-      <c r="M131" s="39">
+      <c r="M131" s="36">
         <v>4691</v>
       </c>
-      <c r="N131" s="39">
+      <c r="N131" s="36">
         <v>4678</v>
       </c>
-      <c r="O131" s="39">
+      <c r="O131" s="36">
         <v>4664</v>
       </c>
-      <c r="P131" s="39">
+      <c r="P131" s="36">
         <v>4651</v>
       </c>
-      <c r="Q131" s="39">
+      <c r="Q131" s="36">
         <v>4638</v>
       </c>
-      <c r="R131" s="39">
+      <c r="R131" s="36">
         <v>4624</v>
       </c>
-      <c r="S131" s="39">
+      <c r="S131" s="36">
         <v>4611</v>
       </c>
-      <c r="T131" s="39">
+      <c r="T131" s="36">
         <v>4597</v>
       </c>
-      <c r="U131" s="39">
+      <c r="U131" s="36">
         <v>4584</v>
       </c>
-      <c r="V131" s="39">
+      <c r="V131" s="36">
         <v>4570</v>
       </c>
-      <c r="W131" s="39">
+      <c r="W131" s="36">
         <v>4557</v>
       </c>
-      <c r="X131" s="39">
+      <c r="X131" s="36">
         <v>4543</v>
       </c>
-      <c r="Y131" s="39">
+      <c r="Y131" s="36">
         <v>4530</v>
       </c>
-      <c r="Z131" s="39">
+      <c r="Z131" s="36">
         <v>4517</v>
       </c>
-      <c r="AA131" s="39">
+      <c r="AA131" s="36">
         <v>4503</v>
       </c>
-      <c r="AB131" s="39">
+      <c r="AB131" s="36">
         <v>4490</v>
       </c>
-      <c r="AC131" s="39">
+      <c r="AC131" s="36">
         <v>4476</v>
       </c>
-      <c r="AD131" s="39">
+      <c r="AD131" s="36">
         <v>4463</v>
       </c>
-      <c r="AE131" s="39">
+      <c r="AE131" s="36">
         <v>4450</v>
       </c>
-      <c r="AF131" s="39">
+      <c r="AF131" s="36">
         <v>4436</v>
       </c>
-      <c r="AG131" s="39">
+      <c r="AG131" s="36">
         <v>4423</v>
       </c>
       <c r="AH131" s="28">
@@ -11960,97 +11998,97 @@
       <c r="B132" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C132" s="39">
+      <c r="C132" s="36">
         <v>3335</v>
       </c>
-      <c r="D132" s="39">
+      <c r="D132" s="36">
         <v>3363</v>
       </c>
-      <c r="E132" s="39">
+      <c r="E132" s="36">
         <v>3253</v>
       </c>
-      <c r="F132" s="39">
+      <c r="F132" s="36">
         <v>3243</v>
       </c>
-      <c r="G132" s="39">
+      <c r="G132" s="36">
         <v>3232</v>
       </c>
-      <c r="H132" s="39">
+      <c r="H132" s="36">
         <v>3222</v>
       </c>
-      <c r="I132" s="39">
+      <c r="I132" s="36">
         <v>3212</v>
       </c>
-      <c r="J132" s="39">
+      <c r="J132" s="36">
         <v>3201</v>
       </c>
-      <c r="K132" s="39">
+      <c r="K132" s="36">
         <v>3191</v>
       </c>
-      <c r="L132" s="39">
+      <c r="L132" s="36">
         <v>3180</v>
       </c>
-      <c r="M132" s="39">
+      <c r="M132" s="36">
         <v>3169</v>
       </c>
-      <c r="N132" s="39">
+      <c r="N132" s="36">
         <v>3159</v>
       </c>
-      <c r="O132" s="39">
+      <c r="O132" s="36">
         <v>3148</v>
       </c>
-      <c r="P132" s="39">
+      <c r="P132" s="36">
         <v>3137</v>
       </c>
-      <c r="Q132" s="39">
+      <c r="Q132" s="36">
         <v>3126</v>
       </c>
-      <c r="R132" s="39">
+      <c r="R132" s="36">
         <v>3116</v>
       </c>
-      <c r="S132" s="39">
+      <c r="S132" s="36">
         <v>3105</v>
       </c>
-      <c r="T132" s="39">
+      <c r="T132" s="36">
         <v>3094</v>
       </c>
-      <c r="U132" s="39">
+      <c r="U132" s="36">
         <v>3083</v>
       </c>
-      <c r="V132" s="39">
+      <c r="V132" s="36">
         <v>3072</v>
       </c>
-      <c r="W132" s="39">
+      <c r="W132" s="36">
         <v>3061</v>
       </c>
-      <c r="X132" s="39">
+      <c r="X132" s="36">
         <v>3050</v>
       </c>
-      <c r="Y132" s="39">
+      <c r="Y132" s="36">
         <v>3039</v>
       </c>
-      <c r="Z132" s="39">
+      <c r="Z132" s="36">
         <v>3028</v>
       </c>
-      <c r="AA132" s="39">
+      <c r="AA132" s="36">
         <v>3017</v>
       </c>
-      <c r="AB132" s="39">
+      <c r="AB132" s="36">
         <v>3005</v>
       </c>
-      <c r="AC132" s="39">
+      <c r="AC132" s="36">
         <v>2994</v>
       </c>
-      <c r="AD132" s="39">
+      <c r="AD132" s="36">
         <v>2983</v>
       </c>
-      <c r="AE132" s="39">
+      <c r="AE132" s="36">
         <v>2972</v>
       </c>
-      <c r="AF132" s="39">
+      <c r="AF132" s="36">
         <v>2961</v>
       </c>
-      <c r="AG132" s="39">
+      <c r="AG132" s="36">
         <v>2950</v>
       </c>
       <c r="AH132" s="28">
@@ -12173,97 +12211,97 @@
       <c r="B136" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C136" s="39">
+      <c r="C136" s="36">
         <v>652</v>
       </c>
-      <c r="D136" s="39">
+      <c r="D136" s="36">
         <v>505</v>
       </c>
-      <c r="E136" s="39">
+      <c r="E136" s="36">
         <v>579</v>
       </c>
-      <c r="F136" s="39">
+      <c r="F136" s="36">
         <v>584</v>
       </c>
-      <c r="G136" s="39">
+      <c r="G136" s="36">
         <v>590</v>
       </c>
-      <c r="H136" s="39">
+      <c r="H136" s="36">
         <v>596</v>
       </c>
-      <c r="I136" s="39">
+      <c r="I136" s="36">
         <v>602</v>
       </c>
-      <c r="J136" s="39">
+      <c r="J136" s="36">
         <v>608</v>
       </c>
-      <c r="K136" s="39">
+      <c r="K136" s="36">
         <v>614</v>
       </c>
-      <c r="L136" s="39">
+      <c r="L136" s="36">
         <v>620</v>
       </c>
-      <c r="M136" s="39">
+      <c r="M136" s="36">
         <v>626</v>
       </c>
-      <c r="N136" s="39">
+      <c r="N136" s="36">
         <v>632</v>
       </c>
-      <c r="O136" s="39">
+      <c r="O136" s="36">
         <v>638</v>
       </c>
-      <c r="P136" s="39">
+      <c r="P136" s="36">
         <v>644</v>
       </c>
-      <c r="Q136" s="39">
+      <c r="Q136" s="36">
         <v>650</v>
       </c>
-      <c r="R136" s="39">
+      <c r="R136" s="36">
         <v>656</v>
       </c>
-      <c r="S136" s="39">
+      <c r="S136" s="36">
         <v>662</v>
       </c>
-      <c r="T136" s="39">
+      <c r="T136" s="36">
         <v>668</v>
       </c>
-      <c r="U136" s="39">
+      <c r="U136" s="36">
         <v>674</v>
       </c>
-      <c r="V136" s="39">
+      <c r="V136" s="36">
         <v>680</v>
       </c>
-      <c r="W136" s="39">
+      <c r="W136" s="36">
         <v>686</v>
       </c>
-      <c r="X136" s="39">
+      <c r="X136" s="36">
         <v>692</v>
       </c>
-      <c r="Y136" s="39">
+      <c r="Y136" s="36">
         <v>698</v>
       </c>
-      <c r="Z136" s="39">
+      <c r="Z136" s="36">
         <v>704</v>
       </c>
-      <c r="AA136" s="39">
+      <c r="AA136" s="36">
         <v>710</v>
       </c>
-      <c r="AB136" s="39">
+      <c r="AB136" s="36">
         <v>716</v>
       </c>
-      <c r="AC136" s="39">
+      <c r="AC136" s="36">
         <v>723</v>
       </c>
-      <c r="AD136" s="39">
+      <c r="AD136" s="36">
         <v>729</v>
       </c>
-      <c r="AE136" s="39">
+      <c r="AE136" s="36">
         <v>735</v>
       </c>
-      <c r="AF136" s="39">
+      <c r="AF136" s="36">
         <v>741</v>
       </c>
-      <c r="AG136" s="39">
+      <c r="AG136" s="36">
         <v>747</v>
       </c>
       <c r="AH136" s="28">
@@ -12277,97 +12315,97 @@
       <c r="B137" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C137" s="39">
+      <c r="C137" s="36">
         <v>840</v>
       </c>
-      <c r="D137" s="39">
+      <c r="D137" s="36">
         <v>706</v>
       </c>
-      <c r="E137" s="39">
+      <c r="E137" s="36">
         <v>826</v>
       </c>
-      <c r="F137" s="39">
+      <c r="F137" s="36">
         <v>834</v>
       </c>
-      <c r="G137" s="39">
+      <c r="G137" s="36">
         <v>842</v>
       </c>
-      <c r="H137" s="39">
+      <c r="H137" s="36">
         <v>850</v>
       </c>
-      <c r="I137" s="39">
+      <c r="I137" s="36">
         <v>858</v>
       </c>
-      <c r="J137" s="39">
+      <c r="J137" s="36">
         <v>867</v>
       </c>
-      <c r="K137" s="39">
+      <c r="K137" s="36">
         <v>875</v>
       </c>
-      <c r="L137" s="39">
+      <c r="L137" s="36">
         <v>883</v>
       </c>
-      <c r="M137" s="39">
+      <c r="M137" s="36">
         <v>891</v>
       </c>
-      <c r="N137" s="39">
+      <c r="N137" s="36">
         <v>899</v>
       </c>
-      <c r="O137" s="39">
+      <c r="O137" s="36">
         <v>907</v>
       </c>
-      <c r="P137" s="39">
+      <c r="P137" s="36">
         <v>916</v>
       </c>
-      <c r="Q137" s="39">
+      <c r="Q137" s="36">
         <v>924</v>
       </c>
-      <c r="R137" s="39">
+      <c r="R137" s="36">
         <v>932</v>
       </c>
-      <c r="S137" s="39">
+      <c r="S137" s="36">
         <v>940</v>
       </c>
-      <c r="T137" s="39">
+      <c r="T137" s="36">
         <v>948</v>
       </c>
-      <c r="U137" s="39">
+      <c r="U137" s="36">
         <v>956</v>
       </c>
-      <c r="V137" s="39">
+      <c r="V137" s="36">
         <v>965</v>
       </c>
-      <c r="W137" s="39">
+      <c r="W137" s="36">
         <v>973</v>
       </c>
-      <c r="X137" s="39">
+      <c r="X137" s="36">
         <v>981</v>
       </c>
-      <c r="Y137" s="39">
+      <c r="Y137" s="36">
         <v>989</v>
       </c>
-      <c r="Z137" s="39">
+      <c r="Z137" s="36">
         <v>997</v>
       </c>
-      <c r="AA137" s="39">
+      <c r="AA137" s="36">
         <v>1005</v>
       </c>
-      <c r="AB137" s="39">
+      <c r="AB137" s="36">
         <v>1014</v>
       </c>
-      <c r="AC137" s="39">
+      <c r="AC137" s="36">
         <v>1022</v>
       </c>
-      <c r="AD137" s="39">
+      <c r="AD137" s="36">
         <v>1030</v>
       </c>
-      <c r="AE137" s="39">
+      <c r="AE137" s="36">
         <v>1038</v>
       </c>
-      <c r="AF137" s="39">
+      <c r="AF137" s="36">
         <v>1046</v>
       </c>
-      <c r="AG137" s="39">
+      <c r="AG137" s="36">
         <v>1054</v>
       </c>
       <c r="AH137" s="28">
@@ -12381,97 +12419,97 @@
       <c r="B138" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C138" s="39">
+      <c r="C138" s="36">
         <v>831</v>
       </c>
-      <c r="D138" s="39">
+      <c r="D138" s="36">
         <v>767</v>
       </c>
-      <c r="E138" s="39">
+      <c r="E138" s="36">
         <v>857</v>
       </c>
-      <c r="F138" s="39">
+      <c r="F138" s="36">
         <v>864</v>
       </c>
-      <c r="G138" s="39">
+      <c r="G138" s="36">
         <v>870</v>
       </c>
-      <c r="H138" s="39">
+      <c r="H138" s="36">
         <v>876</v>
       </c>
-      <c r="I138" s="39">
+      <c r="I138" s="36">
         <v>882</v>
       </c>
-      <c r="J138" s="39">
+      <c r="J138" s="36">
         <v>889</v>
       </c>
-      <c r="K138" s="39">
+      <c r="K138" s="36">
         <v>895</v>
       </c>
-      <c r="L138" s="39">
+      <c r="L138" s="36">
         <v>901</v>
       </c>
-      <c r="M138" s="39">
+      <c r="M138" s="36">
         <v>907</v>
       </c>
-      <c r="N138" s="39">
+      <c r="N138" s="36">
         <v>914</v>
       </c>
-      <c r="O138" s="39">
+      <c r="O138" s="36">
         <v>920</v>
       </c>
-      <c r="P138" s="39">
+      <c r="P138" s="36">
         <v>926</v>
       </c>
-      <c r="Q138" s="39">
+      <c r="Q138" s="36">
         <v>932</v>
       </c>
-      <c r="R138" s="39">
+      <c r="R138" s="36">
         <v>939</v>
       </c>
-      <c r="S138" s="39">
+      <c r="S138" s="36">
         <v>945</v>
       </c>
-      <c r="T138" s="39">
+      <c r="T138" s="36">
         <v>951</v>
       </c>
-      <c r="U138" s="39">
+      <c r="U138" s="36">
         <v>958</v>
       </c>
-      <c r="V138" s="39">
+      <c r="V138" s="36">
         <v>964</v>
       </c>
-      <c r="W138" s="39">
+      <c r="W138" s="36">
         <v>970</v>
       </c>
-      <c r="X138" s="39">
+      <c r="X138" s="36">
         <v>976</v>
       </c>
-      <c r="Y138" s="39">
+      <c r="Y138" s="36">
         <v>983</v>
       </c>
-      <c r="Z138" s="39">
+      <c r="Z138" s="36">
         <v>989</v>
       </c>
-      <c r="AA138" s="39">
+      <c r="AA138" s="36">
         <v>995</v>
       </c>
-      <c r="AB138" s="39">
+      <c r="AB138" s="36">
         <v>1002</v>
       </c>
-      <c r="AC138" s="39">
+      <c r="AC138" s="36">
         <v>1008</v>
       </c>
-      <c r="AD138" s="39">
+      <c r="AD138" s="36">
         <v>1014</v>
       </c>
-      <c r="AE138" s="39">
+      <c r="AE138" s="36">
         <v>1021</v>
       </c>
-      <c r="AF138" s="39">
+      <c r="AF138" s="36">
         <v>1027</v>
       </c>
-      <c r="AG138" s="39">
+      <c r="AG138" s="36">
         <v>1033</v>
       </c>
       <c r="AH138" s="28">
@@ -12485,97 +12523,97 @@
       <c r="B139" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C139" s="39">
+      <c r="C139" s="36">
         <v>975</v>
       </c>
-      <c r="D139" s="39">
+      <c r="D139" s="36">
         <v>956</v>
       </c>
-      <c r="E139" s="39">
+      <c r="E139" s="36">
         <v>1035</v>
       </c>
-      <c r="F139" s="39">
+      <c r="F139" s="36">
         <v>1040</v>
       </c>
-      <c r="G139" s="39">
+      <c r="G139" s="36">
         <v>1046</v>
       </c>
-      <c r="H139" s="39">
+      <c r="H139" s="36">
         <v>1051</v>
       </c>
-      <c r="I139" s="39">
+      <c r="I139" s="36">
         <v>1057</v>
       </c>
-      <c r="J139" s="39">
+      <c r="J139" s="36">
         <v>1062</v>
       </c>
-      <c r="K139" s="39">
+      <c r="K139" s="36">
         <v>1068</v>
       </c>
-      <c r="L139" s="39">
+      <c r="L139" s="36">
         <v>1074</v>
       </c>
-      <c r="M139" s="39">
+      <c r="M139" s="36">
         <v>1079</v>
       </c>
-      <c r="N139" s="39">
+      <c r="N139" s="36">
         <v>1085</v>
       </c>
-      <c r="O139" s="39">
+      <c r="O139" s="36">
         <v>1091</v>
       </c>
-      <c r="P139" s="39">
+      <c r="P139" s="36">
         <v>1096</v>
       </c>
-      <c r="Q139" s="39">
+      <c r="Q139" s="36">
         <v>1102</v>
       </c>
-      <c r="R139" s="39">
+      <c r="R139" s="36">
         <v>1108</v>
       </c>
-      <c r="S139" s="39">
+      <c r="S139" s="36">
         <v>1114</v>
       </c>
-      <c r="T139" s="39">
+      <c r="T139" s="36">
         <v>1119</v>
       </c>
-      <c r="U139" s="39">
+      <c r="U139" s="36">
         <v>1125</v>
       </c>
-      <c r="V139" s="39">
+      <c r="V139" s="36">
         <v>1131</v>
       </c>
-      <c r="W139" s="39">
+      <c r="W139" s="36">
         <v>1137</v>
       </c>
-      <c r="X139" s="39">
+      <c r="X139" s="36">
         <v>1142</v>
       </c>
-      <c r="Y139" s="39">
+      <c r="Y139" s="36">
         <v>1148</v>
       </c>
-      <c r="Z139" s="39">
+      <c r="Z139" s="36">
         <v>1154</v>
       </c>
-      <c r="AA139" s="39">
+      <c r="AA139" s="36">
         <v>1160</v>
       </c>
-      <c r="AB139" s="39">
+      <c r="AB139" s="36">
         <v>1166</v>
       </c>
-      <c r="AC139" s="39">
+      <c r="AC139" s="36">
         <v>1171</v>
       </c>
-      <c r="AD139" s="39">
+      <c r="AD139" s="36">
         <v>1177</v>
       </c>
-      <c r="AE139" s="39">
+      <c r="AE139" s="36">
         <v>1183</v>
       </c>
-      <c r="AF139" s="39">
+      <c r="AF139" s="36">
         <v>1189</v>
       </c>
-      <c r="AG139" s="39">
+      <c r="AG139" s="36">
         <v>1195</v>
       </c>
       <c r="AH139" s="28">
@@ -12589,97 +12627,97 @@
       <c r="B140" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C140" s="39">
+      <c r="C140" s="36">
         <v>2274</v>
       </c>
-      <c r="D140" s="39">
+      <c r="D140" s="36">
         <v>2219</v>
       </c>
-      <c r="E140" s="39">
+      <c r="E140" s="36">
         <v>2359</v>
       </c>
-      <c r="F140" s="39">
+      <c r="F140" s="36">
         <v>2373</v>
       </c>
-      <c r="G140" s="39">
+      <c r="G140" s="36">
         <v>2388</v>
       </c>
-      <c r="H140" s="39">
+      <c r="H140" s="36">
         <v>2402</v>
       </c>
-      <c r="I140" s="39">
+      <c r="I140" s="36">
         <v>2417</v>
       </c>
-      <c r="J140" s="39">
+      <c r="J140" s="36">
         <v>2431</v>
       </c>
-      <c r="K140" s="39">
+      <c r="K140" s="36">
         <v>2445</v>
       </c>
-      <c r="L140" s="39">
+      <c r="L140" s="36">
         <v>2460</v>
       </c>
-      <c r="M140" s="39">
+      <c r="M140" s="36">
         <v>2474</v>
       </c>
-      <c r="N140" s="39">
+      <c r="N140" s="36">
         <v>2488</v>
       </c>
-      <c r="O140" s="39">
+      <c r="O140" s="36">
         <v>2503</v>
       </c>
-      <c r="P140" s="39">
+      <c r="P140" s="36">
         <v>2517</v>
       </c>
-      <c r="Q140" s="39">
+      <c r="Q140" s="36">
         <v>2531</v>
       </c>
-      <c r="R140" s="39">
+      <c r="R140" s="36">
         <v>2546</v>
       </c>
-      <c r="S140" s="39">
+      <c r="S140" s="36">
         <v>2560</v>
       </c>
-      <c r="T140" s="39">
+      <c r="T140" s="36">
         <v>2575</v>
       </c>
-      <c r="U140" s="39">
+      <c r="U140" s="36">
         <v>2589</v>
       </c>
-      <c r="V140" s="39">
+      <c r="V140" s="36">
         <v>2603</v>
       </c>
-      <c r="W140" s="39">
+      <c r="W140" s="36">
         <v>2618</v>
       </c>
-      <c r="X140" s="39">
+      <c r="X140" s="36">
         <v>2632</v>
       </c>
-      <c r="Y140" s="39">
+      <c r="Y140" s="36">
         <v>2647</v>
       </c>
-      <c r="Z140" s="39">
+      <c r="Z140" s="36">
         <v>2661</v>
       </c>
-      <c r="AA140" s="39">
+      <c r="AA140" s="36">
         <v>2676</v>
       </c>
-      <c r="AB140" s="39">
+      <c r="AB140" s="36">
         <v>2690</v>
       </c>
-      <c r="AC140" s="39">
+      <c r="AC140" s="36">
         <v>2705</v>
       </c>
-      <c r="AD140" s="39">
+      <c r="AD140" s="36">
         <v>2719</v>
       </c>
-      <c r="AE140" s="39">
+      <c r="AE140" s="36">
         <v>2734</v>
       </c>
-      <c r="AF140" s="39">
+      <c r="AF140" s="36">
         <v>2748</v>
       </c>
-      <c r="AG140" s="39">
+      <c r="AG140" s="36">
         <v>2763</v>
       </c>
       <c r="AH140" s="28">
@@ -12693,97 +12731,97 @@
       <c r="B141" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C141" s="39">
+      <c r="C141" s="36">
         <v>1623</v>
       </c>
-      <c r="D141" s="39">
+      <c r="D141" s="36">
         <v>1710</v>
       </c>
-      <c r="E141" s="39">
+      <c r="E141" s="36">
         <v>1808</v>
       </c>
-      <c r="F141" s="39">
+      <c r="F141" s="36">
         <v>1818</v>
       </c>
-      <c r="G141" s="39">
+      <c r="G141" s="36">
         <v>1828</v>
       </c>
-      <c r="H141" s="39">
+      <c r="H141" s="36">
         <v>1838</v>
       </c>
-      <c r="I141" s="39">
+      <c r="I141" s="36">
         <v>1848</v>
       </c>
-      <c r="J141" s="39">
+      <c r="J141" s="36">
         <v>1858</v>
       </c>
-      <c r="K141" s="39">
+      <c r="K141" s="36">
         <v>1868</v>
       </c>
-      <c r="L141" s="39">
+      <c r="L141" s="36">
         <v>1878</v>
       </c>
-      <c r="M141" s="39">
+      <c r="M141" s="36">
         <v>1888</v>
       </c>
-      <c r="N141" s="39">
+      <c r="N141" s="36">
         <v>1898</v>
       </c>
-      <c r="O141" s="39">
+      <c r="O141" s="36">
         <v>1909</v>
       </c>
-      <c r="P141" s="39">
+      <c r="P141" s="36">
         <v>1919</v>
       </c>
-      <c r="Q141" s="39">
+      <c r="Q141" s="36">
         <v>1929</v>
       </c>
-      <c r="R141" s="39">
+      <c r="R141" s="36">
         <v>1939</v>
       </c>
-      <c r="S141" s="39">
+      <c r="S141" s="36">
         <v>1949</v>
       </c>
-      <c r="T141" s="39">
+      <c r="T141" s="36">
         <v>1959</v>
       </c>
-      <c r="U141" s="39">
+      <c r="U141" s="36">
         <v>1969</v>
       </c>
-      <c r="V141" s="39">
+      <c r="V141" s="36">
         <v>1980</v>
       </c>
-      <c r="W141" s="39">
+      <c r="W141" s="36">
         <v>1990</v>
       </c>
-      <c r="X141" s="39">
+      <c r="X141" s="36">
         <v>2000</v>
       </c>
-      <c r="Y141" s="39">
+      <c r="Y141" s="36">
         <v>2010</v>
       </c>
-      <c r="Z141" s="39">
+      <c r="Z141" s="36">
         <v>2020</v>
       </c>
-      <c r="AA141" s="39">
+      <c r="AA141" s="36">
         <v>2031</v>
       </c>
-      <c r="AB141" s="39">
+      <c r="AB141" s="36">
         <v>2041</v>
       </c>
-      <c r="AC141" s="39">
+      <c r="AC141" s="36">
         <v>2051</v>
       </c>
-      <c r="AD141" s="39">
+      <c r="AD141" s="36">
         <v>2061</v>
       </c>
-      <c r="AE141" s="39">
+      <c r="AE141" s="36">
         <v>2071</v>
       </c>
-      <c r="AF141" s="39">
+      <c r="AF141" s="36">
         <v>2082</v>
       </c>
-      <c r="AG141" s="39">
+      <c r="AG141" s="36">
         <v>2092</v>
       </c>
       <c r="AH141" s="28">
@@ -12797,97 +12835,97 @@
       <c r="B142" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C142" s="39">
+      <c r="C142" s="36">
         <v>2730</v>
       </c>
-      <c r="D142" s="39">
+      <c r="D142" s="36">
         <v>2770</v>
       </c>
-      <c r="E142" s="39">
+      <c r="E142" s="36">
         <v>2861</v>
       </c>
-      <c r="F142" s="39">
+      <c r="F142" s="36">
         <v>2875</v>
       </c>
-      <c r="G142" s="39">
+      <c r="G142" s="36">
         <v>2889</v>
       </c>
-      <c r="H142" s="39">
+      <c r="H142" s="36">
         <v>2904</v>
       </c>
-      <c r="I142" s="39">
+      <c r="I142" s="36">
         <v>2918</v>
       </c>
-      <c r="J142" s="39">
+      <c r="J142" s="36">
         <v>2932</v>
       </c>
-      <c r="K142" s="39">
+      <c r="K142" s="36">
         <v>2947</v>
       </c>
-      <c r="L142" s="39">
+      <c r="L142" s="36">
         <v>2961</v>
       </c>
-      <c r="M142" s="39">
+      <c r="M142" s="36">
         <v>2976</v>
       </c>
-      <c r="N142" s="39">
+      <c r="N142" s="36">
         <v>2990</v>
       </c>
-      <c r="O142" s="39">
+      <c r="O142" s="36">
         <v>3004</v>
       </c>
-      <c r="P142" s="39">
+      <c r="P142" s="36">
         <v>3018</v>
       </c>
-      <c r="Q142" s="39">
+      <c r="Q142" s="36">
         <v>3033</v>
       </c>
-      <c r="R142" s="39">
+      <c r="R142" s="36">
         <v>3047</v>
       </c>
-      <c r="S142" s="39">
+      <c r="S142" s="36">
         <v>3061</v>
       </c>
-      <c r="T142" s="39">
+      <c r="T142" s="36">
         <v>3076</v>
       </c>
-      <c r="U142" s="39">
+      <c r="U142" s="36">
         <v>3090</v>
       </c>
-      <c r="V142" s="39">
+      <c r="V142" s="36">
         <v>3104</v>
       </c>
-      <c r="W142" s="39">
+      <c r="W142" s="36">
         <v>3119</v>
       </c>
-      <c r="X142" s="39">
+      <c r="X142" s="36">
         <v>3133</v>
       </c>
-      <c r="Y142" s="39">
+      <c r="Y142" s="36">
         <v>3147</v>
       </c>
-      <c r="Z142" s="39">
+      <c r="Z142" s="36">
         <v>3161</v>
       </c>
-      <c r="AA142" s="39">
+      <c r="AA142" s="36">
         <v>3176</v>
       </c>
-      <c r="AB142" s="39">
+      <c r="AB142" s="36">
         <v>3190</v>
       </c>
-      <c r="AC142" s="39">
+      <c r="AC142" s="36">
         <v>3204</v>
       </c>
-      <c r="AD142" s="39">
+      <c r="AD142" s="36">
         <v>3218</v>
       </c>
-      <c r="AE142" s="39">
+      <c r="AE142" s="36">
         <v>3233</v>
       </c>
-      <c r="AF142" s="39">
+      <c r="AF142" s="36">
         <v>3247</v>
       </c>
-      <c r="AG142" s="39">
+      <c r="AG142" s="36">
         <v>3261</v>
       </c>
       <c r="AH142" s="28">
@@ -12901,97 +12939,97 @@
       <c r="B143" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C143" s="39">
+      <c r="C143" s="36">
         <v>1639</v>
       </c>
-      <c r="D143" s="39">
+      <c r="D143" s="36">
         <v>1471</v>
       </c>
-      <c r="E143" s="39">
+      <c r="E143" s="36">
         <v>1560</v>
       </c>
-      <c r="F143" s="39">
+      <c r="F143" s="36">
         <v>1568</v>
       </c>
-      <c r="G143" s="39">
+      <c r="G143" s="36">
         <v>1577</v>
       </c>
-      <c r="H143" s="39">
+      <c r="H143" s="36">
         <v>1586</v>
       </c>
-      <c r="I143" s="39">
+      <c r="I143" s="36">
         <v>1595</v>
       </c>
-      <c r="J143" s="39">
+      <c r="J143" s="36">
         <v>1604</v>
       </c>
-      <c r="K143" s="39">
+      <c r="K143" s="36">
         <v>1613</v>
       </c>
-      <c r="L143" s="39">
+      <c r="L143" s="36">
         <v>1622</v>
       </c>
-      <c r="M143" s="39">
+      <c r="M143" s="36">
         <v>1631</v>
       </c>
-      <c r="N143" s="39">
+      <c r="N143" s="36">
         <v>1641</v>
       </c>
-      <c r="O143" s="39">
+      <c r="O143" s="36">
         <v>1650</v>
       </c>
-      <c r="P143" s="39">
+      <c r="P143" s="36">
         <v>1659</v>
       </c>
-      <c r="Q143" s="39">
+      <c r="Q143" s="36">
         <v>1668</v>
       </c>
-      <c r="R143" s="39">
+      <c r="R143" s="36">
         <v>1678</v>
       </c>
-      <c r="S143" s="39">
+      <c r="S143" s="36">
         <v>1687</v>
       </c>
-      <c r="T143" s="39">
+      <c r="T143" s="36">
         <v>1697</v>
       </c>
-      <c r="U143" s="39">
+      <c r="U143" s="36">
         <v>1706</v>
       </c>
-      <c r="V143" s="39">
+      <c r="V143" s="36">
         <v>1715</v>
       </c>
-      <c r="W143" s="39">
+      <c r="W143" s="36">
         <v>1725</v>
       </c>
-      <c r="X143" s="39">
+      <c r="X143" s="36">
         <v>1734</v>
       </c>
-      <c r="Y143" s="39">
+      <c r="Y143" s="36">
         <v>1744</v>
       </c>
-      <c r="Z143" s="39">
+      <c r="Z143" s="36">
         <v>1753</v>
       </c>
-      <c r="AA143" s="39">
+      <c r="AA143" s="36">
         <v>1763</v>
       </c>
-      <c r="AB143" s="39">
+      <c r="AB143" s="36">
         <v>1772</v>
       </c>
-      <c r="AC143" s="39">
+      <c r="AC143" s="36">
         <v>1782</v>
       </c>
-      <c r="AD143" s="39">
+      <c r="AD143" s="36">
         <v>1791</v>
       </c>
-      <c r="AE143" s="39">
+      <c r="AE143" s="36">
         <v>1801</v>
       </c>
-      <c r="AF143" s="39">
+      <c r="AF143" s="36">
         <v>1810</v>
       </c>
-      <c r="AG143" s="39">
+      <c r="AG143" s="36">
         <v>1820</v>
       </c>
       <c r="AH143" s="28">
@@ -13005,97 +13043,97 @@
       <c r="B144" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C144" s="39">
+      <c r="C144" s="36">
         <v>1012</v>
       </c>
-      <c r="D144" s="39">
+      <c r="D144" s="36">
         <v>840</v>
       </c>
-      <c r="E144" s="39">
+      <c r="E144" s="36">
         <v>963</v>
       </c>
-      <c r="F144" s="39">
+      <c r="F144" s="36">
         <v>969</v>
       </c>
-      <c r="G144" s="39">
+      <c r="G144" s="36">
         <v>975</v>
       </c>
-      <c r="H144" s="39">
+      <c r="H144" s="36">
         <v>982</v>
       </c>
-      <c r="I144" s="39">
+      <c r="I144" s="36">
         <v>988</v>
       </c>
-      <c r="J144" s="39">
+      <c r="J144" s="36">
         <v>994</v>
       </c>
-      <c r="K144" s="39">
+      <c r="K144" s="36">
         <v>1001</v>
       </c>
-      <c r="L144" s="39">
+      <c r="L144" s="36">
         <v>1007</v>
       </c>
-      <c r="M144" s="39">
+      <c r="M144" s="36">
         <v>1013</v>
       </c>
-      <c r="N144" s="39">
+      <c r="N144" s="36">
         <v>1020</v>
       </c>
-      <c r="O144" s="39">
+      <c r="O144" s="36">
         <v>1026</v>
       </c>
-      <c r="P144" s="39">
+      <c r="P144" s="36">
         <v>1032</v>
       </c>
-      <c r="Q144" s="39">
+      <c r="Q144" s="36">
         <v>1039</v>
       </c>
-      <c r="R144" s="39">
+      <c r="R144" s="36">
         <v>1045</v>
       </c>
-      <c r="S144" s="39">
+      <c r="S144" s="36">
         <v>1052</v>
       </c>
-      <c r="T144" s="39">
+      <c r="T144" s="36">
         <v>1058</v>
       </c>
-      <c r="U144" s="39">
+      <c r="U144" s="36">
         <v>1065</v>
       </c>
-      <c r="V144" s="39">
+      <c r="V144" s="36">
         <v>1071</v>
       </c>
-      <c r="W144" s="39">
+      <c r="W144" s="36">
         <v>1078</v>
       </c>
-      <c r="X144" s="39">
+      <c r="X144" s="36">
         <v>1084</v>
       </c>
-      <c r="Y144" s="39">
+      <c r="Y144" s="36">
         <v>1091</v>
       </c>
-      <c r="Z144" s="39">
+      <c r="Z144" s="36">
         <v>1097</v>
       </c>
-      <c r="AA144" s="39">
+      <c r="AA144" s="36">
         <v>1104</v>
       </c>
-      <c r="AB144" s="39">
+      <c r="AB144" s="36">
         <v>1110</v>
       </c>
-      <c r="AC144" s="39">
+      <c r="AC144" s="36">
         <v>1117</v>
       </c>
-      <c r="AD144" s="39">
+      <c r="AD144" s="36">
         <v>1123</v>
       </c>
-      <c r="AE144" s="39">
+      <c r="AE144" s="36">
         <v>1130</v>
       </c>
-      <c r="AF144" s="39">
+      <c r="AF144" s="36">
         <v>1136</v>
       </c>
-      <c r="AG144" s="39">
+      <c r="AG144" s="36">
         <v>1143</v>
       </c>
       <c r="AH144" s="28">
@@ -13208,41 +13246,41 @@
     </row>
     <row r="146" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B147" s="40" t="s">
+      <c r="B147" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="C147" s="41"/>
-      <c r="D147" s="41"/>
-      <c r="E147" s="41"/>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41"/>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41"/>
-      <c r="J147" s="41"/>
-      <c r="K147" s="41"/>
-      <c r="L147" s="41"/>
-      <c r="M147" s="41"/>
-      <c r="N147" s="41"/>
-      <c r="O147" s="41"/>
-      <c r="P147" s="41"/>
-      <c r="Q147" s="41"/>
-      <c r="R147" s="41"/>
-      <c r="S147" s="41"/>
-      <c r="T147" s="41"/>
-      <c r="U147" s="41"/>
-      <c r="V147" s="41"/>
-      <c r="W147" s="41"/>
-      <c r="X147" s="41"/>
-      <c r="Y147" s="41"/>
-      <c r="Z147" s="41"/>
-      <c r="AA147" s="41"/>
-      <c r="AB147" s="41"/>
-      <c r="AC147" s="41"/>
-      <c r="AD147" s="41"/>
-      <c r="AE147" s="41"/>
-      <c r="AF147" s="41"/>
-      <c r="AG147" s="41"/>
-      <c r="AH147" s="42"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="60"/>
+      <c r="O147" s="60"/>
+      <c r="P147" s="60"/>
+      <c r="Q147" s="60"/>
+      <c r="R147" s="60"/>
+      <c r="S147" s="60"/>
+      <c r="T147" s="60"/>
+      <c r="U147" s="60"/>
+      <c r="V147" s="60"/>
+      <c r="W147" s="60"/>
+      <c r="X147" s="60"/>
+      <c r="Y147" s="60"/>
+      <c r="Z147" s="60"/>
+      <c r="AA147" s="60"/>
+      <c r="AB147" s="60"/>
+      <c r="AC147" s="60"/>
+      <c r="AD147" s="60"/>
+      <c r="AE147" s="60"/>
+      <c r="AF147" s="60"/>
+      <c r="AG147" s="60"/>
+      <c r="AH147" s="37"/>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
@@ -13345,672 +13383,686 @@
       </c>
     </row>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="43"/>
-      <c r="C308" s="43"/>
-      <c r="D308" s="43"/>
-      <c r="E308" s="43"/>
-      <c r="F308" s="43"/>
-      <c r="G308" s="43"/>
-      <c r="H308" s="43"/>
-      <c r="I308" s="43"/>
-      <c r="J308" s="43"/>
-      <c r="K308" s="43"/>
-      <c r="L308" s="43"/>
-      <c r="M308" s="43"/>
-      <c r="N308" s="43"/>
-      <c r="O308" s="43"/>
-      <c r="P308" s="43"/>
-      <c r="Q308" s="43"/>
-      <c r="R308" s="43"/>
-      <c r="S308" s="43"/>
-      <c r="T308" s="43"/>
-      <c r="U308" s="43"/>
-      <c r="V308" s="43"/>
-      <c r="W308" s="43"/>
-      <c r="X308" s="43"/>
-      <c r="Y308" s="43"/>
-      <c r="Z308" s="43"/>
-      <c r="AA308" s="43"/>
-      <c r="AB308" s="43"/>
-      <c r="AC308" s="43"/>
-      <c r="AD308" s="43"/>
-      <c r="AE308" s="43"/>
-      <c r="AF308" s="43"/>
-      <c r="AG308" s="43"/>
-      <c r="AH308" s="43"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="55"/>
+      <c r="I308" s="55"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="55"/>
+      <c r="L308" s="55"/>
+      <c r="M308" s="55"/>
+      <c r="N308" s="55"/>
+      <c r="O308" s="55"/>
+      <c r="P308" s="55"/>
+      <c r="Q308" s="55"/>
+      <c r="R308" s="55"/>
+      <c r="S308" s="55"/>
+      <c r="T308" s="55"/>
+      <c r="U308" s="55"/>
+      <c r="V308" s="55"/>
+      <c r="W308" s="55"/>
+      <c r="X308" s="55"/>
+      <c r="Y308" s="55"/>
+      <c r="Z308" s="55"/>
+      <c r="AA308" s="55"/>
+      <c r="AB308" s="55"/>
+      <c r="AC308" s="55"/>
+      <c r="AD308" s="55"/>
+      <c r="AE308" s="55"/>
+      <c r="AF308" s="55"/>
+      <c r="AG308" s="55"/>
+      <c r="AH308" s="55"/>
     </row>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="43"/>
-      <c r="C511" s="43"/>
-      <c r="D511" s="43"/>
-      <c r="E511" s="43"/>
-      <c r="F511" s="43"/>
-      <c r="G511" s="43"/>
-      <c r="H511" s="43"/>
-      <c r="I511" s="43"/>
-      <c r="J511" s="43"/>
-      <c r="K511" s="43"/>
-      <c r="L511" s="43"/>
-      <c r="M511" s="43"/>
-      <c r="N511" s="43"/>
-      <c r="O511" s="43"/>
-      <c r="P511" s="43"/>
-      <c r="Q511" s="43"/>
-      <c r="R511" s="43"/>
-      <c r="S511" s="43"/>
-      <c r="T511" s="43"/>
-      <c r="U511" s="43"/>
-      <c r="V511" s="43"/>
-      <c r="W511" s="43"/>
-      <c r="X511" s="43"/>
-      <c r="Y511" s="43"/>
-      <c r="Z511" s="43"/>
-      <c r="AA511" s="43"/>
-      <c r="AB511" s="43"/>
-      <c r="AC511" s="43"/>
-      <c r="AD511" s="43"/>
-      <c r="AE511" s="43"/>
-      <c r="AF511" s="43"/>
-      <c r="AG511" s="43"/>
-      <c r="AH511" s="43"/>
+      <c r="B511" s="55"/>
+      <c r="C511" s="55"/>
+      <c r="D511" s="55"/>
+      <c r="E511" s="55"/>
+      <c r="F511" s="55"/>
+      <c r="G511" s="55"/>
+      <c r="H511" s="55"/>
+      <c r="I511" s="55"/>
+      <c r="J511" s="55"/>
+      <c r="K511" s="55"/>
+      <c r="L511" s="55"/>
+      <c r="M511" s="55"/>
+      <c r="N511" s="55"/>
+      <c r="O511" s="55"/>
+      <c r="P511" s="55"/>
+      <c r="Q511" s="55"/>
+      <c r="R511" s="55"/>
+      <c r="S511" s="55"/>
+      <c r="T511" s="55"/>
+      <c r="U511" s="55"/>
+      <c r="V511" s="55"/>
+      <c r="W511" s="55"/>
+      <c r="X511" s="55"/>
+      <c r="Y511" s="55"/>
+      <c r="Z511" s="55"/>
+      <c r="AA511" s="55"/>
+      <c r="AB511" s="55"/>
+      <c r="AC511" s="55"/>
+      <c r="AD511" s="55"/>
+      <c r="AE511" s="55"/>
+      <c r="AF511" s="55"/>
+      <c r="AG511" s="55"/>
+      <c r="AH511" s="55"/>
     </row>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="43"/>
-      <c r="C712" s="43"/>
-      <c r="D712" s="43"/>
-      <c r="E712" s="43"/>
-      <c r="F712" s="43"/>
-      <c r="G712" s="43"/>
-      <c r="H712" s="43"/>
-      <c r="I712" s="43"/>
-      <c r="J712" s="43"/>
-      <c r="K712" s="43"/>
-      <c r="L712" s="43"/>
-      <c r="M712" s="43"/>
-      <c r="N712" s="43"/>
-      <c r="O712" s="43"/>
-      <c r="P712" s="43"/>
-      <c r="Q712" s="43"/>
-      <c r="R712" s="43"/>
-      <c r="S712" s="43"/>
-      <c r="T712" s="43"/>
-      <c r="U712" s="43"/>
-      <c r="V712" s="43"/>
-      <c r="W712" s="43"/>
-      <c r="X712" s="43"/>
-      <c r="Y712" s="43"/>
-      <c r="Z712" s="43"/>
-      <c r="AA712" s="43"/>
-      <c r="AB712" s="43"/>
-      <c r="AC712" s="43"/>
-      <c r="AD712" s="43"/>
-      <c r="AE712" s="43"/>
-      <c r="AF712" s="43"/>
-      <c r="AG712" s="43"/>
-      <c r="AH712" s="43"/>
+      <c r="B712" s="55"/>
+      <c r="C712" s="55"/>
+      <c r="D712" s="55"/>
+      <c r="E712" s="55"/>
+      <c r="F712" s="55"/>
+      <c r="G712" s="55"/>
+      <c r="H712" s="55"/>
+      <c r="I712" s="55"/>
+      <c r="J712" s="55"/>
+      <c r="K712" s="55"/>
+      <c r="L712" s="55"/>
+      <c r="M712" s="55"/>
+      <c r="N712" s="55"/>
+      <c r="O712" s="55"/>
+      <c r="P712" s="55"/>
+      <c r="Q712" s="55"/>
+      <c r="R712" s="55"/>
+      <c r="S712" s="55"/>
+      <c r="T712" s="55"/>
+      <c r="U712" s="55"/>
+      <c r="V712" s="55"/>
+      <c r="W712" s="55"/>
+      <c r="X712" s="55"/>
+      <c r="Y712" s="55"/>
+      <c r="Z712" s="55"/>
+      <c r="AA712" s="55"/>
+      <c r="AB712" s="55"/>
+      <c r="AC712" s="55"/>
+      <c r="AD712" s="55"/>
+      <c r="AE712" s="55"/>
+      <c r="AF712" s="55"/>
+      <c r="AG712" s="55"/>
+      <c r="AH712" s="55"/>
     </row>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="43"/>
-      <c r="C887" s="43"/>
-      <c r="D887" s="43"/>
-      <c r="E887" s="43"/>
-      <c r="F887" s="43"/>
-      <c r="G887" s="43"/>
-      <c r="H887" s="43"/>
-      <c r="I887" s="43"/>
-      <c r="J887" s="43"/>
-      <c r="K887" s="43"/>
-      <c r="L887" s="43"/>
-      <c r="M887" s="43"/>
-      <c r="N887" s="43"/>
-      <c r="O887" s="43"/>
-      <c r="P887" s="43"/>
-      <c r="Q887" s="43"/>
-      <c r="R887" s="43"/>
-      <c r="S887" s="43"/>
-      <c r="T887" s="43"/>
-      <c r="U887" s="43"/>
-      <c r="V887" s="43"/>
-      <c r="W887" s="43"/>
-      <c r="X887" s="43"/>
-      <c r="Y887" s="43"/>
-      <c r="Z887" s="43"/>
-      <c r="AA887" s="43"/>
-      <c r="AB887" s="43"/>
-      <c r="AC887" s="43"/>
-      <c r="AD887" s="43"/>
-      <c r="AE887" s="43"/>
-      <c r="AF887" s="43"/>
-      <c r="AG887" s="43"/>
-      <c r="AH887" s="43"/>
+      <c r="B887" s="55"/>
+      <c r="C887" s="55"/>
+      <c r="D887" s="55"/>
+      <c r="E887" s="55"/>
+      <c r="F887" s="55"/>
+      <c r="G887" s="55"/>
+      <c r="H887" s="55"/>
+      <c r="I887" s="55"/>
+      <c r="J887" s="55"/>
+      <c r="K887" s="55"/>
+      <c r="L887" s="55"/>
+      <c r="M887" s="55"/>
+      <c r="N887" s="55"/>
+      <c r="O887" s="55"/>
+      <c r="P887" s="55"/>
+      <c r="Q887" s="55"/>
+      <c r="R887" s="55"/>
+      <c r="S887" s="55"/>
+      <c r="T887" s="55"/>
+      <c r="U887" s="55"/>
+      <c r="V887" s="55"/>
+      <c r="W887" s="55"/>
+      <c r="X887" s="55"/>
+      <c r="Y887" s="55"/>
+      <c r="Z887" s="55"/>
+      <c r="AA887" s="55"/>
+      <c r="AB887" s="55"/>
+      <c r="AC887" s="55"/>
+      <c r="AD887" s="55"/>
+      <c r="AE887" s="55"/>
+      <c r="AF887" s="55"/>
+      <c r="AG887" s="55"/>
+      <c r="AH887" s="55"/>
     </row>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="43"/>
-      <c r="C1100" s="43"/>
-      <c r="D1100" s="43"/>
-      <c r="E1100" s="43"/>
-      <c r="F1100" s="43"/>
-      <c r="G1100" s="43"/>
-      <c r="H1100" s="43"/>
-      <c r="I1100" s="43"/>
-      <c r="J1100" s="43"/>
-      <c r="K1100" s="43"/>
-      <c r="L1100" s="43"/>
-      <c r="M1100" s="43"/>
-      <c r="N1100" s="43"/>
-      <c r="O1100" s="43"/>
-      <c r="P1100" s="43"/>
-      <c r="Q1100" s="43"/>
-      <c r="R1100" s="43"/>
-      <c r="S1100" s="43"/>
-      <c r="T1100" s="43"/>
-      <c r="U1100" s="43"/>
-      <c r="V1100" s="43"/>
-      <c r="W1100" s="43"/>
-      <c r="X1100" s="43"/>
-      <c r="Y1100" s="43"/>
-      <c r="Z1100" s="43"/>
-      <c r="AA1100" s="43"/>
-      <c r="AB1100" s="43"/>
-      <c r="AC1100" s="43"/>
-      <c r="AD1100" s="43"/>
-      <c r="AE1100" s="43"/>
-      <c r="AF1100" s="43"/>
-      <c r="AG1100" s="43"/>
-      <c r="AH1100" s="43"/>
+      <c r="B1100" s="55"/>
+      <c r="C1100" s="55"/>
+      <c r="D1100" s="55"/>
+      <c r="E1100" s="55"/>
+      <c r="F1100" s="55"/>
+      <c r="G1100" s="55"/>
+      <c r="H1100" s="55"/>
+      <c r="I1100" s="55"/>
+      <c r="J1100" s="55"/>
+      <c r="K1100" s="55"/>
+      <c r="L1100" s="55"/>
+      <c r="M1100" s="55"/>
+      <c r="N1100" s="55"/>
+      <c r="O1100" s="55"/>
+      <c r="P1100" s="55"/>
+      <c r="Q1100" s="55"/>
+      <c r="R1100" s="55"/>
+      <c r="S1100" s="55"/>
+      <c r="T1100" s="55"/>
+      <c r="U1100" s="55"/>
+      <c r="V1100" s="55"/>
+      <c r="W1100" s="55"/>
+      <c r="X1100" s="55"/>
+      <c r="Y1100" s="55"/>
+      <c r="Z1100" s="55"/>
+      <c r="AA1100" s="55"/>
+      <c r="AB1100" s="55"/>
+      <c r="AC1100" s="55"/>
+      <c r="AD1100" s="55"/>
+      <c r="AE1100" s="55"/>
+      <c r="AF1100" s="55"/>
+      <c r="AG1100" s="55"/>
+      <c r="AH1100" s="55"/>
     </row>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="43"/>
-      <c r="C1227" s="43"/>
-      <c r="D1227" s="43"/>
-      <c r="E1227" s="43"/>
-      <c r="F1227" s="43"/>
-      <c r="G1227" s="43"/>
-      <c r="H1227" s="43"/>
-      <c r="I1227" s="43"/>
-      <c r="J1227" s="43"/>
-      <c r="K1227" s="43"/>
-      <c r="L1227" s="43"/>
-      <c r="M1227" s="43"/>
-      <c r="N1227" s="43"/>
-      <c r="O1227" s="43"/>
-      <c r="P1227" s="43"/>
-      <c r="Q1227" s="43"/>
-      <c r="R1227" s="43"/>
-      <c r="S1227" s="43"/>
-      <c r="T1227" s="43"/>
-      <c r="U1227" s="43"/>
-      <c r="V1227" s="43"/>
-      <c r="W1227" s="43"/>
-      <c r="X1227" s="43"/>
-      <c r="Y1227" s="43"/>
-      <c r="Z1227" s="43"/>
-      <c r="AA1227" s="43"/>
-      <c r="AB1227" s="43"/>
-      <c r="AC1227" s="43"/>
-      <c r="AD1227" s="43"/>
-      <c r="AE1227" s="43"/>
-      <c r="AF1227" s="43"/>
-      <c r="AG1227" s="43"/>
-      <c r="AH1227" s="43"/>
+      <c r="B1227" s="55"/>
+      <c r="C1227" s="55"/>
+      <c r="D1227" s="55"/>
+      <c r="E1227" s="55"/>
+      <c r="F1227" s="55"/>
+      <c r="G1227" s="55"/>
+      <c r="H1227" s="55"/>
+      <c r="I1227" s="55"/>
+      <c r="J1227" s="55"/>
+      <c r="K1227" s="55"/>
+      <c r="L1227" s="55"/>
+      <c r="M1227" s="55"/>
+      <c r="N1227" s="55"/>
+      <c r="O1227" s="55"/>
+      <c r="P1227" s="55"/>
+      <c r="Q1227" s="55"/>
+      <c r="R1227" s="55"/>
+      <c r="S1227" s="55"/>
+      <c r="T1227" s="55"/>
+      <c r="U1227" s="55"/>
+      <c r="V1227" s="55"/>
+      <c r="W1227" s="55"/>
+      <c r="X1227" s="55"/>
+      <c r="Y1227" s="55"/>
+      <c r="Z1227" s="55"/>
+      <c r="AA1227" s="55"/>
+      <c r="AB1227" s="55"/>
+      <c r="AC1227" s="55"/>
+      <c r="AD1227" s="55"/>
+      <c r="AE1227" s="55"/>
+      <c r="AF1227" s="55"/>
+      <c r="AG1227" s="55"/>
+      <c r="AH1227" s="55"/>
     </row>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="43"/>
-      <c r="C1390" s="43"/>
-      <c r="D1390" s="43"/>
-      <c r="E1390" s="43"/>
-      <c r="F1390" s="43"/>
-      <c r="G1390" s="43"/>
-      <c r="H1390" s="43"/>
-      <c r="I1390" s="43"/>
-      <c r="J1390" s="43"/>
-      <c r="K1390" s="43"/>
-      <c r="L1390" s="43"/>
-      <c r="M1390" s="43"/>
-      <c r="N1390" s="43"/>
-      <c r="O1390" s="43"/>
-      <c r="P1390" s="43"/>
-      <c r="Q1390" s="43"/>
-      <c r="R1390" s="43"/>
-      <c r="S1390" s="43"/>
-      <c r="T1390" s="43"/>
-      <c r="U1390" s="43"/>
-      <c r="V1390" s="43"/>
-      <c r="W1390" s="43"/>
-      <c r="X1390" s="43"/>
-      <c r="Y1390" s="43"/>
-      <c r="Z1390" s="43"/>
-      <c r="AA1390" s="43"/>
-      <c r="AB1390" s="43"/>
-      <c r="AC1390" s="43"/>
-      <c r="AD1390" s="43"/>
-      <c r="AE1390" s="43"/>
-      <c r="AF1390" s="43"/>
-      <c r="AG1390" s="43"/>
-      <c r="AH1390" s="43"/>
+      <c r="B1390" s="55"/>
+      <c r="C1390" s="55"/>
+      <c r="D1390" s="55"/>
+      <c r="E1390" s="55"/>
+      <c r="F1390" s="55"/>
+      <c r="G1390" s="55"/>
+      <c r="H1390" s="55"/>
+      <c r="I1390" s="55"/>
+      <c r="J1390" s="55"/>
+      <c r="K1390" s="55"/>
+      <c r="L1390" s="55"/>
+      <c r="M1390" s="55"/>
+      <c r="N1390" s="55"/>
+      <c r="O1390" s="55"/>
+      <c r="P1390" s="55"/>
+      <c r="Q1390" s="55"/>
+      <c r="R1390" s="55"/>
+      <c r="S1390" s="55"/>
+      <c r="T1390" s="55"/>
+      <c r="U1390" s="55"/>
+      <c r="V1390" s="55"/>
+      <c r="W1390" s="55"/>
+      <c r="X1390" s="55"/>
+      <c r="Y1390" s="55"/>
+      <c r="Z1390" s="55"/>
+      <c r="AA1390" s="55"/>
+      <c r="AB1390" s="55"/>
+      <c r="AC1390" s="55"/>
+      <c r="AD1390" s="55"/>
+      <c r="AE1390" s="55"/>
+      <c r="AF1390" s="55"/>
+      <c r="AG1390" s="55"/>
+      <c r="AH1390" s="55"/>
     </row>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="43"/>
-      <c r="C1502" s="43"/>
-      <c r="D1502" s="43"/>
-      <c r="E1502" s="43"/>
-      <c r="F1502" s="43"/>
-      <c r="G1502" s="43"/>
-      <c r="H1502" s="43"/>
-      <c r="I1502" s="43"/>
-      <c r="J1502" s="43"/>
-      <c r="K1502" s="43"/>
-      <c r="L1502" s="43"/>
-      <c r="M1502" s="43"/>
-      <c r="N1502" s="43"/>
-      <c r="O1502" s="43"/>
-      <c r="P1502" s="43"/>
-      <c r="Q1502" s="43"/>
-      <c r="R1502" s="43"/>
-      <c r="S1502" s="43"/>
-      <c r="T1502" s="43"/>
-      <c r="U1502" s="43"/>
-      <c r="V1502" s="43"/>
-      <c r="W1502" s="43"/>
-      <c r="X1502" s="43"/>
-      <c r="Y1502" s="43"/>
-      <c r="Z1502" s="43"/>
-      <c r="AA1502" s="43"/>
-      <c r="AB1502" s="43"/>
-      <c r="AC1502" s="43"/>
-      <c r="AD1502" s="43"/>
-      <c r="AE1502" s="43"/>
-      <c r="AF1502" s="43"/>
-      <c r="AG1502" s="43"/>
-      <c r="AH1502" s="43"/>
+      <c r="B1502" s="55"/>
+      <c r="C1502" s="55"/>
+      <c r="D1502" s="55"/>
+      <c r="E1502" s="55"/>
+      <c r="F1502" s="55"/>
+      <c r="G1502" s="55"/>
+      <c r="H1502" s="55"/>
+      <c r="I1502" s="55"/>
+      <c r="J1502" s="55"/>
+      <c r="K1502" s="55"/>
+      <c r="L1502" s="55"/>
+      <c r="M1502" s="55"/>
+      <c r="N1502" s="55"/>
+      <c r="O1502" s="55"/>
+      <c r="P1502" s="55"/>
+      <c r="Q1502" s="55"/>
+      <c r="R1502" s="55"/>
+      <c r="S1502" s="55"/>
+      <c r="T1502" s="55"/>
+      <c r="U1502" s="55"/>
+      <c r="V1502" s="55"/>
+      <c r="W1502" s="55"/>
+      <c r="X1502" s="55"/>
+      <c r="Y1502" s="55"/>
+      <c r="Z1502" s="55"/>
+      <c r="AA1502" s="55"/>
+      <c r="AB1502" s="55"/>
+      <c r="AC1502" s="55"/>
+      <c r="AD1502" s="55"/>
+      <c r="AE1502" s="55"/>
+      <c r="AF1502" s="55"/>
+      <c r="AG1502" s="55"/>
+      <c r="AH1502" s="55"/>
     </row>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="43"/>
-      <c r="C1604" s="43"/>
-      <c r="D1604" s="43"/>
-      <c r="E1604" s="43"/>
-      <c r="F1604" s="43"/>
-      <c r="G1604" s="43"/>
-      <c r="H1604" s="43"/>
-      <c r="I1604" s="43"/>
-      <c r="J1604" s="43"/>
-      <c r="K1604" s="43"/>
-      <c r="L1604" s="43"/>
-      <c r="M1604" s="43"/>
-      <c r="N1604" s="43"/>
-      <c r="O1604" s="43"/>
-      <c r="P1604" s="43"/>
-      <c r="Q1604" s="43"/>
-      <c r="R1604" s="43"/>
-      <c r="S1604" s="43"/>
-      <c r="T1604" s="43"/>
-      <c r="U1604" s="43"/>
-      <c r="V1604" s="43"/>
-      <c r="W1604" s="43"/>
-      <c r="X1604" s="43"/>
-      <c r="Y1604" s="43"/>
-      <c r="Z1604" s="43"/>
-      <c r="AA1604" s="43"/>
-      <c r="AB1604" s="43"/>
-      <c r="AC1604" s="43"/>
-      <c r="AD1604" s="43"/>
-      <c r="AE1604" s="43"/>
-      <c r="AF1604" s="43"/>
-      <c r="AG1604" s="43"/>
-      <c r="AH1604" s="43"/>
+      <c r="B1604" s="55"/>
+      <c r="C1604" s="55"/>
+      <c r="D1604" s="55"/>
+      <c r="E1604" s="55"/>
+      <c r="F1604" s="55"/>
+      <c r="G1604" s="55"/>
+      <c r="H1604" s="55"/>
+      <c r="I1604" s="55"/>
+      <c r="J1604" s="55"/>
+      <c r="K1604" s="55"/>
+      <c r="L1604" s="55"/>
+      <c r="M1604" s="55"/>
+      <c r="N1604" s="55"/>
+      <c r="O1604" s="55"/>
+      <c r="P1604" s="55"/>
+      <c r="Q1604" s="55"/>
+      <c r="R1604" s="55"/>
+      <c r="S1604" s="55"/>
+      <c r="T1604" s="55"/>
+      <c r="U1604" s="55"/>
+      <c r="V1604" s="55"/>
+      <c r="W1604" s="55"/>
+      <c r="X1604" s="55"/>
+      <c r="Y1604" s="55"/>
+      <c r="Z1604" s="55"/>
+      <c r="AA1604" s="55"/>
+      <c r="AB1604" s="55"/>
+      <c r="AC1604" s="55"/>
+      <c r="AD1604" s="55"/>
+      <c r="AE1604" s="55"/>
+      <c r="AF1604" s="55"/>
+      <c r="AG1604" s="55"/>
+      <c r="AH1604" s="55"/>
     </row>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="43"/>
-      <c r="C1698" s="43"/>
-      <c r="D1698" s="43"/>
-      <c r="E1698" s="43"/>
-      <c r="F1698" s="43"/>
-      <c r="G1698" s="43"/>
-      <c r="H1698" s="43"/>
-      <c r="I1698" s="43"/>
-      <c r="J1698" s="43"/>
-      <c r="K1698" s="43"/>
-      <c r="L1698" s="43"/>
-      <c r="M1698" s="43"/>
-      <c r="N1698" s="43"/>
-      <c r="O1698" s="43"/>
-      <c r="P1698" s="43"/>
-      <c r="Q1698" s="43"/>
-      <c r="R1698" s="43"/>
-      <c r="S1698" s="43"/>
-      <c r="T1698" s="43"/>
-      <c r="U1698" s="43"/>
-      <c r="V1698" s="43"/>
-      <c r="W1698" s="43"/>
-      <c r="X1698" s="43"/>
-      <c r="Y1698" s="43"/>
-      <c r="Z1698" s="43"/>
-      <c r="AA1698" s="43"/>
-      <c r="AB1698" s="43"/>
-      <c r="AC1698" s="43"/>
-      <c r="AD1698" s="43"/>
-      <c r="AE1698" s="43"/>
-      <c r="AF1698" s="43"/>
-      <c r="AG1698" s="43"/>
-      <c r="AH1698" s="43"/>
+      <c r="B1698" s="55"/>
+      <c r="C1698" s="55"/>
+      <c r="D1698" s="55"/>
+      <c r="E1698" s="55"/>
+      <c r="F1698" s="55"/>
+      <c r="G1698" s="55"/>
+      <c r="H1698" s="55"/>
+      <c r="I1698" s="55"/>
+      <c r="J1698" s="55"/>
+      <c r="K1698" s="55"/>
+      <c r="L1698" s="55"/>
+      <c r="M1698" s="55"/>
+      <c r="N1698" s="55"/>
+      <c r="O1698" s="55"/>
+      <c r="P1698" s="55"/>
+      <c r="Q1698" s="55"/>
+      <c r="R1698" s="55"/>
+      <c r="S1698" s="55"/>
+      <c r="T1698" s="55"/>
+      <c r="U1698" s="55"/>
+      <c r="V1698" s="55"/>
+      <c r="W1698" s="55"/>
+      <c r="X1698" s="55"/>
+      <c r="Y1698" s="55"/>
+      <c r="Z1698" s="55"/>
+      <c r="AA1698" s="55"/>
+      <c r="AB1698" s="55"/>
+      <c r="AC1698" s="55"/>
+      <c r="AD1698" s="55"/>
+      <c r="AE1698" s="55"/>
+      <c r="AF1698" s="55"/>
+      <c r="AG1698" s="55"/>
+      <c r="AH1698" s="55"/>
     </row>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="43"/>
-      <c r="C1945" s="43"/>
-      <c r="D1945" s="43"/>
-      <c r="E1945" s="43"/>
-      <c r="F1945" s="43"/>
-      <c r="G1945" s="43"/>
-      <c r="H1945" s="43"/>
-      <c r="I1945" s="43"/>
-      <c r="J1945" s="43"/>
-      <c r="K1945" s="43"/>
-      <c r="L1945" s="43"/>
-      <c r="M1945" s="43"/>
-      <c r="N1945" s="43"/>
-      <c r="O1945" s="43"/>
-      <c r="P1945" s="43"/>
-      <c r="Q1945" s="43"/>
-      <c r="R1945" s="43"/>
-      <c r="S1945" s="43"/>
-      <c r="T1945" s="43"/>
-      <c r="U1945" s="43"/>
-      <c r="V1945" s="43"/>
-      <c r="W1945" s="43"/>
-      <c r="X1945" s="43"/>
-      <c r="Y1945" s="43"/>
-      <c r="Z1945" s="43"/>
-      <c r="AA1945" s="43"/>
-      <c r="AB1945" s="43"/>
-      <c r="AC1945" s="43"/>
-      <c r="AD1945" s="43"/>
-      <c r="AE1945" s="43"/>
-      <c r="AF1945" s="43"/>
-      <c r="AG1945" s="43"/>
-      <c r="AH1945" s="43"/>
+      <c r="B1945" s="55"/>
+      <c r="C1945" s="55"/>
+      <c r="D1945" s="55"/>
+      <c r="E1945" s="55"/>
+      <c r="F1945" s="55"/>
+      <c r="G1945" s="55"/>
+      <c r="H1945" s="55"/>
+      <c r="I1945" s="55"/>
+      <c r="J1945" s="55"/>
+      <c r="K1945" s="55"/>
+      <c r="L1945" s="55"/>
+      <c r="M1945" s="55"/>
+      <c r="N1945" s="55"/>
+      <c r="O1945" s="55"/>
+      <c r="P1945" s="55"/>
+      <c r="Q1945" s="55"/>
+      <c r="R1945" s="55"/>
+      <c r="S1945" s="55"/>
+      <c r="T1945" s="55"/>
+      <c r="U1945" s="55"/>
+      <c r="V1945" s="55"/>
+      <c r="W1945" s="55"/>
+      <c r="X1945" s="55"/>
+      <c r="Y1945" s="55"/>
+      <c r="Z1945" s="55"/>
+      <c r="AA1945" s="55"/>
+      <c r="AB1945" s="55"/>
+      <c r="AC1945" s="55"/>
+      <c r="AD1945" s="55"/>
+      <c r="AE1945" s="55"/>
+      <c r="AF1945" s="55"/>
+      <c r="AG1945" s="55"/>
+      <c r="AH1945" s="55"/>
     </row>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="43"/>
-      <c r="C2031" s="43"/>
-      <c r="D2031" s="43"/>
-      <c r="E2031" s="43"/>
-      <c r="F2031" s="43"/>
-      <c r="G2031" s="43"/>
-      <c r="H2031" s="43"/>
-      <c r="I2031" s="43"/>
-      <c r="J2031" s="43"/>
-      <c r="K2031" s="43"/>
-      <c r="L2031" s="43"/>
-      <c r="M2031" s="43"/>
-      <c r="N2031" s="43"/>
-      <c r="O2031" s="43"/>
-      <c r="P2031" s="43"/>
-      <c r="Q2031" s="43"/>
-      <c r="R2031" s="43"/>
-      <c r="S2031" s="43"/>
-      <c r="T2031" s="43"/>
-      <c r="U2031" s="43"/>
-      <c r="V2031" s="43"/>
-      <c r="W2031" s="43"/>
-      <c r="X2031" s="43"/>
-      <c r="Y2031" s="43"/>
-      <c r="Z2031" s="43"/>
-      <c r="AA2031" s="43"/>
-      <c r="AB2031" s="43"/>
-      <c r="AC2031" s="43"/>
-      <c r="AD2031" s="43"/>
-      <c r="AE2031" s="43"/>
-      <c r="AF2031" s="43"/>
-      <c r="AG2031" s="43"/>
-      <c r="AH2031" s="43"/>
+      <c r="B2031" s="55"/>
+      <c r="C2031" s="55"/>
+      <c r="D2031" s="55"/>
+      <c r="E2031" s="55"/>
+      <c r="F2031" s="55"/>
+      <c r="G2031" s="55"/>
+      <c r="H2031" s="55"/>
+      <c r="I2031" s="55"/>
+      <c r="J2031" s="55"/>
+      <c r="K2031" s="55"/>
+      <c r="L2031" s="55"/>
+      <c r="M2031" s="55"/>
+      <c r="N2031" s="55"/>
+      <c r="O2031" s="55"/>
+      <c r="P2031" s="55"/>
+      <c r="Q2031" s="55"/>
+      <c r="R2031" s="55"/>
+      <c r="S2031" s="55"/>
+      <c r="T2031" s="55"/>
+      <c r="U2031" s="55"/>
+      <c r="V2031" s="55"/>
+      <c r="W2031" s="55"/>
+      <c r="X2031" s="55"/>
+      <c r="Y2031" s="55"/>
+      <c r="Z2031" s="55"/>
+      <c r="AA2031" s="55"/>
+      <c r="AB2031" s="55"/>
+      <c r="AC2031" s="55"/>
+      <c r="AD2031" s="55"/>
+      <c r="AE2031" s="55"/>
+      <c r="AF2031" s="55"/>
+      <c r="AG2031" s="55"/>
+      <c r="AH2031" s="55"/>
     </row>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="43"/>
-      <c r="C2153" s="43"/>
-      <c r="D2153" s="43"/>
-      <c r="E2153" s="43"/>
-      <c r="F2153" s="43"/>
-      <c r="G2153" s="43"/>
-      <c r="H2153" s="43"/>
-      <c r="I2153" s="43"/>
-      <c r="J2153" s="43"/>
-      <c r="K2153" s="43"/>
-      <c r="L2153" s="43"/>
-      <c r="M2153" s="43"/>
-      <c r="N2153" s="43"/>
-      <c r="O2153" s="43"/>
-      <c r="P2153" s="43"/>
-      <c r="Q2153" s="43"/>
-      <c r="R2153" s="43"/>
-      <c r="S2153" s="43"/>
-      <c r="T2153" s="43"/>
-      <c r="U2153" s="43"/>
-      <c r="V2153" s="43"/>
-      <c r="W2153" s="43"/>
-      <c r="X2153" s="43"/>
-      <c r="Y2153" s="43"/>
-      <c r="Z2153" s="43"/>
-      <c r="AA2153" s="43"/>
-      <c r="AB2153" s="43"/>
-      <c r="AC2153" s="43"/>
-      <c r="AD2153" s="43"/>
-      <c r="AE2153" s="43"/>
-      <c r="AF2153" s="43"/>
-      <c r="AG2153" s="43"/>
-      <c r="AH2153" s="43"/>
+      <c r="B2153" s="55"/>
+      <c r="C2153" s="55"/>
+      <c r="D2153" s="55"/>
+      <c r="E2153" s="55"/>
+      <c r="F2153" s="55"/>
+      <c r="G2153" s="55"/>
+      <c r="H2153" s="55"/>
+      <c r="I2153" s="55"/>
+      <c r="J2153" s="55"/>
+      <c r="K2153" s="55"/>
+      <c r="L2153" s="55"/>
+      <c r="M2153" s="55"/>
+      <c r="N2153" s="55"/>
+      <c r="O2153" s="55"/>
+      <c r="P2153" s="55"/>
+      <c r="Q2153" s="55"/>
+      <c r="R2153" s="55"/>
+      <c r="S2153" s="55"/>
+      <c r="T2153" s="55"/>
+      <c r="U2153" s="55"/>
+      <c r="V2153" s="55"/>
+      <c r="W2153" s="55"/>
+      <c r="X2153" s="55"/>
+      <c r="Y2153" s="55"/>
+      <c r="Z2153" s="55"/>
+      <c r="AA2153" s="55"/>
+      <c r="AB2153" s="55"/>
+      <c r="AC2153" s="55"/>
+      <c r="AD2153" s="55"/>
+      <c r="AE2153" s="55"/>
+      <c r="AF2153" s="55"/>
+      <c r="AG2153" s="55"/>
+      <c r="AH2153" s="55"/>
     </row>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="43"/>
-      <c r="C2317" s="43"/>
-      <c r="D2317" s="43"/>
-      <c r="E2317" s="43"/>
-      <c r="F2317" s="43"/>
-      <c r="G2317" s="43"/>
-      <c r="H2317" s="43"/>
-      <c r="I2317" s="43"/>
-      <c r="J2317" s="43"/>
-      <c r="K2317" s="43"/>
-      <c r="L2317" s="43"/>
-      <c r="M2317" s="43"/>
-      <c r="N2317" s="43"/>
-      <c r="O2317" s="43"/>
-      <c r="P2317" s="43"/>
-      <c r="Q2317" s="43"/>
-      <c r="R2317" s="43"/>
-      <c r="S2317" s="43"/>
-      <c r="T2317" s="43"/>
-      <c r="U2317" s="43"/>
-      <c r="V2317" s="43"/>
-      <c r="W2317" s="43"/>
-      <c r="X2317" s="43"/>
-      <c r="Y2317" s="43"/>
-      <c r="Z2317" s="43"/>
-      <c r="AA2317" s="43"/>
-      <c r="AB2317" s="43"/>
-      <c r="AC2317" s="43"/>
-      <c r="AD2317" s="43"/>
-      <c r="AE2317" s="43"/>
-      <c r="AF2317" s="43"/>
-      <c r="AG2317" s="43"/>
-      <c r="AH2317" s="43"/>
+      <c r="B2317" s="55"/>
+      <c r="C2317" s="55"/>
+      <c r="D2317" s="55"/>
+      <c r="E2317" s="55"/>
+      <c r="F2317" s="55"/>
+      <c r="G2317" s="55"/>
+      <c r="H2317" s="55"/>
+      <c r="I2317" s="55"/>
+      <c r="J2317" s="55"/>
+      <c r="K2317" s="55"/>
+      <c r="L2317" s="55"/>
+      <c r="M2317" s="55"/>
+      <c r="N2317" s="55"/>
+      <c r="O2317" s="55"/>
+      <c r="P2317" s="55"/>
+      <c r="Q2317" s="55"/>
+      <c r="R2317" s="55"/>
+      <c r="S2317" s="55"/>
+      <c r="T2317" s="55"/>
+      <c r="U2317" s="55"/>
+      <c r="V2317" s="55"/>
+      <c r="W2317" s="55"/>
+      <c r="X2317" s="55"/>
+      <c r="Y2317" s="55"/>
+      <c r="Z2317" s="55"/>
+      <c r="AA2317" s="55"/>
+      <c r="AB2317" s="55"/>
+      <c r="AC2317" s="55"/>
+      <c r="AD2317" s="55"/>
+      <c r="AE2317" s="55"/>
+      <c r="AF2317" s="55"/>
+      <c r="AG2317" s="55"/>
+      <c r="AH2317" s="55"/>
     </row>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="43"/>
-      <c r="C2419" s="43"/>
-      <c r="D2419" s="43"/>
-      <c r="E2419" s="43"/>
-      <c r="F2419" s="43"/>
-      <c r="G2419" s="43"/>
-      <c r="H2419" s="43"/>
-      <c r="I2419" s="43"/>
-      <c r="J2419" s="43"/>
-      <c r="K2419" s="43"/>
-      <c r="L2419" s="43"/>
-      <c r="M2419" s="43"/>
-      <c r="N2419" s="43"/>
-      <c r="O2419" s="43"/>
-      <c r="P2419" s="43"/>
-      <c r="Q2419" s="43"/>
-      <c r="R2419" s="43"/>
-      <c r="S2419" s="43"/>
-      <c r="T2419" s="43"/>
-      <c r="U2419" s="43"/>
-      <c r="V2419" s="43"/>
-      <c r="W2419" s="43"/>
-      <c r="X2419" s="43"/>
-      <c r="Y2419" s="43"/>
-      <c r="Z2419" s="43"/>
-      <c r="AA2419" s="43"/>
-      <c r="AB2419" s="43"/>
-      <c r="AC2419" s="43"/>
-      <c r="AD2419" s="43"/>
-      <c r="AE2419" s="43"/>
-      <c r="AF2419" s="43"/>
-      <c r="AG2419" s="43"/>
-      <c r="AH2419" s="43"/>
+      <c r="B2419" s="55"/>
+      <c r="C2419" s="55"/>
+      <c r="D2419" s="55"/>
+      <c r="E2419" s="55"/>
+      <c r="F2419" s="55"/>
+      <c r="G2419" s="55"/>
+      <c r="H2419" s="55"/>
+      <c r="I2419" s="55"/>
+      <c r="J2419" s="55"/>
+      <c r="K2419" s="55"/>
+      <c r="L2419" s="55"/>
+      <c r="M2419" s="55"/>
+      <c r="N2419" s="55"/>
+      <c r="O2419" s="55"/>
+      <c r="P2419" s="55"/>
+      <c r="Q2419" s="55"/>
+      <c r="R2419" s="55"/>
+      <c r="S2419" s="55"/>
+      <c r="T2419" s="55"/>
+      <c r="U2419" s="55"/>
+      <c r="V2419" s="55"/>
+      <c r="W2419" s="55"/>
+      <c r="X2419" s="55"/>
+      <c r="Y2419" s="55"/>
+      <c r="Z2419" s="55"/>
+      <c r="AA2419" s="55"/>
+      <c r="AB2419" s="55"/>
+      <c r="AC2419" s="55"/>
+      <c r="AD2419" s="55"/>
+      <c r="AE2419" s="55"/>
+      <c r="AF2419" s="55"/>
+      <c r="AG2419" s="55"/>
+      <c r="AH2419" s="55"/>
     </row>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="43"/>
-      <c r="C2509" s="43"/>
-      <c r="D2509" s="43"/>
-      <c r="E2509" s="43"/>
-      <c r="F2509" s="43"/>
-      <c r="G2509" s="43"/>
-      <c r="H2509" s="43"/>
-      <c r="I2509" s="43"/>
-      <c r="J2509" s="43"/>
-      <c r="K2509" s="43"/>
-      <c r="L2509" s="43"/>
-      <c r="M2509" s="43"/>
-      <c r="N2509" s="43"/>
-      <c r="O2509" s="43"/>
-      <c r="P2509" s="43"/>
-      <c r="Q2509" s="43"/>
-      <c r="R2509" s="43"/>
-      <c r="S2509" s="43"/>
-      <c r="T2509" s="43"/>
-      <c r="U2509" s="43"/>
-      <c r="V2509" s="43"/>
-      <c r="W2509" s="43"/>
-      <c r="X2509" s="43"/>
-      <c r="Y2509" s="43"/>
-      <c r="Z2509" s="43"/>
-      <c r="AA2509" s="43"/>
-      <c r="AB2509" s="43"/>
-      <c r="AC2509" s="43"/>
-      <c r="AD2509" s="43"/>
-      <c r="AE2509" s="43"/>
-      <c r="AF2509" s="43"/>
-      <c r="AG2509" s="43"/>
-      <c r="AH2509" s="43"/>
+      <c r="B2509" s="55"/>
+      <c r="C2509" s="55"/>
+      <c r="D2509" s="55"/>
+      <c r="E2509" s="55"/>
+      <c r="F2509" s="55"/>
+      <c r="G2509" s="55"/>
+      <c r="H2509" s="55"/>
+      <c r="I2509" s="55"/>
+      <c r="J2509" s="55"/>
+      <c r="K2509" s="55"/>
+      <c r="L2509" s="55"/>
+      <c r="M2509" s="55"/>
+      <c r="N2509" s="55"/>
+      <c r="O2509" s="55"/>
+      <c r="P2509" s="55"/>
+      <c r="Q2509" s="55"/>
+      <c r="R2509" s="55"/>
+      <c r="S2509" s="55"/>
+      <c r="T2509" s="55"/>
+      <c r="U2509" s="55"/>
+      <c r="V2509" s="55"/>
+      <c r="W2509" s="55"/>
+      <c r="X2509" s="55"/>
+      <c r="Y2509" s="55"/>
+      <c r="Z2509" s="55"/>
+      <c r="AA2509" s="55"/>
+      <c r="AB2509" s="55"/>
+      <c r="AC2509" s="55"/>
+      <c r="AD2509" s="55"/>
+      <c r="AE2509" s="55"/>
+      <c r="AF2509" s="55"/>
+      <c r="AG2509" s="55"/>
+      <c r="AH2509" s="55"/>
     </row>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="43"/>
-      <c r="C2598" s="43"/>
-      <c r="D2598" s="43"/>
-      <c r="E2598" s="43"/>
-      <c r="F2598" s="43"/>
-      <c r="G2598" s="43"/>
-      <c r="H2598" s="43"/>
-      <c r="I2598" s="43"/>
-      <c r="J2598" s="43"/>
-      <c r="K2598" s="43"/>
-      <c r="L2598" s="43"/>
-      <c r="M2598" s="43"/>
-      <c r="N2598" s="43"/>
-      <c r="O2598" s="43"/>
-      <c r="P2598" s="43"/>
-      <c r="Q2598" s="43"/>
-      <c r="R2598" s="43"/>
-      <c r="S2598" s="43"/>
-      <c r="T2598" s="43"/>
-      <c r="U2598" s="43"/>
-      <c r="V2598" s="43"/>
-      <c r="W2598" s="43"/>
-      <c r="X2598" s="43"/>
-      <c r="Y2598" s="43"/>
-      <c r="Z2598" s="43"/>
-      <c r="AA2598" s="43"/>
-      <c r="AB2598" s="43"/>
-      <c r="AC2598" s="43"/>
-      <c r="AD2598" s="43"/>
-      <c r="AE2598" s="43"/>
-      <c r="AF2598" s="43"/>
-      <c r="AG2598" s="43"/>
-      <c r="AH2598" s="43"/>
+      <c r="B2598" s="55"/>
+      <c r="C2598" s="55"/>
+      <c r="D2598" s="55"/>
+      <c r="E2598" s="55"/>
+      <c r="F2598" s="55"/>
+      <c r="G2598" s="55"/>
+      <c r="H2598" s="55"/>
+      <c r="I2598" s="55"/>
+      <c r="J2598" s="55"/>
+      <c r="K2598" s="55"/>
+      <c r="L2598" s="55"/>
+      <c r="M2598" s="55"/>
+      <c r="N2598" s="55"/>
+      <c r="O2598" s="55"/>
+      <c r="P2598" s="55"/>
+      <c r="Q2598" s="55"/>
+      <c r="R2598" s="55"/>
+      <c r="S2598" s="55"/>
+      <c r="T2598" s="55"/>
+      <c r="U2598" s="55"/>
+      <c r="V2598" s="55"/>
+      <c r="W2598" s="55"/>
+      <c r="X2598" s="55"/>
+      <c r="Y2598" s="55"/>
+      <c r="Z2598" s="55"/>
+      <c r="AA2598" s="55"/>
+      <c r="AB2598" s="55"/>
+      <c r="AC2598" s="55"/>
+      <c r="AD2598" s="55"/>
+      <c r="AE2598" s="55"/>
+      <c r="AF2598" s="55"/>
+      <c r="AG2598" s="55"/>
+      <c r="AH2598" s="55"/>
     </row>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="43"/>
-      <c r="C2719" s="43"/>
-      <c r="D2719" s="43"/>
-      <c r="E2719" s="43"/>
-      <c r="F2719" s="43"/>
-      <c r="G2719" s="43"/>
-      <c r="H2719" s="43"/>
-      <c r="I2719" s="43"/>
-      <c r="J2719" s="43"/>
-      <c r="K2719" s="43"/>
-      <c r="L2719" s="43"/>
-      <c r="M2719" s="43"/>
-      <c r="N2719" s="43"/>
-      <c r="O2719" s="43"/>
-      <c r="P2719" s="43"/>
-      <c r="Q2719" s="43"/>
-      <c r="R2719" s="43"/>
-      <c r="S2719" s="43"/>
-      <c r="T2719" s="43"/>
-      <c r="U2719" s="43"/>
-      <c r="V2719" s="43"/>
-      <c r="W2719" s="43"/>
-      <c r="X2719" s="43"/>
-      <c r="Y2719" s="43"/>
-      <c r="Z2719" s="43"/>
-      <c r="AA2719" s="43"/>
-      <c r="AB2719" s="43"/>
-      <c r="AC2719" s="43"/>
-      <c r="AD2719" s="43"/>
-      <c r="AE2719" s="43"/>
-      <c r="AF2719" s="43"/>
-      <c r="AG2719" s="43"/>
-      <c r="AH2719" s="43"/>
+      <c r="B2719" s="55"/>
+      <c r="C2719" s="55"/>
+      <c r="D2719" s="55"/>
+      <c r="E2719" s="55"/>
+      <c r="F2719" s="55"/>
+      <c r="G2719" s="55"/>
+      <c r="H2719" s="55"/>
+      <c r="I2719" s="55"/>
+      <c r="J2719" s="55"/>
+      <c r="K2719" s="55"/>
+      <c r="L2719" s="55"/>
+      <c r="M2719" s="55"/>
+      <c r="N2719" s="55"/>
+      <c r="O2719" s="55"/>
+      <c r="P2719" s="55"/>
+      <c r="Q2719" s="55"/>
+      <c r="R2719" s="55"/>
+      <c r="S2719" s="55"/>
+      <c r="T2719" s="55"/>
+      <c r="U2719" s="55"/>
+      <c r="V2719" s="55"/>
+      <c r="W2719" s="55"/>
+      <c r="X2719" s="55"/>
+      <c r="Y2719" s="55"/>
+      <c r="Z2719" s="55"/>
+      <c r="AA2719" s="55"/>
+      <c r="AB2719" s="55"/>
+      <c r="AC2719" s="55"/>
+      <c r="AD2719" s="55"/>
+      <c r="AE2719" s="55"/>
+      <c r="AF2719" s="55"/>
+      <c r="AG2719" s="55"/>
+      <c r="AH2719" s="55"/>
     </row>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="43"/>
-      <c r="C2837" s="43"/>
-      <c r="D2837" s="43"/>
-      <c r="E2837" s="43"/>
-      <c r="F2837" s="43"/>
-      <c r="G2837" s="43"/>
-      <c r="H2837" s="43"/>
-      <c r="I2837" s="43"/>
-      <c r="J2837" s="43"/>
-      <c r="K2837" s="43"/>
-      <c r="L2837" s="43"/>
-      <c r="M2837" s="43"/>
-      <c r="N2837" s="43"/>
-      <c r="O2837" s="43"/>
-      <c r="P2837" s="43"/>
-      <c r="Q2837" s="43"/>
-      <c r="R2837" s="43"/>
-      <c r="S2837" s="43"/>
-      <c r="T2837" s="43"/>
-      <c r="U2837" s="43"/>
-      <c r="V2837" s="43"/>
-      <c r="W2837" s="43"/>
-      <c r="X2837" s="43"/>
-      <c r="Y2837" s="43"/>
-      <c r="Z2837" s="43"/>
-      <c r="AA2837" s="43"/>
-      <c r="AB2837" s="43"/>
-      <c r="AC2837" s="43"/>
-      <c r="AD2837" s="43"/>
-      <c r="AE2837" s="43"/>
-      <c r="AF2837" s="43"/>
-      <c r="AG2837" s="43"/>
-      <c r="AH2837" s="43"/>
+      <c r="B2837" s="55"/>
+      <c r="C2837" s="55"/>
+      <c r="D2837" s="55"/>
+      <c r="E2837" s="55"/>
+      <c r="F2837" s="55"/>
+      <c r="G2837" s="55"/>
+      <c r="H2837" s="55"/>
+      <c r="I2837" s="55"/>
+      <c r="J2837" s="55"/>
+      <c r="K2837" s="55"/>
+      <c r="L2837" s="55"/>
+      <c r="M2837" s="55"/>
+      <c r="N2837" s="55"/>
+      <c r="O2837" s="55"/>
+      <c r="P2837" s="55"/>
+      <c r="Q2837" s="55"/>
+      <c r="R2837" s="55"/>
+      <c r="S2837" s="55"/>
+      <c r="T2837" s="55"/>
+      <c r="U2837" s="55"/>
+      <c r="V2837" s="55"/>
+      <c r="W2837" s="55"/>
+      <c r="X2837" s="55"/>
+      <c r="Y2837" s="55"/>
+      <c r="Z2837" s="55"/>
+      <c r="AA2837" s="55"/>
+      <c r="AB2837" s="55"/>
+      <c r="AC2837" s="55"/>
+      <c r="AD2837" s="55"/>
+      <c r="AE2837" s="55"/>
+      <c r="AF2837" s="55"/>
+      <c r="AG2837" s="55"/>
+      <c r="AH2837" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B147:AG147"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
     <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
@@ -14018,20 +14070,6 @@
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B147:AG147"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -14596,97 +14634,97 @@
       <c r="B20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="39">
         <v>93.582397</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="39">
         <v>94.523658999999995</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="39">
         <v>95.346710000000002</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="39">
         <v>96.302993999999998</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="39">
         <v>97.337845000000002</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="39">
         <v>98.385131999999999</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="39">
         <v>99.418007000000003</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="39">
         <v>100.435867</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="39">
         <v>101.440735</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="39">
         <v>102.432587</v>
       </c>
-      <c r="M20" s="44">
+      <c r="M20" s="39">
         <v>103.426018</v>
       </c>
-      <c r="N20" s="44">
+      <c r="N20" s="39">
         <v>104.436516</v>
       </c>
-      <c r="O20" s="44">
+      <c r="O20" s="39">
         <v>105.47370100000001</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="39">
         <v>106.52668799999999</v>
       </c>
-      <c r="Q20" s="44">
+      <c r="Q20" s="39">
         <v>107.58678399999999</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="39">
         <v>108.643562</v>
       </c>
-      <c r="S20" s="44">
+      <c r="S20" s="39">
         <v>109.68611900000001</v>
       </c>
-      <c r="T20" s="44">
+      <c r="T20" s="39">
         <v>110.70533</v>
       </c>
-      <c r="U20" s="44">
+      <c r="U20" s="39">
         <v>111.715248</v>
       </c>
-      <c r="V20" s="44">
+      <c r="V20" s="39">
         <v>112.72905</v>
       </c>
-      <c r="W20" s="44">
+      <c r="W20" s="39">
         <v>113.76078800000001</v>
       </c>
-      <c r="X20" s="44">
+      <c r="X20" s="39">
         <v>114.80397000000001</v>
       </c>
-      <c r="Y20" s="44">
+      <c r="Y20" s="39">
         <v>115.85629299999999</v>
       </c>
-      <c r="Z20" s="44">
+      <c r="Z20" s="39">
         <v>116.915871</v>
       </c>
-      <c r="AA20" s="44">
+      <c r="AA20" s="39">
         <v>117.977081</v>
       </c>
-      <c r="AB20" s="44">
+      <c r="AB20" s="39">
         <v>119.05152099999999</v>
       </c>
-      <c r="AC20" s="44">
+      <c r="AC20" s="39">
         <v>120.132271</v>
       </c>
-      <c r="AD20" s="44">
+      <c r="AD20" s="39">
         <v>121.20697</v>
       </c>
-      <c r="AE20" s="44">
+      <c r="AE20" s="39">
         <v>122.28743</v>
       </c>
-      <c r="AF20" s="44">
+      <c r="AF20" s="39">
         <v>123.37091100000001</v>
       </c>
-      <c r="AG20" s="44">
+      <c r="AG20" s="39">
         <v>124.454002</v>
       </c>
       <c r="AH20" s="30">
@@ -17744,107 +17782,107 @@
         <v>9.2820000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+    <row r="63" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="51" t="s">
         <v>382</v>
       </c>
-      <c r="C63" s="60">
+      <c r="C63" s="52">
         <v>0.64426799999999995</v>
       </c>
-      <c r="D63" s="60">
+      <c r="D63" s="52">
         <v>0.64257699999999995</v>
       </c>
-      <c r="E63" s="60">
+      <c r="E63" s="52">
         <v>0.641509</v>
       </c>
-      <c r="F63" s="60">
+      <c r="F63" s="52">
         <v>0.64612700000000001</v>
       </c>
-      <c r="G63" s="60">
+      <c r="G63" s="52">
         <v>0.65510500000000005</v>
       </c>
-      <c r="H63" s="60">
+      <c r="H63" s="52">
         <v>0.66229199999999999</v>
       </c>
-      <c r="I63" s="60">
+      <c r="I63" s="52">
         <v>0.66683899999999996</v>
       </c>
-      <c r="J63" s="60">
+      <c r="J63" s="52">
         <v>0.66959100000000005</v>
       </c>
-      <c r="K63" s="60">
+      <c r="K63" s="52">
         <v>0.67210499999999995</v>
       </c>
-      <c r="L63" s="60">
+      <c r="L63" s="52">
         <v>0.67374800000000001</v>
       </c>
-      <c r="M63" s="60">
+      <c r="M63" s="52">
         <v>0.67294600000000004</v>
       </c>
-      <c r="N63" s="60">
+      <c r="N63" s="52">
         <v>0.67375200000000002</v>
       </c>
-      <c r="O63" s="60">
+      <c r="O63" s="52">
         <v>0.67605800000000005</v>
       </c>
-      <c r="P63" s="60">
+      <c r="P63" s="52">
         <v>0.67913500000000004</v>
       </c>
-      <c r="Q63" s="60">
+      <c r="Q63" s="52">
         <v>0.68264199999999997</v>
       </c>
-      <c r="R63" s="60">
+      <c r="R63" s="52">
         <v>0.68672699999999998</v>
       </c>
-      <c r="S63" s="60">
+      <c r="S63" s="52">
         <v>0.69102600000000003</v>
       </c>
-      <c r="T63" s="60">
+      <c r="T63" s="52">
         <v>0.69512700000000005</v>
       </c>
-      <c r="U63" s="60">
+      <c r="U63" s="52">
         <v>0.69935199999999997</v>
       </c>
-      <c r="V63" s="60">
+      <c r="V63" s="52">
         <v>0.70380799999999999</v>
       </c>
-      <c r="W63" s="60">
+      <c r="W63" s="52">
         <v>0.70833400000000002</v>
       </c>
-      <c r="X63" s="60">
+      <c r="X63" s="52">
         <v>0.71299699999999999</v>
       </c>
-      <c r="Y63" s="60">
+      <c r="Y63" s="52">
         <v>0.71738599999999997</v>
       </c>
-      <c r="Z63" s="60">
+      <c r="Z63" s="52">
         <v>0.72174499999999997</v>
       </c>
-      <c r="AA63" s="60">
+      <c r="AA63" s="52">
         <v>0.72599400000000003</v>
       </c>
-      <c r="AB63" s="60">
+      <c r="AB63" s="52">
         <v>0.73025600000000002</v>
       </c>
-      <c r="AC63" s="60">
+      <c r="AC63" s="52">
         <v>0.73468699999999998</v>
       </c>
-      <c r="AD63" s="60">
+      <c r="AD63" s="52">
         <v>0.73926400000000003</v>
       </c>
-      <c r="AE63" s="60">
+      <c r="AE63" s="52">
         <v>0.74431800000000004</v>
       </c>
-      <c r="AF63" s="60">
+      <c r="AF63" s="52">
         <v>0.74924900000000005</v>
       </c>
-      <c r="AG63" s="60">
+      <c r="AG63" s="52">
         <v>0.75371200000000005</v>
       </c>
-      <c r="AH63" s="61">
+      <c r="AH63" s="53">
         <v>5.2440000000000004E-3</v>
       </c>
     </row>
@@ -17952,107 +17990,107 @@
         <v>-6.9179999999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+    <row r="65" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="60">
+      <c r="C65" s="52">
         <v>0.429176</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="52">
         <v>0.43017899999999998</v>
       </c>
-      <c r="E65" s="60">
+      <c r="E65" s="52">
         <v>0.43247400000000003</v>
       </c>
-      <c r="F65" s="60">
+      <c r="F65" s="52">
         <v>0.438166</v>
       </c>
-      <c r="G65" s="60">
+      <c r="G65" s="52">
         <v>0.446272</v>
       </c>
-      <c r="H65" s="60">
+      <c r="H65" s="52">
         <v>0.45343699999999998</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I65" s="52">
         <v>0.45917200000000002</v>
       </c>
-      <c r="J65" s="60">
+      <c r="J65" s="52">
         <v>0.46388499999999999</v>
       </c>
-      <c r="K65" s="60">
+      <c r="K65" s="52">
         <v>0.46830100000000002</v>
       </c>
-      <c r="L65" s="60">
+      <c r="L65" s="52">
         <v>0.472109</v>
       </c>
-      <c r="M65" s="60">
+      <c r="M65" s="52">
         <v>0.47386600000000001</v>
       </c>
-      <c r="N65" s="60">
+      <c r="N65" s="52">
         <v>0.47666999999999998</v>
       </c>
-      <c r="O65" s="60">
+      <c r="O65" s="52">
         <v>0.480327</v>
       </c>
-      <c r="P65" s="60">
+      <c r="P65" s="52">
         <v>0.48453400000000002</v>
       </c>
-      <c r="Q65" s="60">
+      <c r="Q65" s="52">
         <v>0.48890699999999998</v>
       </c>
-      <c r="R65" s="60">
+      <c r="R65" s="52">
         <v>0.49354199999999998</v>
       </c>
-      <c r="S65" s="60">
+      <c r="S65" s="52">
         <v>0.49818299999999999</v>
       </c>
-      <c r="T65" s="60">
+      <c r="T65" s="52">
         <v>0.50261400000000001</v>
       </c>
-      <c r="U65" s="60">
+      <c r="U65" s="52">
         <v>0.50695400000000002</v>
       </c>
-      <c r="V65" s="60">
+      <c r="V65" s="52">
         <v>0.511347</v>
       </c>
-      <c r="W65" s="60">
+      <c r="W65" s="52">
         <v>0.51578100000000004</v>
       </c>
-      <c r="X65" s="60">
+      <c r="X65" s="52">
         <v>0.52051199999999997</v>
       </c>
-      <c r="Y65" s="60">
+      <c r="Y65" s="52">
         <v>0.52507599999999999</v>
       </c>
-      <c r="Z65" s="60">
+      <c r="Z65" s="52">
         <v>0.52961199999999997</v>
       </c>
-      <c r="AA65" s="60">
+      <c r="AA65" s="52">
         <v>0.53404399999999996</v>
       </c>
-      <c r="AB65" s="60">
+      <c r="AB65" s="52">
         <v>0.53846799999999995</v>
       </c>
-      <c r="AC65" s="60">
+      <c r="AC65" s="52">
         <v>0.54296900000000003</v>
       </c>
-      <c r="AD65" s="60">
+      <c r="AD65" s="52">
         <v>0.54744599999999999</v>
       </c>
-      <c r="AE65" s="60">
+      <c r="AE65" s="52">
         <v>0.55214300000000005</v>
       </c>
-      <c r="AF65" s="60">
+      <c r="AF65" s="52">
         <v>0.55677200000000004</v>
       </c>
-      <c r="AG65" s="60">
+      <c r="AG65" s="52">
         <v>0.56108000000000002</v>
       </c>
-      <c r="AH65" s="61">
+      <c r="AH65" s="53">
         <v>8.9730000000000001E-3</v>
       </c>
     </row>
@@ -19205,107 +19243,107 @@
         <v>3.153E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="48" t="s">
+    <row r="80" spans="1:34" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="B80" s="49" t="s">
+      <c r="B80" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="C80" s="50">
+      <c r="C80" s="42">
         <v>0.69043399999999999</v>
       </c>
-      <c r="D80" s="50">
+      <c r="D80" s="42">
         <v>0.68777500000000003</v>
       </c>
-      <c r="E80" s="50">
+      <c r="E80" s="42">
         <v>0.68591199999999997</v>
       </c>
-      <c r="F80" s="50">
+      <c r="F80" s="42">
         <v>0.68877999999999995</v>
       </c>
-      <c r="G80" s="50">
+      <c r="G80" s="42">
         <v>0.69621200000000005</v>
       </c>
-      <c r="H80" s="50">
+      <c r="H80" s="42">
         <v>0.70161300000000004</v>
       </c>
-      <c r="I80" s="50">
+      <c r="I80" s="42">
         <v>0.70428599999999997</v>
       </c>
-      <c r="J80" s="50">
+      <c r="J80" s="42">
         <v>0.70554300000000003</v>
       </c>
-      <c r="K80" s="50">
+      <c r="K80" s="42">
         <v>0.70706100000000005</v>
       </c>
-      <c r="L80" s="50">
+      <c r="L80" s="42">
         <v>0.70783600000000002</v>
       </c>
-      <c r="M80" s="50">
+      <c r="M80" s="42">
         <v>0.70649300000000004</v>
       </c>
-      <c r="N80" s="50">
+      <c r="N80" s="42">
         <v>0.70668299999999995</v>
       </c>
-      <c r="O80" s="50">
+      <c r="O80" s="42">
         <v>0.70835700000000001</v>
       </c>
-      <c r="P80" s="50">
+      <c r="P80" s="42">
         <v>0.71090600000000004</v>
       </c>
-      <c r="Q80" s="50">
+      <c r="Q80" s="42">
         <v>0.71386499999999997</v>
       </c>
-      <c r="R80" s="50">
+      <c r="R80" s="42">
         <v>0.71748100000000004</v>
       </c>
-      <c r="S80" s="50">
+      <c r="S80" s="42">
         <v>0.72131000000000001</v>
       </c>
-      <c r="T80" s="50">
+      <c r="T80" s="42">
         <v>0.724912</v>
       </c>
-      <c r="U80" s="50">
+      <c r="U80" s="42">
         <v>0.72865000000000002</v>
       </c>
-      <c r="V80" s="50">
+      <c r="V80" s="42">
         <v>0.73268100000000003</v>
       </c>
-      <c r="W80" s="50">
+      <c r="W80" s="42">
         <v>0.736815</v>
       </c>
-      <c r="X80" s="50">
+      <c r="X80" s="42">
         <v>0.74112100000000003</v>
       </c>
-      <c r="Y80" s="50">
+      <c r="Y80" s="42">
         <v>0.74516499999999997</v>
       </c>
-      <c r="Z80" s="50">
+      <c r="Z80" s="42">
         <v>0.74911899999999998</v>
       </c>
-      <c r="AA80" s="50">
+      <c r="AA80" s="42">
         <v>0.75286900000000001</v>
       </c>
-      <c r="AB80" s="50">
+      <c r="AB80" s="42">
         <v>0.75677799999999995</v>
       </c>
-      <c r="AC80" s="50">
+      <c r="AC80" s="42">
         <v>0.76086200000000004</v>
       </c>
-      <c r="AD80" s="50">
+      <c r="AD80" s="42">
         <v>0.76511300000000004</v>
       </c>
-      <c r="AE80" s="50">
+      <c r="AE80" s="42">
         <v>0.76983500000000005</v>
       </c>
-      <c r="AF80" s="50">
+      <c r="AF80" s="42">
         <v>0.77451899999999996</v>
       </c>
-      <c r="AG80" s="50">
+      <c r="AG80" s="42">
         <v>0.778729</v>
       </c>
-      <c r="AH80" s="51">
+      <c r="AH80" s="43">
         <v>4.019E-3</v>
       </c>
     </row>
@@ -19413,107 +19451,107 @@
         <v>-1.3395000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="53" t="s">
+    <row r="82" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="54" t="s">
+      <c r="B82" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="47">
         <v>0.58410099999999998</v>
       </c>
-      <c r="D82" s="55">
+      <c r="D82" s="47">
         <v>0.58340000000000003</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="47">
         <v>0.58459700000000003</v>
       </c>
-      <c r="F82" s="55">
+      <c r="F82" s="47">
         <v>0.58573900000000001</v>
       </c>
-      <c r="G82" s="55">
+      <c r="G82" s="47">
         <v>0.58982900000000005</v>
       </c>
-      <c r="H82" s="55">
+      <c r="H82" s="47">
         <v>0.59200299999999995</v>
       </c>
-      <c r="I82" s="55">
+      <c r="I82" s="47">
         <v>0.59231599999999995</v>
       </c>
-      <c r="J82" s="55">
+      <c r="J82" s="47">
         <v>0.59284999999999999</v>
       </c>
-      <c r="K82" s="55">
+      <c r="K82" s="47">
         <v>0.59478200000000003</v>
       </c>
-      <c r="L82" s="55">
+      <c r="L82" s="47">
         <v>0.59648400000000001</v>
       </c>
-      <c r="M82" s="55">
+      <c r="M82" s="47">
         <v>0.59722600000000003</v>
       </c>
-      <c r="N82" s="55">
+      <c r="N82" s="47">
         <v>0.598688</v>
       </c>
-      <c r="O82" s="55">
+      <c r="O82" s="47">
         <v>0.600881</v>
       </c>
-      <c r="P82" s="55">
+      <c r="P82" s="47">
         <v>0.60396000000000005</v>
       </c>
-      <c r="Q82" s="55">
+      <c r="Q82" s="47">
         <v>0.60707199999999994</v>
       </c>
-      <c r="R82" s="55">
+      <c r="R82" s="47">
         <v>0.61068999999999996</v>
       </c>
-      <c r="S82" s="55">
+      <c r="S82" s="47">
         <v>0.61424400000000001</v>
       </c>
-      <c r="T82" s="55">
+      <c r="T82" s="47">
         <v>0.61745099999999997</v>
       </c>
-      <c r="U82" s="55">
+      <c r="U82" s="47">
         <v>0.62058599999999997</v>
       </c>
-      <c r="V82" s="55">
+      <c r="V82" s="47">
         <v>0.62398600000000004</v>
       </c>
-      <c r="W82" s="55">
+      <c r="W82" s="47">
         <v>0.62752699999999995</v>
       </c>
-      <c r="X82" s="55">
+      <c r="X82" s="47">
         <v>0.63148400000000005</v>
       </c>
-      <c r="Y82" s="55">
+      <c r="Y82" s="47">
         <v>0.635293</v>
       </c>
-      <c r="Z82" s="55">
+      <c r="Z82" s="47">
         <v>0.63880599999999998</v>
       </c>
-      <c r="AA82" s="55">
+      <c r="AA82" s="47">
         <v>0.64180899999999996</v>
       </c>
-      <c r="AB82" s="55">
+      <c r="AB82" s="47">
         <v>0.64534899999999995</v>
       </c>
-      <c r="AC82" s="55">
+      <c r="AC82" s="47">
         <v>0.64896500000000001</v>
       </c>
-      <c r="AD82" s="55">
+      <c r="AD82" s="47">
         <v>0.65261400000000003</v>
       </c>
-      <c r="AE82" s="55">
+      <c r="AE82" s="47">
         <v>0.65642800000000001</v>
       </c>
-      <c r="AF82" s="55">
+      <c r="AF82" s="47">
         <v>0.66048700000000005</v>
       </c>
-      <c r="AG82" s="55">
+      <c r="AG82" s="47">
         <v>0.66417999999999999</v>
       </c>
-      <c r="AH82" s="56">
+      <c r="AH82" s="48">
         <v>4.2919999999999998E-3</v>
       </c>
     </row>
@@ -20782,97 +20820,97 @@
       <c r="B99" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="39">
+      <c r="C99" s="36">
         <v>5958</v>
       </c>
-      <c r="D99" s="39">
+      <c r="D99" s="36">
         <v>6244</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="36">
         <v>6198</v>
       </c>
-      <c r="F99" s="39">
+      <c r="F99" s="36">
         <v>6187</v>
       </c>
-      <c r="G99" s="39">
+      <c r="G99" s="36">
         <v>6176</v>
       </c>
-      <c r="H99" s="39">
+      <c r="H99" s="36">
         <v>6165</v>
       </c>
-      <c r="I99" s="39">
+      <c r="I99" s="36">
         <v>6153</v>
       </c>
-      <c r="J99" s="39">
+      <c r="J99" s="36">
         <v>6142</v>
       </c>
-      <c r="K99" s="39">
+      <c r="K99" s="36">
         <v>6130</v>
       </c>
-      <c r="L99" s="39">
+      <c r="L99" s="36">
         <v>6118</v>
       </c>
-      <c r="M99" s="39">
+      <c r="M99" s="36">
         <v>6107</v>
       </c>
-      <c r="N99" s="39">
+      <c r="N99" s="36">
         <v>6095</v>
       </c>
-      <c r="O99" s="39">
+      <c r="O99" s="36">
         <v>6083</v>
       </c>
-      <c r="P99" s="39">
+      <c r="P99" s="36">
         <v>6071</v>
       </c>
-      <c r="Q99" s="39">
+      <c r="Q99" s="36">
         <v>6059</v>
       </c>
-      <c r="R99" s="39">
+      <c r="R99" s="36">
         <v>6048</v>
       </c>
-      <c r="S99" s="39">
+      <c r="S99" s="36">
         <v>6036</v>
       </c>
-      <c r="T99" s="39">
+      <c r="T99" s="36">
         <v>6024</v>
       </c>
-      <c r="U99" s="39">
+      <c r="U99" s="36">
         <v>6012</v>
       </c>
-      <c r="V99" s="39">
+      <c r="V99" s="36">
         <v>6000</v>
       </c>
-      <c r="W99" s="39">
+      <c r="W99" s="36">
         <v>5988</v>
       </c>
-      <c r="X99" s="39">
+      <c r="X99" s="36">
         <v>5976</v>
       </c>
-      <c r="Y99" s="39">
+      <c r="Y99" s="36">
         <v>5964</v>
       </c>
-      <c r="Z99" s="39">
+      <c r="Z99" s="36">
         <v>5952</v>
       </c>
-      <c r="AA99" s="39">
+      <c r="AA99" s="36">
         <v>5940</v>
       </c>
-      <c r="AB99" s="39">
+      <c r="AB99" s="36">
         <v>5929</v>
       </c>
-      <c r="AC99" s="39">
+      <c r="AC99" s="36">
         <v>5917</v>
       </c>
-      <c r="AD99" s="39">
+      <c r="AD99" s="36">
         <v>5905</v>
       </c>
-      <c r="AE99" s="39">
+      <c r="AE99" s="36">
         <v>5893</v>
       </c>
-      <c r="AF99" s="39">
+      <c r="AF99" s="36">
         <v>5881</v>
       </c>
-      <c r="AG99" s="39">
+      <c r="AG99" s="36">
         <v>5869</v>
       </c>
       <c r="AH99" s="28">
@@ -20886,97 +20924,97 @@
       <c r="B100" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="39">
+      <c r="C100" s="36">
         <v>5371</v>
       </c>
-      <c r="D100" s="39">
+      <c r="D100" s="36">
         <v>5595</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="36">
         <v>5569</v>
       </c>
-      <c r="F100" s="39">
+      <c r="F100" s="36">
         <v>5558</v>
       </c>
-      <c r="G100" s="39">
+      <c r="G100" s="36">
         <v>5548</v>
       </c>
-      <c r="H100" s="39">
+      <c r="H100" s="36">
         <v>5538</v>
       </c>
-      <c r="I100" s="39">
+      <c r="I100" s="36">
         <v>5528</v>
       </c>
-      <c r="J100" s="39">
+      <c r="J100" s="36">
         <v>5517</v>
       </c>
-      <c r="K100" s="39">
+      <c r="K100" s="36">
         <v>5507</v>
       </c>
-      <c r="L100" s="39">
+      <c r="L100" s="36">
         <v>5497</v>
       </c>
-      <c r="M100" s="39">
+      <c r="M100" s="36">
         <v>5487</v>
       </c>
-      <c r="N100" s="39">
+      <c r="N100" s="36">
         <v>5477</v>
       </c>
-      <c r="O100" s="39">
+      <c r="O100" s="36">
         <v>5467</v>
       </c>
-      <c r="P100" s="39">
+      <c r="P100" s="36">
         <v>5457</v>
       </c>
-      <c r="Q100" s="39">
+      <c r="Q100" s="36">
         <v>5446</v>
       </c>
-      <c r="R100" s="39">
+      <c r="R100" s="36">
         <v>5436</v>
       </c>
-      <c r="S100" s="39">
+      <c r="S100" s="36">
         <v>5426</v>
       </c>
-      <c r="T100" s="39">
+      <c r="T100" s="36">
         <v>5416</v>
       </c>
-      <c r="U100" s="39">
+      <c r="U100" s="36">
         <v>5406</v>
       </c>
-      <c r="V100" s="39">
+      <c r="V100" s="36">
         <v>5396</v>
       </c>
-      <c r="W100" s="39">
+      <c r="W100" s="36">
         <v>5386</v>
       </c>
-      <c r="X100" s="39">
+      <c r="X100" s="36">
         <v>5376</v>
       </c>
-      <c r="Y100" s="39">
+      <c r="Y100" s="36">
         <v>5366</v>
       </c>
-      <c r="Z100" s="39">
+      <c r="Z100" s="36">
         <v>5355</v>
       </c>
-      <c r="AA100" s="39">
+      <c r="AA100" s="36">
         <v>5345</v>
       </c>
-      <c r="AB100" s="39">
+      <c r="AB100" s="36">
         <v>5335</v>
       </c>
-      <c r="AC100" s="39">
+      <c r="AC100" s="36">
         <v>5325</v>
       </c>
-      <c r="AD100" s="39">
+      <c r="AD100" s="36">
         <v>5315</v>
       </c>
-      <c r="AE100" s="39">
+      <c r="AE100" s="36">
         <v>5305</v>
       </c>
-      <c r="AF100" s="39">
+      <c r="AF100" s="36">
         <v>5295</v>
       </c>
-      <c r="AG100" s="39">
+      <c r="AG100" s="36">
         <v>5285</v>
       </c>
       <c r="AH100" s="28">
@@ -20990,97 +21028,97 @@
       <c r="B101" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="39">
+      <c r="C101" s="36">
         <v>6000</v>
       </c>
-      <c r="D101" s="39">
+      <c r="D101" s="36">
         <v>6217</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="36">
         <v>6172</v>
       </c>
-      <c r="F101" s="39">
+      <c r="F101" s="36">
         <v>6167</v>
       </c>
-      <c r="G101" s="39">
+      <c r="G101" s="36">
         <v>6163</v>
       </c>
-      <c r="H101" s="39">
+      <c r="H101" s="36">
         <v>6159</v>
       </c>
-      <c r="I101" s="39">
+      <c r="I101" s="36">
         <v>6155</v>
       </c>
-      <c r="J101" s="39">
+      <c r="J101" s="36">
         <v>6151</v>
       </c>
-      <c r="K101" s="39">
+      <c r="K101" s="36">
         <v>6147</v>
       </c>
-      <c r="L101" s="39">
+      <c r="L101" s="36">
         <v>6143</v>
       </c>
-      <c r="M101" s="39">
+      <c r="M101" s="36">
         <v>6138</v>
       </c>
-      <c r="N101" s="39">
+      <c r="N101" s="36">
         <v>6134</v>
       </c>
-      <c r="O101" s="39">
+      <c r="O101" s="36">
         <v>6130</v>
       </c>
-      <c r="P101" s="39">
+      <c r="P101" s="36">
         <v>6126</v>
       </c>
-      <c r="Q101" s="39">
+      <c r="Q101" s="36">
         <v>6122</v>
       </c>
-      <c r="R101" s="39">
+      <c r="R101" s="36">
         <v>6118</v>
       </c>
-      <c r="S101" s="39">
+      <c r="S101" s="36">
         <v>6114</v>
       </c>
-      <c r="T101" s="39">
+      <c r="T101" s="36">
         <v>6109</v>
       </c>
-      <c r="U101" s="39">
+      <c r="U101" s="36">
         <v>6105</v>
       </c>
-      <c r="V101" s="39">
+      <c r="V101" s="36">
         <v>6101</v>
       </c>
-      <c r="W101" s="39">
+      <c r="W101" s="36">
         <v>6097</v>
       </c>
-      <c r="X101" s="39">
+      <c r="X101" s="36">
         <v>6093</v>
       </c>
-      <c r="Y101" s="39">
+      <c r="Y101" s="36">
         <v>6089</v>
       </c>
-      <c r="Z101" s="39">
+      <c r="Z101" s="36">
         <v>6084</v>
       </c>
-      <c r="AA101" s="39">
+      <c r="AA101" s="36">
         <v>6080</v>
       </c>
-      <c r="AB101" s="39">
+      <c r="AB101" s="36">
         <v>6076</v>
       </c>
-      <c r="AC101" s="39">
+      <c r="AC101" s="36">
         <v>6072</v>
       </c>
-      <c r="AD101" s="39">
+      <c r="AD101" s="36">
         <v>6068</v>
       </c>
-      <c r="AE101" s="39">
+      <c r="AE101" s="36">
         <v>6064</v>
       </c>
-      <c r="AF101" s="39">
+      <c r="AF101" s="36">
         <v>6059</v>
       </c>
-      <c r="AG101" s="39">
+      <c r="AG101" s="36">
         <v>6055</v>
       </c>
       <c r="AH101" s="28">
@@ -21094,97 +21132,97 @@
       <c r="B102" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C102" s="39">
+      <c r="C102" s="36">
         <v>6410</v>
       </c>
-      <c r="D102" s="39">
+      <c r="D102" s="36">
         <v>6529</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="36">
         <v>6490</v>
       </c>
-      <c r="F102" s="39">
+      <c r="F102" s="36">
         <v>6489</v>
       </c>
-      <c r="G102" s="39">
+      <c r="G102" s="36">
         <v>6487</v>
       </c>
-      <c r="H102" s="39">
+      <c r="H102" s="36">
         <v>6485</v>
       </c>
-      <c r="I102" s="39">
+      <c r="I102" s="36">
         <v>6483</v>
       </c>
-      <c r="J102" s="39">
+      <c r="J102" s="36">
         <v>6481</v>
       </c>
-      <c r="K102" s="39">
+      <c r="K102" s="36">
         <v>6479</v>
       </c>
-      <c r="L102" s="39">
+      <c r="L102" s="36">
         <v>6477</v>
       </c>
-      <c r="M102" s="39">
+      <c r="M102" s="36">
         <v>6474</v>
       </c>
-      <c r="N102" s="39">
+      <c r="N102" s="36">
         <v>6472</v>
       </c>
-      <c r="O102" s="39">
+      <c r="O102" s="36">
         <v>6470</v>
       </c>
-      <c r="P102" s="39">
+      <c r="P102" s="36">
         <v>6467</v>
       </c>
-      <c r="Q102" s="39">
+      <c r="Q102" s="36">
         <v>6465</v>
       </c>
-      <c r="R102" s="39">
+      <c r="R102" s="36">
         <v>6462</v>
       </c>
-      <c r="S102" s="39">
+      <c r="S102" s="36">
         <v>6459</v>
       </c>
-      <c r="T102" s="39">
+      <c r="T102" s="36">
         <v>6457</v>
       </c>
-      <c r="U102" s="39">
+      <c r="U102" s="36">
         <v>6454</v>
       </c>
-      <c r="V102" s="39">
+      <c r="V102" s="36">
         <v>6451</v>
       </c>
-      <c r="W102" s="39">
+      <c r="W102" s="36">
         <v>6449</v>
       </c>
-      <c r="X102" s="39">
+      <c r="X102" s="36">
         <v>6446</v>
       </c>
-      <c r="Y102" s="39">
+      <c r="Y102" s="36">
         <v>6443</v>
       </c>
-      <c r="Z102" s="39">
+      <c r="Z102" s="36">
         <v>6440</v>
       </c>
-      <c r="AA102" s="39">
+      <c r="AA102" s="36">
         <v>6437</v>
       </c>
-      <c r="AB102" s="39">
+      <c r="AB102" s="36">
         <v>6434</v>
       </c>
-      <c r="AC102" s="39">
+      <c r="AC102" s="36">
         <v>6431</v>
       </c>
-      <c r="AD102" s="39">
+      <c r="AD102" s="36">
         <v>6428</v>
       </c>
-      <c r="AE102" s="39">
+      <c r="AE102" s="36">
         <v>6426</v>
       </c>
-      <c r="AF102" s="39">
+      <c r="AF102" s="36">
         <v>6423</v>
       </c>
-      <c r="AG102" s="39">
+      <c r="AG102" s="36">
         <v>6420</v>
       </c>
       <c r="AH102" s="28">
@@ -21198,97 +21236,97 @@
       <c r="B103" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C103" s="39">
+      <c r="C103" s="36">
         <v>2335</v>
       </c>
-      <c r="D103" s="39">
+      <c r="D103" s="36">
         <v>2486</v>
       </c>
-      <c r="E103" s="39">
+      <c r="E103" s="36">
         <v>2520</v>
       </c>
-      <c r="F103" s="39">
+      <c r="F103" s="36">
         <v>2511</v>
       </c>
-      <c r="G103" s="39">
+      <c r="G103" s="36">
         <v>2503</v>
       </c>
-      <c r="H103" s="39">
+      <c r="H103" s="36">
         <v>2495</v>
       </c>
-      <c r="I103" s="39">
+      <c r="I103" s="36">
         <v>2487</v>
       </c>
-      <c r="J103" s="39">
+      <c r="J103" s="36">
         <v>2479</v>
       </c>
-      <c r="K103" s="39">
+      <c r="K103" s="36">
         <v>2471</v>
       </c>
-      <c r="L103" s="39">
+      <c r="L103" s="36">
         <v>2463</v>
       </c>
-      <c r="M103" s="39">
+      <c r="M103" s="36">
         <v>2455</v>
       </c>
-      <c r="N103" s="39">
+      <c r="N103" s="36">
         <v>2448</v>
       </c>
-      <c r="O103" s="39">
+      <c r="O103" s="36">
         <v>2440</v>
       </c>
-      <c r="P103" s="39">
+      <c r="P103" s="36">
         <v>2432</v>
       </c>
-      <c r="Q103" s="39">
+      <c r="Q103" s="36">
         <v>2424</v>
       </c>
-      <c r="R103" s="39">
+      <c r="R103" s="36">
         <v>2417</v>
       </c>
-      <c r="S103" s="39">
+      <c r="S103" s="36">
         <v>2409</v>
       </c>
-      <c r="T103" s="39">
+      <c r="T103" s="36">
         <v>2401</v>
       </c>
-      <c r="U103" s="39">
+      <c r="U103" s="36">
         <v>2393</v>
       </c>
-      <c r="V103" s="39">
+      <c r="V103" s="36">
         <v>2385</v>
       </c>
-      <c r="W103" s="39">
+      <c r="W103" s="36">
         <v>2378</v>
       </c>
-      <c r="X103" s="39">
+      <c r="X103" s="36">
         <v>2370</v>
       </c>
-      <c r="Y103" s="39">
+      <c r="Y103" s="36">
         <v>2362</v>
       </c>
-      <c r="Z103" s="39">
+      <c r="Z103" s="36">
         <v>2355</v>
       </c>
-      <c r="AA103" s="39">
+      <c r="AA103" s="36">
         <v>2347</v>
       </c>
-      <c r="AB103" s="39">
+      <c r="AB103" s="36">
         <v>2339</v>
       </c>
-      <c r="AC103" s="39">
+      <c r="AC103" s="36">
         <v>2332</v>
       </c>
-      <c r="AD103" s="39">
+      <c r="AD103" s="36">
         <v>2324</v>
       </c>
-      <c r="AE103" s="39">
+      <c r="AE103" s="36">
         <v>2316</v>
       </c>
-      <c r="AF103" s="39">
+      <c r="AF103" s="36">
         <v>2309</v>
       </c>
-      <c r="AG103" s="39">
+      <c r="AG103" s="36">
         <v>2301</v>
       </c>
       <c r="AH103" s="28">
@@ -21302,97 +21340,97 @@
       <c r="B104" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="39">
+      <c r="C104" s="36">
         <v>3119</v>
       </c>
-      <c r="D104" s="39">
+      <c r="D104" s="36">
         <v>3304</v>
       </c>
-      <c r="E104" s="39">
+      <c r="E104" s="36">
         <v>3319</v>
       </c>
-      <c r="F104" s="39">
+      <c r="F104" s="36">
         <v>3314</v>
       </c>
-      <c r="G104" s="39">
+      <c r="G104" s="36">
         <v>3310</v>
       </c>
-      <c r="H104" s="39">
+      <c r="H104" s="36">
         <v>3306</v>
       </c>
-      <c r="I104" s="39">
+      <c r="I104" s="36">
         <v>3302</v>
       </c>
-      <c r="J104" s="39">
+      <c r="J104" s="36">
         <v>3297</v>
       </c>
-      <c r="K104" s="39">
+      <c r="K104" s="36">
         <v>3293</v>
       </c>
-      <c r="L104" s="39">
+      <c r="L104" s="36">
         <v>3288</v>
       </c>
-      <c r="M104" s="39">
+      <c r="M104" s="36">
         <v>3284</v>
       </c>
-      <c r="N104" s="39">
+      <c r="N104" s="36">
         <v>3280</v>
       </c>
-      <c r="O104" s="39">
+      <c r="O104" s="36">
         <v>3275</v>
       </c>
-      <c r="P104" s="39">
+      <c r="P104" s="36">
         <v>3271</v>
       </c>
-      <c r="Q104" s="39">
+      <c r="Q104" s="36">
         <v>3266</v>
       </c>
-      <c r="R104" s="39">
+      <c r="R104" s="36">
         <v>3262</v>
       </c>
-      <c r="S104" s="39">
+      <c r="S104" s="36">
         <v>3257</v>
       </c>
-      <c r="T104" s="39">
+      <c r="T104" s="36">
         <v>3252</v>
       </c>
-      <c r="U104" s="39">
+      <c r="U104" s="36">
         <v>3248</v>
       </c>
-      <c r="V104" s="39">
+      <c r="V104" s="36">
         <v>3243</v>
       </c>
-      <c r="W104" s="39">
+      <c r="W104" s="36">
         <v>3238</v>
       </c>
-      <c r="X104" s="39">
+      <c r="X104" s="36">
         <v>3234</v>
       </c>
-      <c r="Y104" s="39">
+      <c r="Y104" s="36">
         <v>3229</v>
       </c>
-      <c r="Z104" s="39">
+      <c r="Z104" s="36">
         <v>3224</v>
       </c>
-      <c r="AA104" s="39">
+      <c r="AA104" s="36">
         <v>3220</v>
       </c>
-      <c r="AB104" s="39">
+      <c r="AB104" s="36">
         <v>3215</v>
       </c>
-      <c r="AC104" s="39">
+      <c r="AC104" s="36">
         <v>3210</v>
       </c>
-      <c r="AD104" s="39">
+      <c r="AD104" s="36">
         <v>3206</v>
       </c>
-      <c r="AE104" s="39">
+      <c r="AE104" s="36">
         <v>3201</v>
       </c>
-      <c r="AF104" s="39">
+      <c r="AF104" s="36">
         <v>3196</v>
       </c>
-      <c r="AG104" s="39">
+      <c r="AG104" s="36">
         <v>3191</v>
       </c>
       <c r="AH104" s="28">
@@ -21406,97 +21444,97 @@
       <c r="B105" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="39">
+      <c r="C105" s="36">
         <v>1829</v>
       </c>
-      <c r="D105" s="39">
+      <c r="D105" s="36">
         <v>1910</v>
       </c>
-      <c r="E105" s="39">
+      <c r="E105" s="36">
         <v>2015</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="36">
         <v>2009</v>
       </c>
-      <c r="G105" s="39">
+      <c r="G105" s="36">
         <v>2004</v>
       </c>
-      <c r="H105" s="39">
+      <c r="H105" s="36">
         <v>1999</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="36">
         <v>1994</v>
       </c>
-      <c r="J105" s="39">
+      <c r="J105" s="36">
         <v>1988</v>
       </c>
-      <c r="K105" s="39">
+      <c r="K105" s="36">
         <v>1983</v>
       </c>
-      <c r="L105" s="39">
+      <c r="L105" s="36">
         <v>1978</v>
       </c>
-      <c r="M105" s="39">
+      <c r="M105" s="36">
         <v>1973</v>
       </c>
-      <c r="N105" s="39">
+      <c r="N105" s="36">
         <v>1967</v>
       </c>
-      <c r="O105" s="39">
+      <c r="O105" s="36">
         <v>1962</v>
       </c>
-      <c r="P105" s="39">
+      <c r="P105" s="36">
         <v>1957</v>
       </c>
-      <c r="Q105" s="39">
+      <c r="Q105" s="36">
         <v>1952</v>
       </c>
-      <c r="R105" s="39">
+      <c r="R105" s="36">
         <v>1947</v>
       </c>
-      <c r="S105" s="39">
+      <c r="S105" s="36">
         <v>1942</v>
       </c>
-      <c r="T105" s="39">
+      <c r="T105" s="36">
         <v>1937</v>
       </c>
-      <c r="U105" s="39">
+      <c r="U105" s="36">
         <v>1932</v>
       </c>
-      <c r="V105" s="39">
+      <c r="V105" s="36">
         <v>1927</v>
       </c>
-      <c r="W105" s="39">
+      <c r="W105" s="36">
         <v>1922</v>
       </c>
-      <c r="X105" s="39">
+      <c r="X105" s="36">
         <v>1917</v>
       </c>
-      <c r="Y105" s="39">
+      <c r="Y105" s="36">
         <v>1912</v>
       </c>
-      <c r="Z105" s="39">
+      <c r="Z105" s="36">
         <v>1907</v>
       </c>
-      <c r="AA105" s="39">
+      <c r="AA105" s="36">
         <v>1902</v>
       </c>
-      <c r="AB105" s="39">
+      <c r="AB105" s="36">
         <v>1897</v>
       </c>
-      <c r="AC105" s="39">
+      <c r="AC105" s="36">
         <v>1892</v>
       </c>
-      <c r="AD105" s="39">
+      <c r="AD105" s="36">
         <v>1887</v>
       </c>
-      <c r="AE105" s="39">
+      <c r="AE105" s="36">
         <v>1882</v>
       </c>
-      <c r="AF105" s="39">
+      <c r="AF105" s="36">
         <v>1877</v>
       </c>
-      <c r="AG105" s="39">
+      <c r="AG105" s="36">
         <v>1873</v>
       </c>
       <c r="AH105" s="28">
@@ -21510,97 +21548,97 @@
       <c r="B106" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="39">
+      <c r="C106" s="36">
         <v>4810</v>
       </c>
-      <c r="D106" s="39">
+      <c r="D106" s="36">
         <v>4802</v>
       </c>
-      <c r="E106" s="39">
+      <c r="E106" s="36">
         <v>4793</v>
       </c>
-      <c r="F106" s="39">
+      <c r="F106" s="36">
         <v>4780</v>
       </c>
-      <c r="G106" s="39">
+      <c r="G106" s="36">
         <v>4768</v>
       </c>
-      <c r="H106" s="39">
+      <c r="H106" s="36">
         <v>4755</v>
       </c>
-      <c r="I106" s="39">
+      <c r="I106" s="36">
         <v>4742</v>
       </c>
-      <c r="J106" s="39">
+      <c r="J106" s="36">
         <v>4730</v>
       </c>
-      <c r="K106" s="39">
+      <c r="K106" s="36">
         <v>4717</v>
       </c>
-      <c r="L106" s="39">
+      <c r="L106" s="36">
         <v>4704</v>
       </c>
-      <c r="M106" s="39">
+      <c r="M106" s="36">
         <v>4691</v>
       </c>
-      <c r="N106" s="39">
+      <c r="N106" s="36">
         <v>4678</v>
       </c>
-      <c r="O106" s="39">
+      <c r="O106" s="36">
         <v>4664</v>
       </c>
-      <c r="P106" s="39">
+      <c r="P106" s="36">
         <v>4651</v>
       </c>
-      <c r="Q106" s="39">
+      <c r="Q106" s="36">
         <v>4638</v>
       </c>
-      <c r="R106" s="39">
+      <c r="R106" s="36">
         <v>4624</v>
       </c>
-      <c r="S106" s="39">
+      <c r="S106" s="36">
         <v>4611</v>
       </c>
-      <c r="T106" s="39">
+      <c r="T106" s="36">
         <v>4597</v>
       </c>
-      <c r="U106" s="39">
+      <c r="U106" s="36">
         <v>4584</v>
       </c>
-      <c r="V106" s="39">
+      <c r="V106" s="36">
         <v>4570</v>
       </c>
-      <c r="W106" s="39">
+      <c r="W106" s="36">
         <v>4557</v>
       </c>
-      <c r="X106" s="39">
+      <c r="X106" s="36">
         <v>4543</v>
       </c>
-      <c r="Y106" s="39">
+      <c r="Y106" s="36">
         <v>4530</v>
       </c>
-      <c r="Z106" s="39">
+      <c r="Z106" s="36">
         <v>4517</v>
       </c>
-      <c r="AA106" s="39">
+      <c r="AA106" s="36">
         <v>4503</v>
       </c>
-      <c r="AB106" s="39">
+      <c r="AB106" s="36">
         <v>4490</v>
       </c>
-      <c r="AC106" s="39">
+      <c r="AC106" s="36">
         <v>4476</v>
       </c>
-      <c r="AD106" s="39">
+      <c r="AD106" s="36">
         <v>4463</v>
       </c>
-      <c r="AE106" s="39">
+      <c r="AE106" s="36">
         <v>4450</v>
       </c>
-      <c r="AF106" s="39">
+      <c r="AF106" s="36">
         <v>4436</v>
       </c>
-      <c r="AG106" s="39">
+      <c r="AG106" s="36">
         <v>4423</v>
       </c>
       <c r="AH106" s="28">
@@ -21614,97 +21652,97 @@
       <c r="B107" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C107" s="39">
+      <c r="C107" s="36">
         <v>3335</v>
       </c>
-      <c r="D107" s="39">
+      <c r="D107" s="36">
         <v>3363</v>
       </c>
-      <c r="E107" s="39">
+      <c r="E107" s="36">
         <v>3253</v>
       </c>
-      <c r="F107" s="39">
+      <c r="F107" s="36">
         <v>3243</v>
       </c>
-      <c r="G107" s="39">
+      <c r="G107" s="36">
         <v>3232</v>
       </c>
-      <c r="H107" s="39">
+      <c r="H107" s="36">
         <v>3222</v>
       </c>
-      <c r="I107" s="39">
+      <c r="I107" s="36">
         <v>3212</v>
       </c>
-      <c r="J107" s="39">
+      <c r="J107" s="36">
         <v>3201</v>
       </c>
-      <c r="K107" s="39">
+      <c r="K107" s="36">
         <v>3191</v>
       </c>
-      <c r="L107" s="39">
+      <c r="L107" s="36">
         <v>3180</v>
       </c>
-      <c r="M107" s="39">
+      <c r="M107" s="36">
         <v>3169</v>
       </c>
-      <c r="N107" s="39">
+      <c r="N107" s="36">
         <v>3159</v>
       </c>
-      <c r="O107" s="39">
+      <c r="O107" s="36">
         <v>3148</v>
       </c>
-      <c r="P107" s="39">
+      <c r="P107" s="36">
         <v>3137</v>
       </c>
-      <c r="Q107" s="39">
+      <c r="Q107" s="36">
         <v>3126</v>
       </c>
-      <c r="R107" s="39">
+      <c r="R107" s="36">
         <v>3116</v>
       </c>
-      <c r="S107" s="39">
+      <c r="S107" s="36">
         <v>3105</v>
       </c>
-      <c r="T107" s="39">
+      <c r="T107" s="36">
         <v>3094</v>
       </c>
-      <c r="U107" s="39">
+      <c r="U107" s="36">
         <v>3083</v>
       </c>
-      <c r="V107" s="39">
+      <c r="V107" s="36">
         <v>3072</v>
       </c>
-      <c r="W107" s="39">
+      <c r="W107" s="36">
         <v>3061</v>
       </c>
-      <c r="X107" s="39">
+      <c r="X107" s="36">
         <v>3050</v>
       </c>
-      <c r="Y107" s="39">
+      <c r="Y107" s="36">
         <v>3039</v>
       </c>
-      <c r="Z107" s="39">
+      <c r="Z107" s="36">
         <v>3028</v>
       </c>
-      <c r="AA107" s="39">
+      <c r="AA107" s="36">
         <v>3017</v>
       </c>
-      <c r="AB107" s="39">
+      <c r="AB107" s="36">
         <v>3005</v>
       </c>
-      <c r="AC107" s="39">
+      <c r="AC107" s="36">
         <v>2994</v>
       </c>
-      <c r="AD107" s="39">
+      <c r="AD107" s="36">
         <v>2983</v>
       </c>
-      <c r="AE107" s="39">
+      <c r="AE107" s="36">
         <v>2972</v>
       </c>
-      <c r="AF107" s="39">
+      <c r="AF107" s="36">
         <v>2961</v>
       </c>
-      <c r="AG107" s="39">
+      <c r="AG107" s="36">
         <v>2950</v>
       </c>
       <c r="AH107" s="28">
@@ -21827,97 +21865,97 @@
       <c r="B111" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C111" s="39">
+      <c r="C111" s="36">
         <v>652</v>
       </c>
-      <c r="D111" s="39">
+      <c r="D111" s="36">
         <v>505</v>
       </c>
-      <c r="E111" s="39">
+      <c r="E111" s="36">
         <v>579</v>
       </c>
-      <c r="F111" s="39">
+      <c r="F111" s="36">
         <v>584</v>
       </c>
-      <c r="G111" s="39">
+      <c r="G111" s="36">
         <v>590</v>
       </c>
-      <c r="H111" s="39">
+      <c r="H111" s="36">
         <v>596</v>
       </c>
-      <c r="I111" s="39">
+      <c r="I111" s="36">
         <v>602</v>
       </c>
-      <c r="J111" s="39">
+      <c r="J111" s="36">
         <v>608</v>
       </c>
-      <c r="K111" s="39">
+      <c r="K111" s="36">
         <v>614</v>
       </c>
-      <c r="L111" s="39">
+      <c r="L111" s="36">
         <v>620</v>
       </c>
-      <c r="M111" s="39">
+      <c r="M111" s="36">
         <v>626</v>
       </c>
-      <c r="N111" s="39">
+      <c r="N111" s="36">
         <v>632</v>
       </c>
-      <c r="O111" s="39">
+      <c r="O111" s="36">
         <v>638</v>
       </c>
-      <c r="P111" s="39">
+      <c r="P111" s="36">
         <v>644</v>
       </c>
-      <c r="Q111" s="39">
+      <c r="Q111" s="36">
         <v>650</v>
       </c>
-      <c r="R111" s="39">
+      <c r="R111" s="36">
         <v>656</v>
       </c>
-      <c r="S111" s="39">
+      <c r="S111" s="36">
         <v>662</v>
       </c>
-      <c r="T111" s="39">
+      <c r="T111" s="36">
         <v>668</v>
       </c>
-      <c r="U111" s="39">
+      <c r="U111" s="36">
         <v>674</v>
       </c>
-      <c r="V111" s="39">
+      <c r="V111" s="36">
         <v>680</v>
       </c>
-      <c r="W111" s="39">
+      <c r="W111" s="36">
         <v>686</v>
       </c>
-      <c r="X111" s="39">
+      <c r="X111" s="36">
         <v>692</v>
       </c>
-      <c r="Y111" s="39">
+      <c r="Y111" s="36">
         <v>698</v>
       </c>
-      <c r="Z111" s="39">
+      <c r="Z111" s="36">
         <v>704</v>
       </c>
-      <c r="AA111" s="39">
+      <c r="AA111" s="36">
         <v>710</v>
       </c>
-      <c r="AB111" s="39">
+      <c r="AB111" s="36">
         <v>716</v>
       </c>
-      <c r="AC111" s="39">
+      <c r="AC111" s="36">
         <v>723</v>
       </c>
-      <c r="AD111" s="39">
+      <c r="AD111" s="36">
         <v>729</v>
       </c>
-      <c r="AE111" s="39">
+      <c r="AE111" s="36">
         <v>735</v>
       </c>
-      <c r="AF111" s="39">
+      <c r="AF111" s="36">
         <v>741</v>
       </c>
-      <c r="AG111" s="39">
+      <c r="AG111" s="36">
         <v>747</v>
       </c>
       <c r="AH111" s="28">
@@ -21928,103 +21966,103 @@
       <c r="A112" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="46">
+      <c r="C112" s="62">
         <v>840</v>
       </c>
-      <c r="D112" s="46">
+      <c r="D112" s="62">
         <v>706</v>
       </c>
-      <c r="E112" s="46">
+      <c r="E112" s="62">
         <v>826</v>
       </c>
-      <c r="F112" s="46">
+      <c r="F112" s="62">
         <v>834</v>
       </c>
-      <c r="G112" s="46">
+      <c r="G112" s="62">
         <v>842</v>
       </c>
-      <c r="H112" s="46">
+      <c r="H112" s="62">
         <v>850</v>
       </c>
-      <c r="I112" s="46">
+      <c r="I112" s="62">
         <v>858</v>
       </c>
-      <c r="J112" s="46">
+      <c r="J112" s="62">
         <v>867</v>
       </c>
-      <c r="K112" s="46">
+      <c r="K112" s="62">
         <v>875</v>
       </c>
-      <c r="L112" s="46">
+      <c r="L112" s="62">
         <v>883</v>
       </c>
-      <c r="M112" s="46">
+      <c r="M112" s="62">
         <v>891</v>
       </c>
-      <c r="N112" s="46">
+      <c r="N112" s="62">
         <v>899</v>
       </c>
-      <c r="O112" s="46">
+      <c r="O112" s="62">
         <v>907</v>
       </c>
-      <c r="P112" s="46">
+      <c r="P112" s="62">
         <v>916</v>
       </c>
-      <c r="Q112" s="46">
+      <c r="Q112" s="62">
         <v>924</v>
       </c>
-      <c r="R112" s="46">
+      <c r="R112" s="62">
         <v>932</v>
       </c>
-      <c r="S112" s="46">
+      <c r="S112" s="62">
         <v>940</v>
       </c>
-      <c r="T112" s="46">
+      <c r="T112" s="62">
         <v>948</v>
       </c>
-      <c r="U112" s="46">
+      <c r="U112" s="62">
         <v>956</v>
       </c>
-      <c r="V112" s="46">
+      <c r="V112" s="62">
         <v>965</v>
       </c>
-      <c r="W112" s="46">
+      <c r="W112" s="62">
         <v>973</v>
       </c>
-      <c r="X112" s="46">
+      <c r="X112" s="62">
         <v>981</v>
       </c>
-      <c r="Y112" s="46">
+      <c r="Y112" s="62">
         <v>989</v>
       </c>
-      <c r="Z112" s="46">
+      <c r="Z112" s="62">
         <v>997</v>
       </c>
-      <c r="AA112" s="46">
+      <c r="AA112" s="62">
         <v>1005</v>
       </c>
-      <c r="AB112" s="46">
+      <c r="AB112" s="62">
         <v>1014</v>
       </c>
-      <c r="AC112" s="46">
+      <c r="AC112" s="62">
         <v>1022</v>
       </c>
-      <c r="AD112" s="46">
+      <c r="AD112" s="62">
         <v>1030</v>
       </c>
-      <c r="AE112" s="46">
+      <c r="AE112" s="62">
         <v>1038</v>
       </c>
-      <c r="AF112" s="46">
+      <c r="AF112" s="62">
         <v>1046</v>
       </c>
-      <c r="AG112" s="46">
+      <c r="AG112" s="62">
         <v>1054</v>
       </c>
-      <c r="AH112" s="47">
+      <c r="AH112" s="63">
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
@@ -22035,97 +22073,97 @@
       <c r="B113" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C113" s="39">
+      <c r="C113" s="36">
         <v>831</v>
       </c>
-      <c r="D113" s="39">
+      <c r="D113" s="36">
         <v>767</v>
       </c>
-      <c r="E113" s="39">
+      <c r="E113" s="36">
         <v>857</v>
       </c>
-      <c r="F113" s="39">
+      <c r="F113" s="36">
         <v>864</v>
       </c>
-      <c r="G113" s="39">
+      <c r="G113" s="36">
         <v>870</v>
       </c>
-      <c r="H113" s="39">
+      <c r="H113" s="36">
         <v>876</v>
       </c>
-      <c r="I113" s="39">
+      <c r="I113" s="36">
         <v>882</v>
       </c>
-      <c r="J113" s="39">
+      <c r="J113" s="36">
         <v>889</v>
       </c>
-      <c r="K113" s="39">
+      <c r="K113" s="36">
         <v>895</v>
       </c>
-      <c r="L113" s="39">
+      <c r="L113" s="36">
         <v>901</v>
       </c>
-      <c r="M113" s="39">
+      <c r="M113" s="36">
         <v>907</v>
       </c>
-      <c r="N113" s="39">
+      <c r="N113" s="36">
         <v>914</v>
       </c>
-      <c r="O113" s="39">
+      <c r="O113" s="36">
         <v>920</v>
       </c>
-      <c r="P113" s="39">
+      <c r="P113" s="36">
         <v>926</v>
       </c>
-      <c r="Q113" s="39">
+      <c r="Q113" s="36">
         <v>932</v>
       </c>
-      <c r="R113" s="39">
+      <c r="R113" s="36">
         <v>939</v>
       </c>
-      <c r="S113" s="39">
+      <c r="S113" s="36">
         <v>945</v>
       </c>
-      <c r="T113" s="39">
+      <c r="T113" s="36">
         <v>951</v>
       </c>
-      <c r="U113" s="39">
+      <c r="U113" s="36">
         <v>958</v>
       </c>
-      <c r="V113" s="39">
+      <c r="V113" s="36">
         <v>964</v>
       </c>
-      <c r="W113" s="39">
+      <c r="W113" s="36">
         <v>970</v>
       </c>
-      <c r="X113" s="39">
+      <c r="X113" s="36">
         <v>976</v>
       </c>
-      <c r="Y113" s="39">
+      <c r="Y113" s="36">
         <v>983</v>
       </c>
-      <c r="Z113" s="39">
+      <c r="Z113" s="36">
         <v>989</v>
       </c>
-      <c r="AA113" s="39">
+      <c r="AA113" s="36">
         <v>995</v>
       </c>
-      <c r="AB113" s="39">
+      <c r="AB113" s="36">
         <v>1002</v>
       </c>
-      <c r="AC113" s="39">
+      <c r="AC113" s="36">
         <v>1008</v>
       </c>
-      <c r="AD113" s="39">
+      <c r="AD113" s="36">
         <v>1014</v>
       </c>
-      <c r="AE113" s="39">
+      <c r="AE113" s="36">
         <v>1021</v>
       </c>
-      <c r="AF113" s="39">
+      <c r="AF113" s="36">
         <v>1027</v>
       </c>
-      <c r="AG113" s="39">
+      <c r="AG113" s="36">
         <v>1033</v>
       </c>
       <c r="AH113" s="28">
@@ -22139,97 +22177,97 @@
       <c r="B114" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C114" s="39">
+      <c r="C114" s="36">
         <v>975</v>
       </c>
-      <c r="D114" s="39">
+      <c r="D114" s="36">
         <v>956</v>
       </c>
-      <c r="E114" s="39">
+      <c r="E114" s="36">
         <v>1035</v>
       </c>
-      <c r="F114" s="39">
+      <c r="F114" s="36">
         <v>1040</v>
       </c>
-      <c r="G114" s="39">
+      <c r="G114" s="36">
         <v>1046</v>
       </c>
-      <c r="H114" s="39">
+      <c r="H114" s="36">
         <v>1051</v>
       </c>
-      <c r="I114" s="39">
+      <c r="I114" s="36">
         <v>1057</v>
       </c>
-      <c r="J114" s="39">
+      <c r="J114" s="36">
         <v>1062</v>
       </c>
-      <c r="K114" s="39">
+      <c r="K114" s="36">
         <v>1068</v>
       </c>
-      <c r="L114" s="39">
+      <c r="L114" s="36">
         <v>1074</v>
       </c>
-      <c r="M114" s="39">
+      <c r="M114" s="36">
         <v>1079</v>
       </c>
-      <c r="N114" s="39">
+      <c r="N114" s="36">
         <v>1085</v>
       </c>
-      <c r="O114" s="39">
+      <c r="O114" s="36">
         <v>1091</v>
       </c>
-      <c r="P114" s="39">
+      <c r="P114" s="36">
         <v>1096</v>
       </c>
-      <c r="Q114" s="39">
+      <c r="Q114" s="36">
         <v>1102</v>
       </c>
-      <c r="R114" s="39">
+      <c r="R114" s="36">
         <v>1108</v>
       </c>
-      <c r="S114" s="39">
+      <c r="S114" s="36">
         <v>1114</v>
       </c>
-      <c r="T114" s="39">
+      <c r="T114" s="36">
         <v>1119</v>
       </c>
-      <c r="U114" s="39">
+      <c r="U114" s="36">
         <v>1125</v>
       </c>
-      <c r="V114" s="39">
+      <c r="V114" s="36">
         <v>1131</v>
       </c>
-      <c r="W114" s="39">
+      <c r="W114" s="36">
         <v>1137</v>
       </c>
-      <c r="X114" s="39">
+      <c r="X114" s="36">
         <v>1142</v>
       </c>
-      <c r="Y114" s="39">
+      <c r="Y114" s="36">
         <v>1148</v>
       </c>
-      <c r="Z114" s="39">
+      <c r="Z114" s="36">
         <v>1154</v>
       </c>
-      <c r="AA114" s="39">
+      <c r="AA114" s="36">
         <v>1160</v>
       </c>
-      <c r="AB114" s="39">
+      <c r="AB114" s="36">
         <v>1166</v>
       </c>
-      <c r="AC114" s="39">
+      <c r="AC114" s="36">
         <v>1171</v>
       </c>
-      <c r="AD114" s="39">
+      <c r="AD114" s="36">
         <v>1177</v>
       </c>
-      <c r="AE114" s="39">
+      <c r="AE114" s="36">
         <v>1183</v>
       </c>
-      <c r="AF114" s="39">
+      <c r="AF114" s="36">
         <v>1189</v>
       </c>
-      <c r="AG114" s="39">
+      <c r="AG114" s="36">
         <v>1195</v>
       </c>
       <c r="AH114" s="28">
@@ -22243,97 +22281,97 @@
       <c r="B115" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C115" s="39">
+      <c r="C115" s="36">
         <v>2274</v>
       </c>
-      <c r="D115" s="39">
+      <c r="D115" s="36">
         <v>2219</v>
       </c>
-      <c r="E115" s="39">
+      <c r="E115" s="36">
         <v>2359</v>
       </c>
-      <c r="F115" s="39">
+      <c r="F115" s="36">
         <v>2373</v>
       </c>
-      <c r="G115" s="39">
+      <c r="G115" s="36">
         <v>2388</v>
       </c>
-      <c r="H115" s="39">
+      <c r="H115" s="36">
         <v>2402</v>
       </c>
-      <c r="I115" s="39">
+      <c r="I115" s="36">
         <v>2417</v>
       </c>
-      <c r="J115" s="39">
+      <c r="J115" s="36">
         <v>2431</v>
       </c>
-      <c r="K115" s="39">
+      <c r="K115" s="36">
         <v>2445</v>
       </c>
-      <c r="L115" s="39">
+      <c r="L115" s="36">
         <v>2460</v>
       </c>
-      <c r="M115" s="39">
+      <c r="M115" s="36">
         <v>2474</v>
       </c>
-      <c r="N115" s="39">
+      <c r="N115" s="36">
         <v>2488</v>
       </c>
-      <c r="O115" s="39">
+      <c r="O115" s="36">
         <v>2503</v>
       </c>
-      <c r="P115" s="39">
+      <c r="P115" s="36">
         <v>2517</v>
       </c>
-      <c r="Q115" s="39">
+      <c r="Q115" s="36">
         <v>2531</v>
       </c>
-      <c r="R115" s="39">
+      <c r="R115" s="36">
         <v>2546</v>
       </c>
-      <c r="S115" s="39">
+      <c r="S115" s="36">
         <v>2560</v>
       </c>
-      <c r="T115" s="39">
+      <c r="T115" s="36">
         <v>2575</v>
       </c>
-      <c r="U115" s="39">
+      <c r="U115" s="36">
         <v>2589</v>
       </c>
-      <c r="V115" s="39">
+      <c r="V115" s="36">
         <v>2603</v>
       </c>
-      <c r="W115" s="39">
+      <c r="W115" s="36">
         <v>2618</v>
       </c>
-      <c r="X115" s="39">
+      <c r="X115" s="36">
         <v>2632</v>
       </c>
-      <c r="Y115" s="39">
+      <c r="Y115" s="36">
         <v>2647</v>
       </c>
-      <c r="Z115" s="39">
+      <c r="Z115" s="36">
         <v>2661</v>
       </c>
-      <c r="AA115" s="39">
+      <c r="AA115" s="36">
         <v>2676</v>
       </c>
-      <c r="AB115" s="39">
+      <c r="AB115" s="36">
         <v>2690</v>
       </c>
-      <c r="AC115" s="39">
+      <c r="AC115" s="36">
         <v>2705</v>
       </c>
-      <c r="AD115" s="39">
+      <c r="AD115" s="36">
         <v>2719</v>
       </c>
-      <c r="AE115" s="39">
+      <c r="AE115" s="36">
         <v>2734</v>
       </c>
-      <c r="AF115" s="39">
+      <c r="AF115" s="36">
         <v>2748</v>
       </c>
-      <c r="AG115" s="39">
+      <c r="AG115" s="36">
         <v>2763</v>
       </c>
       <c r="AH115" s="28">
@@ -22347,97 +22385,97 @@
       <c r="B116" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C116" s="39">
+      <c r="C116" s="36">
         <v>1623</v>
       </c>
-      <c r="D116" s="39">
+      <c r="D116" s="36">
         <v>1710</v>
       </c>
-      <c r="E116" s="39">
+      <c r="E116" s="36">
         <v>1808</v>
       </c>
-      <c r="F116" s="39">
+      <c r="F116" s="36">
         <v>1818</v>
       </c>
-      <c r="G116" s="39">
+      <c r="G116" s="36">
         <v>1828</v>
       </c>
-      <c r="H116" s="39">
+      <c r="H116" s="36">
         <v>1838</v>
       </c>
-      <c r="I116" s="39">
+      <c r="I116" s="36">
         <v>1848</v>
       </c>
-      <c r="J116" s="39">
+      <c r="J116" s="36">
         <v>1858</v>
       </c>
-      <c r="K116" s="39">
+      <c r="K116" s="36">
         <v>1868</v>
       </c>
-      <c r="L116" s="39">
+      <c r="L116" s="36">
         <v>1878</v>
       </c>
-      <c r="M116" s="39">
+      <c r="M116" s="36">
         <v>1888</v>
       </c>
-      <c r="N116" s="39">
+      <c r="N116" s="36">
         <v>1898</v>
       </c>
-      <c r="O116" s="39">
+      <c r="O116" s="36">
         <v>1909</v>
       </c>
-      <c r="P116" s="39">
+      <c r="P116" s="36">
         <v>1919</v>
       </c>
-      <c r="Q116" s="39">
+      <c r="Q116" s="36">
         <v>1929</v>
       </c>
-      <c r="R116" s="39">
+      <c r="R116" s="36">
         <v>1939</v>
       </c>
-      <c r="S116" s="39">
+      <c r="S116" s="36">
         <v>1949</v>
       </c>
-      <c r="T116" s="39">
+      <c r="T116" s="36">
         <v>1959</v>
       </c>
-      <c r="U116" s="39">
+      <c r="U116" s="36">
         <v>1969</v>
       </c>
-      <c r="V116" s="39">
+      <c r="V116" s="36">
         <v>1980</v>
       </c>
-      <c r="W116" s="39">
+      <c r="W116" s="36">
         <v>1990</v>
       </c>
-      <c r="X116" s="39">
+      <c r="X116" s="36">
         <v>2000</v>
       </c>
-      <c r="Y116" s="39">
+      <c r="Y116" s="36">
         <v>2010</v>
       </c>
-      <c r="Z116" s="39">
+      <c r="Z116" s="36">
         <v>2020</v>
       </c>
-      <c r="AA116" s="39">
+      <c r="AA116" s="36">
         <v>2031</v>
       </c>
-      <c r="AB116" s="39">
+      <c r="AB116" s="36">
         <v>2041</v>
       </c>
-      <c r="AC116" s="39">
+      <c r="AC116" s="36">
         <v>2051</v>
       </c>
-      <c r="AD116" s="39">
+      <c r="AD116" s="36">
         <v>2061</v>
       </c>
-      <c r="AE116" s="39">
+      <c r="AE116" s="36">
         <v>2071</v>
       </c>
-      <c r="AF116" s="39">
+      <c r="AF116" s="36">
         <v>2082</v>
       </c>
-      <c r="AG116" s="39">
+      <c r="AG116" s="36">
         <v>2092</v>
       </c>
       <c r="AH116" s="28">
@@ -22451,97 +22489,97 @@
       <c r="B117" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C117" s="39">
+      <c r="C117" s="36">
         <v>2730</v>
       </c>
-      <c r="D117" s="39">
+      <c r="D117" s="36">
         <v>2770</v>
       </c>
-      <c r="E117" s="39">
+      <c r="E117" s="36">
         <v>2861</v>
       </c>
-      <c r="F117" s="39">
+      <c r="F117" s="36">
         <v>2875</v>
       </c>
-      <c r="G117" s="39">
+      <c r="G117" s="36">
         <v>2889</v>
       </c>
-      <c r="H117" s="39">
+      <c r="H117" s="36">
         <v>2904</v>
       </c>
-      <c r="I117" s="39">
+      <c r="I117" s="36">
         <v>2918</v>
       </c>
-      <c r="J117" s="39">
+      <c r="J117" s="36">
         <v>2932</v>
       </c>
-      <c r="K117" s="39">
+      <c r="K117" s="36">
         <v>2947</v>
       </c>
-      <c r="L117" s="39">
+      <c r="L117" s="36">
         <v>2961</v>
       </c>
-      <c r="M117" s="39">
+      <c r="M117" s="36">
         <v>2976</v>
       </c>
-      <c r="N117" s="39">
+      <c r="N117" s="36">
         <v>2990</v>
       </c>
-      <c r="O117" s="39">
+      <c r="O117" s="36">
         <v>3004</v>
       </c>
-      <c r="P117" s="39">
+      <c r="P117" s="36">
         <v>3018</v>
       </c>
-      <c r="Q117" s="39">
+      <c r="Q117" s="36">
         <v>3033</v>
       </c>
-      <c r="R117" s="39">
+      <c r="R117" s="36">
         <v>3047</v>
       </c>
-      <c r="S117" s="39">
+      <c r="S117" s="36">
         <v>3061</v>
       </c>
-      <c r="T117" s="39">
+      <c r="T117" s="36">
         <v>3076</v>
       </c>
-      <c r="U117" s="39">
+      <c r="U117" s="36">
         <v>3090</v>
       </c>
-      <c r="V117" s="39">
+      <c r="V117" s="36">
         <v>3104</v>
       </c>
-      <c r="W117" s="39">
+      <c r="W117" s="36">
         <v>3119</v>
       </c>
-      <c r="X117" s="39">
+      <c r="X117" s="36">
         <v>3133</v>
       </c>
-      <c r="Y117" s="39">
+      <c r="Y117" s="36">
         <v>3147</v>
       </c>
-      <c r="Z117" s="39">
+      <c r="Z117" s="36">
         <v>3161</v>
       </c>
-      <c r="AA117" s="39">
+      <c r="AA117" s="36">
         <v>3176</v>
       </c>
-      <c r="AB117" s="39">
+      <c r="AB117" s="36">
         <v>3190</v>
       </c>
-      <c r="AC117" s="39">
+      <c r="AC117" s="36">
         <v>3204</v>
       </c>
-      <c r="AD117" s="39">
+      <c r="AD117" s="36">
         <v>3218</v>
       </c>
-      <c r="AE117" s="39">
+      <c r="AE117" s="36">
         <v>3233</v>
       </c>
-      <c r="AF117" s="39">
+      <c r="AF117" s="36">
         <v>3247</v>
       </c>
-      <c r="AG117" s="39">
+      <c r="AG117" s="36">
         <v>3261</v>
       </c>
       <c r="AH117" s="28">
@@ -22555,97 +22593,97 @@
       <c r="B118" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="39">
+      <c r="C118" s="36">
         <v>1639</v>
       </c>
-      <c r="D118" s="39">
+      <c r="D118" s="36">
         <v>1471</v>
       </c>
-      <c r="E118" s="39">
+      <c r="E118" s="36">
         <v>1560</v>
       </c>
-      <c r="F118" s="39">
+      <c r="F118" s="36">
         <v>1568</v>
       </c>
-      <c r="G118" s="39">
+      <c r="G118" s="36">
         <v>1577</v>
       </c>
-      <c r="H118" s="39">
+      <c r="H118" s="36">
         <v>1586</v>
       </c>
-      <c r="I118" s="39">
+      <c r="I118" s="36">
         <v>1595</v>
       </c>
-      <c r="J118" s="39">
+      <c r="J118" s="36">
         <v>1604</v>
       </c>
-      <c r="K118" s="39">
+      <c r="K118" s="36">
         <v>1613</v>
       </c>
-      <c r="L118" s="39">
+      <c r="L118" s="36">
         <v>1622</v>
       </c>
-      <c r="M118" s="39">
+      <c r="M118" s="36">
         <v>1631</v>
       </c>
-      <c r="N118" s="39">
+      <c r="N118" s="36">
         <v>1641</v>
       </c>
-      <c r="O118" s="39">
+      <c r="O118" s="36">
         <v>1650</v>
       </c>
-      <c r="P118" s="39">
+      <c r="P118" s="36">
         <v>1659</v>
       </c>
-      <c r="Q118" s="39">
+      <c r="Q118" s="36">
         <v>1668</v>
       </c>
-      <c r="R118" s="39">
+      <c r="R118" s="36">
         <v>1678</v>
       </c>
-      <c r="S118" s="39">
+      <c r="S118" s="36">
         <v>1687</v>
       </c>
-      <c r="T118" s="39">
+      <c r="T118" s="36">
         <v>1697</v>
       </c>
-      <c r="U118" s="39">
+      <c r="U118" s="36">
         <v>1706</v>
       </c>
-      <c r="V118" s="39">
+      <c r="V118" s="36">
         <v>1715</v>
       </c>
-      <c r="W118" s="39">
+      <c r="W118" s="36">
         <v>1725</v>
       </c>
-      <c r="X118" s="39">
+      <c r="X118" s="36">
         <v>1734</v>
       </c>
-      <c r="Y118" s="39">
+      <c r="Y118" s="36">
         <v>1744</v>
       </c>
-      <c r="Z118" s="39">
+      <c r="Z118" s="36">
         <v>1753</v>
       </c>
-      <c r="AA118" s="39">
+      <c r="AA118" s="36">
         <v>1763</v>
       </c>
-      <c r="AB118" s="39">
+      <c r="AB118" s="36">
         <v>1772</v>
       </c>
-      <c r="AC118" s="39">
+      <c r="AC118" s="36">
         <v>1782</v>
       </c>
-      <c r="AD118" s="39">
+      <c r="AD118" s="36">
         <v>1791</v>
       </c>
-      <c r="AE118" s="39">
+      <c r="AE118" s="36">
         <v>1801</v>
       </c>
-      <c r="AF118" s="39">
+      <c r="AF118" s="36">
         <v>1810</v>
       </c>
-      <c r="AG118" s="39">
+      <c r="AG118" s="36">
         <v>1820</v>
       </c>
       <c r="AH118" s="28">
@@ -22659,97 +22697,97 @@
       <c r="B119" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="C119" s="39">
+      <c r="C119" s="36">
         <v>1012</v>
       </c>
-      <c r="D119" s="39">
+      <c r="D119" s="36">
         <v>840</v>
       </c>
-      <c r="E119" s="39">
+      <c r="E119" s="36">
         <v>963</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="36">
         <v>969</v>
       </c>
-      <c r="G119" s="39">
+      <c r="G119" s="36">
         <v>975</v>
       </c>
-      <c r="H119" s="39">
+      <c r="H119" s="36">
         <v>982</v>
       </c>
-      <c r="I119" s="39">
+      <c r="I119" s="36">
         <v>988</v>
       </c>
-      <c r="J119" s="39">
+      <c r="J119" s="36">
         <v>994</v>
       </c>
-      <c r="K119" s="39">
+      <c r="K119" s="36">
         <v>1001</v>
       </c>
-      <c r="L119" s="39">
+      <c r="L119" s="36">
         <v>1007</v>
       </c>
-      <c r="M119" s="39">
+      <c r="M119" s="36">
         <v>1013</v>
       </c>
-      <c r="N119" s="39">
+      <c r="N119" s="36">
         <v>1020</v>
       </c>
-      <c r="O119" s="39">
+      <c r="O119" s="36">
         <v>1026</v>
       </c>
-      <c r="P119" s="39">
+      <c r="P119" s="36">
         <v>1032</v>
       </c>
-      <c r="Q119" s="39">
+      <c r="Q119" s="36">
         <v>1039</v>
       </c>
-      <c r="R119" s="39">
+      <c r="R119" s="36">
         <v>1045</v>
       </c>
-      <c r="S119" s="39">
+      <c r="S119" s="36">
         <v>1052</v>
       </c>
-      <c r="T119" s="39">
+      <c r="T119" s="36">
         <v>1058</v>
       </c>
-      <c r="U119" s="39">
+      <c r="U119" s="36">
         <v>1065</v>
       </c>
-      <c r="V119" s="39">
+      <c r="V119" s="36">
         <v>1071</v>
       </c>
-      <c r="W119" s="39">
+      <c r="W119" s="36">
         <v>1078</v>
       </c>
-      <c r="X119" s="39">
+      <c r="X119" s="36">
         <v>1084</v>
       </c>
-      <c r="Y119" s="39">
+      <c r="Y119" s="36">
         <v>1091</v>
       </c>
-      <c r="Z119" s="39">
+      <c r="Z119" s="36">
         <v>1097</v>
       </c>
-      <c r="AA119" s="39">
+      <c r="AA119" s="36">
         <v>1104</v>
       </c>
-      <c r="AB119" s="39">
+      <c r="AB119" s="36">
         <v>1110</v>
       </c>
-      <c r="AC119" s="39">
+      <c r="AC119" s="36">
         <v>1117</v>
       </c>
-      <c r="AD119" s="39">
+      <c r="AD119" s="36">
         <v>1123</v>
       </c>
-      <c r="AE119" s="39">
+      <c r="AE119" s="36">
         <v>1130</v>
       </c>
-      <c r="AF119" s="39">
+      <c r="AF119" s="36">
         <v>1136</v>
       </c>
-      <c r="AG119" s="39">
+      <c r="AG119" s="36">
         <v>1143</v>
       </c>
       <c r="AH119" s="28">
@@ -22862,41 +22900,41 @@
     </row>
     <row r="121" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="40" t="s">
+      <c r="B122" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="41"/>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41"/>
-      <c r="Z122" s="41"/>
-      <c r="AA122" s="41"/>
-      <c r="AB122" s="41"/>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="41"/>
-      <c r="AE122" s="41"/>
-      <c r="AF122" s="41"/>
-      <c r="AG122" s="41"/>
-      <c r="AH122" s="42"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
+      <c r="L122" s="60"/>
+      <c r="M122" s="60"/>
+      <c r="N122" s="60"/>
+      <c r="O122" s="60"/>
+      <c r="P122" s="60"/>
+      <c r="Q122" s="60"/>
+      <c r="R122" s="60"/>
+      <c r="S122" s="60"/>
+      <c r="T122" s="60"/>
+      <c r="U122" s="60"/>
+      <c r="V122" s="60"/>
+      <c r="W122" s="60"/>
+      <c r="X122" s="60"/>
+      <c r="Y122" s="60"/>
+      <c r="Z122" s="60"/>
+      <c r="AA122" s="60"/>
+      <c r="AB122" s="60"/>
+      <c r="AC122" s="60"/>
+      <c r="AD122" s="60"/>
+      <c r="AE122" s="60"/>
+      <c r="AF122" s="60"/>
+      <c r="AG122" s="60"/>
+      <c r="AH122" s="37"/>
     </row>
     <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
@@ -22989,672 +23027,686 @@
       </c>
     </row>
     <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="43"/>
-      <c r="C308" s="43"/>
-      <c r="D308" s="43"/>
-      <c r="E308" s="43"/>
-      <c r="F308" s="43"/>
-      <c r="G308" s="43"/>
-      <c r="H308" s="43"/>
-      <c r="I308" s="43"/>
-      <c r="J308" s="43"/>
-      <c r="K308" s="43"/>
-      <c r="L308" s="43"/>
-      <c r="M308" s="43"/>
-      <c r="N308" s="43"/>
-      <c r="O308" s="43"/>
-      <c r="P308" s="43"/>
-      <c r="Q308" s="43"/>
-      <c r="R308" s="43"/>
-      <c r="S308" s="43"/>
-      <c r="T308" s="43"/>
-      <c r="U308" s="43"/>
-      <c r="V308" s="43"/>
-      <c r="W308" s="43"/>
-      <c r="X308" s="43"/>
-      <c r="Y308" s="43"/>
-      <c r="Z308" s="43"/>
-      <c r="AA308" s="43"/>
-      <c r="AB308" s="43"/>
-      <c r="AC308" s="43"/>
-      <c r="AD308" s="43"/>
-      <c r="AE308" s="43"/>
-      <c r="AF308" s="43"/>
-      <c r="AG308" s="43"/>
-      <c r="AH308" s="43"/>
+      <c r="B308" s="55"/>
+      <c r="C308" s="55"/>
+      <c r="D308" s="55"/>
+      <c r="E308" s="55"/>
+      <c r="F308" s="55"/>
+      <c r="G308" s="55"/>
+      <c r="H308" s="55"/>
+      <c r="I308" s="55"/>
+      <c r="J308" s="55"/>
+      <c r="K308" s="55"/>
+      <c r="L308" s="55"/>
+      <c r="M308" s="55"/>
+      <c r="N308" s="55"/>
+      <c r="O308" s="55"/>
+      <c r="P308" s="55"/>
+      <c r="Q308" s="55"/>
+      <c r="R308" s="55"/>
+      <c r="S308" s="55"/>
+      <c r="T308" s="55"/>
+      <c r="U308" s="55"/>
+      <c r="V308" s="55"/>
+      <c r="W308" s="55"/>
+      <c r="X308" s="55"/>
+      <c r="Y308" s="55"/>
+      <c r="Z308" s="55"/>
+      <c r="AA308" s="55"/>
+      <c r="AB308" s="55"/>
+      <c r="AC308" s="55"/>
+      <c r="AD308" s="55"/>
+      <c r="AE308" s="55"/>
+      <c r="AF308" s="55"/>
+      <c r="AG308" s="55"/>
+      <c r="AH308" s="55"/>
     </row>
     <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B511" s="43"/>
-      <c r="C511" s="43"/>
-      <c r="D511" s="43"/>
-      <c r="E511" s="43"/>
-      <c r="F511" s="43"/>
-      <c r="G511" s="43"/>
-      <c r="H511" s="43"/>
-      <c r="I511" s="43"/>
-      <c r="J511" s="43"/>
-      <c r="K511" s="43"/>
-      <c r="L511" s="43"/>
-      <c r="M511" s="43"/>
-      <c r="N511" s="43"/>
-      <c r="O511" s="43"/>
-      <c r="P511" s="43"/>
-      <c r="Q511" s="43"/>
-      <c r="R511" s="43"/>
-      <c r="S511" s="43"/>
-      <c r="T511" s="43"/>
-      <c r="U511" s="43"/>
-      <c r="V511" s="43"/>
-      <c r="W511" s="43"/>
-      <c r="X511" s="43"/>
-      <c r="Y511" s="43"/>
-      <c r="Z511" s="43"/>
-      <c r="AA511" s="43"/>
-      <c r="AB511" s="43"/>
-      <c r="AC511" s="43"/>
-      <c r="AD511" s="43"/>
-      <c r="AE511" s="43"/>
-      <c r="AF511" s="43"/>
-      <c r="AG511" s="43"/>
-      <c r="AH511" s="43"/>
+      <c r="B511" s="55"/>
+      <c r="C511" s="55"/>
+      <c r="D511" s="55"/>
+      <c r="E511" s="55"/>
+      <c r="F511" s="55"/>
+      <c r="G511" s="55"/>
+      <c r="H511" s="55"/>
+      <c r="I511" s="55"/>
+      <c r="J511" s="55"/>
+      <c r="K511" s="55"/>
+      <c r="L511" s="55"/>
+      <c r="M511" s="55"/>
+      <c r="N511" s="55"/>
+      <c r="O511" s="55"/>
+      <c r="P511" s="55"/>
+      <c r="Q511" s="55"/>
+      <c r="R511" s="55"/>
+      <c r="S511" s="55"/>
+      <c r="T511" s="55"/>
+      <c r="U511" s="55"/>
+      <c r="V511" s="55"/>
+      <c r="W511" s="55"/>
+      <c r="X511" s="55"/>
+      <c r="Y511" s="55"/>
+      <c r="Z511" s="55"/>
+      <c r="AA511" s="55"/>
+      <c r="AB511" s="55"/>
+      <c r="AC511" s="55"/>
+      <c r="AD511" s="55"/>
+      <c r="AE511" s="55"/>
+      <c r="AF511" s="55"/>
+      <c r="AG511" s="55"/>
+      <c r="AH511" s="55"/>
     </row>
     <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B712" s="43"/>
-      <c r="C712" s="43"/>
-      <c r="D712" s="43"/>
-      <c r="E712" s="43"/>
-      <c r="F712" s="43"/>
-      <c r="G712" s="43"/>
-      <c r="H712" s="43"/>
-      <c r="I712" s="43"/>
-      <c r="J712" s="43"/>
-      <c r="K712" s="43"/>
-      <c r="L712" s="43"/>
-      <c r="M712" s="43"/>
-      <c r="N712" s="43"/>
-      <c r="O712" s="43"/>
-      <c r="P712" s="43"/>
-      <c r="Q712" s="43"/>
-      <c r="R712" s="43"/>
-      <c r="S712" s="43"/>
-      <c r="T712" s="43"/>
-      <c r="U712" s="43"/>
-      <c r="V712" s="43"/>
-      <c r="W712" s="43"/>
-      <c r="X712" s="43"/>
-      <c r="Y712" s="43"/>
-      <c r="Z712" s="43"/>
-      <c r="AA712" s="43"/>
-      <c r="AB712" s="43"/>
-      <c r="AC712" s="43"/>
-      <c r="AD712" s="43"/>
-      <c r="AE712" s="43"/>
-      <c r="AF712" s="43"/>
-      <c r="AG712" s="43"/>
-      <c r="AH712" s="43"/>
+      <c r="B712" s="55"/>
+      <c r="C712" s="55"/>
+      <c r="D712" s="55"/>
+      <c r="E712" s="55"/>
+      <c r="F712" s="55"/>
+      <c r="G712" s="55"/>
+      <c r="H712" s="55"/>
+      <c r="I712" s="55"/>
+      <c r="J712" s="55"/>
+      <c r="K712" s="55"/>
+      <c r="L712" s="55"/>
+      <c r="M712" s="55"/>
+      <c r="N712" s="55"/>
+      <c r="O712" s="55"/>
+      <c r="P712" s="55"/>
+      <c r="Q712" s="55"/>
+      <c r="R712" s="55"/>
+      <c r="S712" s="55"/>
+      <c r="T712" s="55"/>
+      <c r="U712" s="55"/>
+      <c r="V712" s="55"/>
+      <c r="W712" s="55"/>
+      <c r="X712" s="55"/>
+      <c r="Y712" s="55"/>
+      <c r="Z712" s="55"/>
+      <c r="AA712" s="55"/>
+      <c r="AB712" s="55"/>
+      <c r="AC712" s="55"/>
+      <c r="AD712" s="55"/>
+      <c r="AE712" s="55"/>
+      <c r="AF712" s="55"/>
+      <c r="AG712" s="55"/>
+      <c r="AH712" s="55"/>
     </row>
     <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B887" s="43"/>
-      <c r="C887" s="43"/>
-      <c r="D887" s="43"/>
-      <c r="E887" s="43"/>
-      <c r="F887" s="43"/>
-      <c r="G887" s="43"/>
-      <c r="H887" s="43"/>
-      <c r="I887" s="43"/>
-      <c r="J887" s="43"/>
-      <c r="K887" s="43"/>
-      <c r="L887" s="43"/>
-      <c r="M887" s="43"/>
-      <c r="N887" s="43"/>
-      <c r="O887" s="43"/>
-      <c r="P887" s="43"/>
-      <c r="Q887" s="43"/>
-      <c r="R887" s="43"/>
-      <c r="S887" s="43"/>
-      <c r="T887" s="43"/>
-      <c r="U887" s="43"/>
-      <c r="V887" s="43"/>
-      <c r="W887" s="43"/>
-      <c r="X887" s="43"/>
-      <c r="Y887" s="43"/>
-      <c r="Z887" s="43"/>
-      <c r="AA887" s="43"/>
-      <c r="AB887" s="43"/>
-      <c r="AC887" s="43"/>
-      <c r="AD887" s="43"/>
-      <c r="AE887" s="43"/>
-      <c r="AF887" s="43"/>
-      <c r="AG887" s="43"/>
-      <c r="AH887" s="43"/>
+      <c r="B887" s="55"/>
+      <c r="C887" s="55"/>
+      <c r="D887" s="55"/>
+      <c r="E887" s="55"/>
+      <c r="F887" s="55"/>
+      <c r="G887" s="55"/>
+      <c r="H887" s="55"/>
+      <c r="I887" s="55"/>
+      <c r="J887" s="55"/>
+      <c r="K887" s="55"/>
+      <c r="L887" s="55"/>
+      <c r="M887" s="55"/>
+      <c r="N887" s="55"/>
+      <c r="O887" s="55"/>
+      <c r="P887" s="55"/>
+      <c r="Q887" s="55"/>
+      <c r="R887" s="55"/>
+      <c r="S887" s="55"/>
+      <c r="T887" s="55"/>
+      <c r="U887" s="55"/>
+      <c r="V887" s="55"/>
+      <c r="W887" s="55"/>
+      <c r="X887" s="55"/>
+      <c r="Y887" s="55"/>
+      <c r="Z887" s="55"/>
+      <c r="AA887" s="55"/>
+      <c r="AB887" s="55"/>
+      <c r="AC887" s="55"/>
+      <c r="AD887" s="55"/>
+      <c r="AE887" s="55"/>
+      <c r="AF887" s="55"/>
+      <c r="AG887" s="55"/>
+      <c r="AH887" s="55"/>
     </row>
     <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1100" s="43"/>
-      <c r="C1100" s="43"/>
-      <c r="D1100" s="43"/>
-      <c r="E1100" s="43"/>
-      <c r="F1100" s="43"/>
-      <c r="G1100" s="43"/>
-      <c r="H1100" s="43"/>
-      <c r="I1100" s="43"/>
-      <c r="J1100" s="43"/>
-      <c r="K1100" s="43"/>
-      <c r="L1100" s="43"/>
-      <c r="M1100" s="43"/>
-      <c r="N1100" s="43"/>
-      <c r="O1100" s="43"/>
-      <c r="P1100" s="43"/>
-      <c r="Q1100" s="43"/>
-      <c r="R1100" s="43"/>
-      <c r="S1100" s="43"/>
-      <c r="T1100" s="43"/>
-      <c r="U1100" s="43"/>
-      <c r="V1100" s="43"/>
-      <c r="W1100" s="43"/>
-      <c r="X1100" s="43"/>
-      <c r="Y1100" s="43"/>
-      <c r="Z1100" s="43"/>
-      <c r="AA1100" s="43"/>
-      <c r="AB1100" s="43"/>
-      <c r="AC1100" s="43"/>
-      <c r="AD1100" s="43"/>
-      <c r="AE1100" s="43"/>
-      <c r="AF1100" s="43"/>
-      <c r="AG1100" s="43"/>
-      <c r="AH1100" s="43"/>
+      <c r="B1100" s="55"/>
+      <c r="C1100" s="55"/>
+      <c r="D1100" s="55"/>
+      <c r="E1100" s="55"/>
+      <c r="F1100" s="55"/>
+      <c r="G1100" s="55"/>
+      <c r="H1100" s="55"/>
+      <c r="I1100" s="55"/>
+      <c r="J1100" s="55"/>
+      <c r="K1100" s="55"/>
+      <c r="L1100" s="55"/>
+      <c r="M1100" s="55"/>
+      <c r="N1100" s="55"/>
+      <c r="O1100" s="55"/>
+      <c r="P1100" s="55"/>
+      <c r="Q1100" s="55"/>
+      <c r="R1100" s="55"/>
+      <c r="S1100" s="55"/>
+      <c r="T1100" s="55"/>
+      <c r="U1100" s="55"/>
+      <c r="V1100" s="55"/>
+      <c r="W1100" s="55"/>
+      <c r="X1100" s="55"/>
+      <c r="Y1100" s="55"/>
+      <c r="Z1100" s="55"/>
+      <c r="AA1100" s="55"/>
+      <c r="AB1100" s="55"/>
+      <c r="AC1100" s="55"/>
+      <c r="AD1100" s="55"/>
+      <c r="AE1100" s="55"/>
+      <c r="AF1100" s="55"/>
+      <c r="AG1100" s="55"/>
+      <c r="AH1100" s="55"/>
     </row>
     <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1227" s="43"/>
-      <c r="C1227" s="43"/>
-      <c r="D1227" s="43"/>
-      <c r="E1227" s="43"/>
-      <c r="F1227" s="43"/>
-      <c r="G1227" s="43"/>
-      <c r="H1227" s="43"/>
-      <c r="I1227" s="43"/>
-      <c r="J1227" s="43"/>
-      <c r="K1227" s="43"/>
-      <c r="L1227" s="43"/>
-      <c r="M1227" s="43"/>
-      <c r="N1227" s="43"/>
-      <c r="O1227" s="43"/>
-      <c r="P1227" s="43"/>
-      <c r="Q1227" s="43"/>
-      <c r="R1227" s="43"/>
-      <c r="S1227" s="43"/>
-      <c r="T1227" s="43"/>
-      <c r="U1227" s="43"/>
-      <c r="V1227" s="43"/>
-      <c r="W1227" s="43"/>
-      <c r="X1227" s="43"/>
-      <c r="Y1227" s="43"/>
-      <c r="Z1227" s="43"/>
-      <c r="AA1227" s="43"/>
-      <c r="AB1227" s="43"/>
-      <c r="AC1227" s="43"/>
-      <c r="AD1227" s="43"/>
-      <c r="AE1227" s="43"/>
-      <c r="AF1227" s="43"/>
-      <c r="AG1227" s="43"/>
-      <c r="AH1227" s="43"/>
+      <c r="B1227" s="55"/>
+      <c r="C1227" s="55"/>
+      <c r="D1227" s="55"/>
+      <c r="E1227" s="55"/>
+      <c r="F1227" s="55"/>
+      <c r="G1227" s="55"/>
+      <c r="H1227" s="55"/>
+      <c r="I1227" s="55"/>
+      <c r="J1227" s="55"/>
+      <c r="K1227" s="55"/>
+      <c r="L1227" s="55"/>
+      <c r="M1227" s="55"/>
+      <c r="N1227" s="55"/>
+      <c r="O1227" s="55"/>
+      <c r="P1227" s="55"/>
+      <c r="Q1227" s="55"/>
+      <c r="R1227" s="55"/>
+      <c r="S1227" s="55"/>
+      <c r="T1227" s="55"/>
+      <c r="U1227" s="55"/>
+      <c r="V1227" s="55"/>
+      <c r="W1227" s="55"/>
+      <c r="X1227" s="55"/>
+      <c r="Y1227" s="55"/>
+      <c r="Z1227" s="55"/>
+      <c r="AA1227" s="55"/>
+      <c r="AB1227" s="55"/>
+      <c r="AC1227" s="55"/>
+      <c r="AD1227" s="55"/>
+      <c r="AE1227" s="55"/>
+      <c r="AF1227" s="55"/>
+      <c r="AG1227" s="55"/>
+      <c r="AH1227" s="55"/>
     </row>
     <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1390" s="43"/>
-      <c r="C1390" s="43"/>
-      <c r="D1390" s="43"/>
-      <c r="E1390" s="43"/>
-      <c r="F1390" s="43"/>
-      <c r="G1390" s="43"/>
-      <c r="H1390" s="43"/>
-      <c r="I1390" s="43"/>
-      <c r="J1390" s="43"/>
-      <c r="K1390" s="43"/>
-      <c r="L1390" s="43"/>
-      <c r="M1390" s="43"/>
-      <c r="N1390" s="43"/>
-      <c r="O1390" s="43"/>
-      <c r="P1390" s="43"/>
-      <c r="Q1390" s="43"/>
-      <c r="R1390" s="43"/>
-      <c r="S1390" s="43"/>
-      <c r="T1390" s="43"/>
-      <c r="U1390" s="43"/>
-      <c r="V1390" s="43"/>
-      <c r="W1390" s="43"/>
-      <c r="X1390" s="43"/>
-      <c r="Y1390" s="43"/>
-      <c r="Z1390" s="43"/>
-      <c r="AA1390" s="43"/>
-      <c r="AB1390" s="43"/>
-      <c r="AC1390" s="43"/>
-      <c r="AD1390" s="43"/>
-      <c r="AE1390" s="43"/>
-      <c r="AF1390" s="43"/>
-      <c r="AG1390" s="43"/>
-      <c r="AH1390" s="43"/>
+      <c r="B1390" s="55"/>
+      <c r="C1390" s="55"/>
+      <c r="D1390" s="55"/>
+      <c r="E1390" s="55"/>
+      <c r="F1390" s="55"/>
+      <c r="G1390" s="55"/>
+      <c r="H1390" s="55"/>
+      <c r="I1390" s="55"/>
+      <c r="J1390" s="55"/>
+      <c r="K1390" s="55"/>
+      <c r="L1390" s="55"/>
+      <c r="M1390" s="55"/>
+      <c r="N1390" s="55"/>
+      <c r="O1390" s="55"/>
+      <c r="P1390" s="55"/>
+      <c r="Q1390" s="55"/>
+      <c r="R1390" s="55"/>
+      <c r="S1390" s="55"/>
+      <c r="T1390" s="55"/>
+      <c r="U1390" s="55"/>
+      <c r="V1390" s="55"/>
+      <c r="W1390" s="55"/>
+      <c r="X1390" s="55"/>
+      <c r="Y1390" s="55"/>
+      <c r="Z1390" s="55"/>
+      <c r="AA1390" s="55"/>
+      <c r="AB1390" s="55"/>
+      <c r="AC1390" s="55"/>
+      <c r="AD1390" s="55"/>
+      <c r="AE1390" s="55"/>
+      <c r="AF1390" s="55"/>
+      <c r="AG1390" s="55"/>
+      <c r="AH1390" s="55"/>
     </row>
     <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1502" s="43"/>
-      <c r="C1502" s="43"/>
-      <c r="D1502" s="43"/>
-      <c r="E1502" s="43"/>
-      <c r="F1502" s="43"/>
-      <c r="G1502" s="43"/>
-      <c r="H1502" s="43"/>
-      <c r="I1502" s="43"/>
-      <c r="J1502" s="43"/>
-      <c r="K1502" s="43"/>
-      <c r="L1502" s="43"/>
-      <c r="M1502" s="43"/>
-      <c r="N1502" s="43"/>
-      <c r="O1502" s="43"/>
-      <c r="P1502" s="43"/>
-      <c r="Q1502" s="43"/>
-      <c r="R1502" s="43"/>
-      <c r="S1502" s="43"/>
-      <c r="T1502" s="43"/>
-      <c r="U1502" s="43"/>
-      <c r="V1502" s="43"/>
-      <c r="W1502" s="43"/>
-      <c r="X1502" s="43"/>
-      <c r="Y1502" s="43"/>
-      <c r="Z1502" s="43"/>
-      <c r="AA1502" s="43"/>
-      <c r="AB1502" s="43"/>
-      <c r="AC1502" s="43"/>
-      <c r="AD1502" s="43"/>
-      <c r="AE1502" s="43"/>
-      <c r="AF1502" s="43"/>
-      <c r="AG1502" s="43"/>
-      <c r="AH1502" s="43"/>
+      <c r="B1502" s="55"/>
+      <c r="C1502" s="55"/>
+      <c r="D1502" s="55"/>
+      <c r="E1502" s="55"/>
+      <c r="F1502" s="55"/>
+      <c r="G1502" s="55"/>
+      <c r="H1502" s="55"/>
+      <c r="I1502" s="55"/>
+      <c r="J1502" s="55"/>
+      <c r="K1502" s="55"/>
+      <c r="L1502" s="55"/>
+      <c r="M1502" s="55"/>
+      <c r="N1502" s="55"/>
+      <c r="O1502" s="55"/>
+      <c r="P1502" s="55"/>
+      <c r="Q1502" s="55"/>
+      <c r="R1502" s="55"/>
+      <c r="S1502" s="55"/>
+      <c r="T1502" s="55"/>
+      <c r="U1502" s="55"/>
+      <c r="V1502" s="55"/>
+      <c r="W1502" s="55"/>
+      <c r="X1502" s="55"/>
+      <c r="Y1502" s="55"/>
+      <c r="Z1502" s="55"/>
+      <c r="AA1502" s="55"/>
+      <c r="AB1502" s="55"/>
+      <c r="AC1502" s="55"/>
+      <c r="AD1502" s="55"/>
+      <c r="AE1502" s="55"/>
+      <c r="AF1502" s="55"/>
+      <c r="AG1502" s="55"/>
+      <c r="AH1502" s="55"/>
     </row>
     <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1604" s="43"/>
-      <c r="C1604" s="43"/>
-      <c r="D1604" s="43"/>
-      <c r="E1604" s="43"/>
-      <c r="F1604" s="43"/>
-      <c r="G1604" s="43"/>
-      <c r="H1604" s="43"/>
-      <c r="I1604" s="43"/>
-      <c r="J1604" s="43"/>
-      <c r="K1604" s="43"/>
-      <c r="L1604" s="43"/>
-      <c r="M1604" s="43"/>
-      <c r="N1604" s="43"/>
-      <c r="O1604" s="43"/>
-      <c r="P1604" s="43"/>
-      <c r="Q1604" s="43"/>
-      <c r="R1604" s="43"/>
-      <c r="S1604" s="43"/>
-      <c r="T1604" s="43"/>
-      <c r="U1604" s="43"/>
-      <c r="V1604" s="43"/>
-      <c r="W1604" s="43"/>
-      <c r="X1604" s="43"/>
-      <c r="Y1604" s="43"/>
-      <c r="Z1604" s="43"/>
-      <c r="AA1604" s="43"/>
-      <c r="AB1604" s="43"/>
-      <c r="AC1604" s="43"/>
-      <c r="AD1604" s="43"/>
-      <c r="AE1604" s="43"/>
-      <c r="AF1604" s="43"/>
-      <c r="AG1604" s="43"/>
-      <c r="AH1604" s="43"/>
+      <c r="B1604" s="55"/>
+      <c r="C1604" s="55"/>
+      <c r="D1604" s="55"/>
+      <c r="E1604" s="55"/>
+      <c r="F1604" s="55"/>
+      <c r="G1604" s="55"/>
+      <c r="H1604" s="55"/>
+      <c r="I1604" s="55"/>
+      <c r="J1604" s="55"/>
+      <c r="K1604" s="55"/>
+      <c r="L1604" s="55"/>
+      <c r="M1604" s="55"/>
+      <c r="N1604" s="55"/>
+      <c r="O1604" s="55"/>
+      <c r="P1604" s="55"/>
+      <c r="Q1604" s="55"/>
+      <c r="R1604" s="55"/>
+      <c r="S1604" s="55"/>
+      <c r="T1604" s="55"/>
+      <c r="U1604" s="55"/>
+      <c r="V1604" s="55"/>
+      <c r="W1604" s="55"/>
+      <c r="X1604" s="55"/>
+      <c r="Y1604" s="55"/>
+      <c r="Z1604" s="55"/>
+      <c r="AA1604" s="55"/>
+      <c r="AB1604" s="55"/>
+      <c r="AC1604" s="55"/>
+      <c r="AD1604" s="55"/>
+      <c r="AE1604" s="55"/>
+      <c r="AF1604" s="55"/>
+      <c r="AG1604" s="55"/>
+      <c r="AH1604" s="55"/>
     </row>
     <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1698" s="43"/>
-      <c r="C1698" s="43"/>
-      <c r="D1698" s="43"/>
-      <c r="E1698" s="43"/>
-      <c r="F1698" s="43"/>
-      <c r="G1698" s="43"/>
-      <c r="H1698" s="43"/>
-      <c r="I1698" s="43"/>
-      <c r="J1698" s="43"/>
-      <c r="K1698" s="43"/>
-      <c r="L1698" s="43"/>
-      <c r="M1698" s="43"/>
-      <c r="N1698" s="43"/>
-      <c r="O1698" s="43"/>
-      <c r="P1698" s="43"/>
-      <c r="Q1698" s="43"/>
-      <c r="R1698" s="43"/>
-      <c r="S1698" s="43"/>
-      <c r="T1698" s="43"/>
-      <c r="U1698" s="43"/>
-      <c r="V1698" s="43"/>
-      <c r="W1698" s="43"/>
-      <c r="X1698" s="43"/>
-      <c r="Y1698" s="43"/>
-      <c r="Z1698" s="43"/>
-      <c r="AA1698" s="43"/>
-      <c r="AB1698" s="43"/>
-      <c r="AC1698" s="43"/>
-      <c r="AD1698" s="43"/>
-      <c r="AE1698" s="43"/>
-      <c r="AF1698" s="43"/>
-      <c r="AG1698" s="43"/>
-      <c r="AH1698" s="43"/>
+      <c r="B1698" s="55"/>
+      <c r="C1698" s="55"/>
+      <c r="D1698" s="55"/>
+      <c r="E1698" s="55"/>
+      <c r="F1698" s="55"/>
+      <c r="G1698" s="55"/>
+      <c r="H1698" s="55"/>
+      <c r="I1698" s="55"/>
+      <c r="J1698" s="55"/>
+      <c r="K1698" s="55"/>
+      <c r="L1698" s="55"/>
+      <c r="M1698" s="55"/>
+      <c r="N1698" s="55"/>
+      <c r="O1698" s="55"/>
+      <c r="P1698" s="55"/>
+      <c r="Q1698" s="55"/>
+      <c r="R1698" s="55"/>
+      <c r="S1698" s="55"/>
+      <c r="T1698" s="55"/>
+      <c r="U1698" s="55"/>
+      <c r="V1698" s="55"/>
+      <c r="W1698" s="55"/>
+      <c r="X1698" s="55"/>
+      <c r="Y1698" s="55"/>
+      <c r="Z1698" s="55"/>
+      <c r="AA1698" s="55"/>
+      <c r="AB1698" s="55"/>
+      <c r="AC1698" s="55"/>
+      <c r="AD1698" s="55"/>
+      <c r="AE1698" s="55"/>
+      <c r="AF1698" s="55"/>
+      <c r="AG1698" s="55"/>
+      <c r="AH1698" s="55"/>
     </row>
     <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1945" s="43"/>
-      <c r="C1945" s="43"/>
-      <c r="D1945" s="43"/>
-      <c r="E1945" s="43"/>
-      <c r="F1945" s="43"/>
-      <c r="G1945" s="43"/>
-      <c r="H1945" s="43"/>
-      <c r="I1945" s="43"/>
-      <c r="J1945" s="43"/>
-      <c r="K1945" s="43"/>
-      <c r="L1945" s="43"/>
-      <c r="M1945" s="43"/>
-      <c r="N1945" s="43"/>
-      <c r="O1945" s="43"/>
-      <c r="P1945" s="43"/>
-      <c r="Q1945" s="43"/>
-      <c r="R1945" s="43"/>
-      <c r="S1945" s="43"/>
-      <c r="T1945" s="43"/>
-      <c r="U1945" s="43"/>
-      <c r="V1945" s="43"/>
-      <c r="W1945" s="43"/>
-      <c r="X1945" s="43"/>
-      <c r="Y1945" s="43"/>
-      <c r="Z1945" s="43"/>
-      <c r="AA1945" s="43"/>
-      <c r="AB1945" s="43"/>
-      <c r="AC1945" s="43"/>
-      <c r="AD1945" s="43"/>
-      <c r="AE1945" s="43"/>
-      <c r="AF1945" s="43"/>
-      <c r="AG1945" s="43"/>
-      <c r="AH1945" s="43"/>
+      <c r="B1945" s="55"/>
+      <c r="C1945" s="55"/>
+      <c r="D1945" s="55"/>
+      <c r="E1945" s="55"/>
+      <c r="F1945" s="55"/>
+      <c r="G1945" s="55"/>
+      <c r="H1945" s="55"/>
+      <c r="I1945" s="55"/>
+      <c r="J1945" s="55"/>
+      <c r="K1945" s="55"/>
+      <c r="L1945" s="55"/>
+      <c r="M1945" s="55"/>
+      <c r="N1945" s="55"/>
+      <c r="O1945" s="55"/>
+      <c r="P1945" s="55"/>
+      <c r="Q1945" s="55"/>
+      <c r="R1945" s="55"/>
+      <c r="S1945" s="55"/>
+      <c r="T1945" s="55"/>
+      <c r="U1945" s="55"/>
+      <c r="V1945" s="55"/>
+      <c r="W1945" s="55"/>
+      <c r="X1945" s="55"/>
+      <c r="Y1945" s="55"/>
+      <c r="Z1945" s="55"/>
+      <c r="AA1945" s="55"/>
+      <c r="AB1945" s="55"/>
+      <c r="AC1945" s="55"/>
+      <c r="AD1945" s="55"/>
+      <c r="AE1945" s="55"/>
+      <c r="AF1945" s="55"/>
+      <c r="AG1945" s="55"/>
+      <c r="AH1945" s="55"/>
     </row>
     <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2031" s="43"/>
-      <c r="C2031" s="43"/>
-      <c r="D2031" s="43"/>
-      <c r="E2031" s="43"/>
-      <c r="F2031" s="43"/>
-      <c r="G2031" s="43"/>
-      <c r="H2031" s="43"/>
-      <c r="I2031" s="43"/>
-      <c r="J2031" s="43"/>
-      <c r="K2031" s="43"/>
-      <c r="L2031" s="43"/>
-      <c r="M2031" s="43"/>
-      <c r="N2031" s="43"/>
-      <c r="O2031" s="43"/>
-      <c r="P2031" s="43"/>
-      <c r="Q2031" s="43"/>
-      <c r="R2031" s="43"/>
-      <c r="S2031" s="43"/>
-      <c r="T2031" s="43"/>
-      <c r="U2031" s="43"/>
-      <c r="V2031" s="43"/>
-      <c r="W2031" s="43"/>
-      <c r="X2031" s="43"/>
-      <c r="Y2031" s="43"/>
-      <c r="Z2031" s="43"/>
-      <c r="AA2031" s="43"/>
-      <c r="AB2031" s="43"/>
-      <c r="AC2031" s="43"/>
-      <c r="AD2031" s="43"/>
-      <c r="AE2031" s="43"/>
-      <c r="AF2031" s="43"/>
-      <c r="AG2031" s="43"/>
-      <c r="AH2031" s="43"/>
+      <c r="B2031" s="55"/>
+      <c r="C2031" s="55"/>
+      <c r="D2031" s="55"/>
+      <c r="E2031" s="55"/>
+      <c r="F2031" s="55"/>
+      <c r="G2031" s="55"/>
+      <c r="H2031" s="55"/>
+      <c r="I2031" s="55"/>
+      <c r="J2031" s="55"/>
+      <c r="K2031" s="55"/>
+      <c r="L2031" s="55"/>
+      <c r="M2031" s="55"/>
+      <c r="N2031" s="55"/>
+      <c r="O2031" s="55"/>
+      <c r="P2031" s="55"/>
+      <c r="Q2031" s="55"/>
+      <c r="R2031" s="55"/>
+      <c r="S2031" s="55"/>
+      <c r="T2031" s="55"/>
+      <c r="U2031" s="55"/>
+      <c r="V2031" s="55"/>
+      <c r="W2031" s="55"/>
+      <c r="X2031" s="55"/>
+      <c r="Y2031" s="55"/>
+      <c r="Z2031" s="55"/>
+      <c r="AA2031" s="55"/>
+      <c r="AB2031" s="55"/>
+      <c r="AC2031" s="55"/>
+      <c r="AD2031" s="55"/>
+      <c r="AE2031" s="55"/>
+      <c r="AF2031" s="55"/>
+      <c r="AG2031" s="55"/>
+      <c r="AH2031" s="55"/>
     </row>
     <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2153" s="43"/>
-      <c r="C2153" s="43"/>
-      <c r="D2153" s="43"/>
-      <c r="E2153" s="43"/>
-      <c r="F2153" s="43"/>
-      <c r="G2153" s="43"/>
-      <c r="H2153" s="43"/>
-      <c r="I2153" s="43"/>
-      <c r="J2153" s="43"/>
-      <c r="K2153" s="43"/>
-      <c r="L2153" s="43"/>
-      <c r="M2153" s="43"/>
-      <c r="N2153" s="43"/>
-      <c r="O2153" s="43"/>
-      <c r="P2153" s="43"/>
-      <c r="Q2153" s="43"/>
-      <c r="R2153" s="43"/>
-      <c r="S2153" s="43"/>
-      <c r="T2153" s="43"/>
-      <c r="U2153" s="43"/>
-      <c r="V2153" s="43"/>
-      <c r="W2153" s="43"/>
-      <c r="X2153" s="43"/>
-      <c r="Y2153" s="43"/>
-      <c r="Z2153" s="43"/>
-      <c r="AA2153" s="43"/>
-      <c r="AB2153" s="43"/>
-      <c r="AC2153" s="43"/>
-      <c r="AD2153" s="43"/>
-      <c r="AE2153" s="43"/>
-      <c r="AF2153" s="43"/>
-      <c r="AG2153" s="43"/>
-      <c r="AH2153" s="43"/>
+      <c r="B2153" s="55"/>
+      <c r="C2153" s="55"/>
+      <c r="D2153" s="55"/>
+      <c r="E2153" s="55"/>
+      <c r="F2153" s="55"/>
+      <c r="G2153" s="55"/>
+      <c r="H2153" s="55"/>
+      <c r="I2153" s="55"/>
+      <c r="J2153" s="55"/>
+      <c r="K2153" s="55"/>
+      <c r="L2153" s="55"/>
+      <c r="M2153" s="55"/>
+      <c r="N2153" s="55"/>
+      <c r="O2153" s="55"/>
+      <c r="P2153" s="55"/>
+      <c r="Q2153" s="55"/>
+      <c r="R2153" s="55"/>
+      <c r="S2153" s="55"/>
+      <c r="T2153" s="55"/>
+      <c r="U2153" s="55"/>
+      <c r="V2153" s="55"/>
+      <c r="W2153" s="55"/>
+      <c r="X2153" s="55"/>
+      <c r="Y2153" s="55"/>
+      <c r="Z2153" s="55"/>
+      <c r="AA2153" s="55"/>
+      <c r="AB2153" s="55"/>
+      <c r="AC2153" s="55"/>
+      <c r="AD2153" s="55"/>
+      <c r="AE2153" s="55"/>
+      <c r="AF2153" s="55"/>
+      <c r="AG2153" s="55"/>
+      <c r="AH2153" s="55"/>
     </row>
     <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2317" s="43"/>
-      <c r="C2317" s="43"/>
-      <c r="D2317" s="43"/>
-      <c r="E2317" s="43"/>
-      <c r="F2317" s="43"/>
-      <c r="G2317" s="43"/>
-      <c r="H2317" s="43"/>
-      <c r="I2317" s="43"/>
-      <c r="J2317" s="43"/>
-      <c r="K2317" s="43"/>
-      <c r="L2317" s="43"/>
-      <c r="M2317" s="43"/>
-      <c r="N2317" s="43"/>
-      <c r="O2317" s="43"/>
-      <c r="P2317" s="43"/>
-      <c r="Q2317" s="43"/>
-      <c r="R2317" s="43"/>
-      <c r="S2317" s="43"/>
-      <c r="T2317" s="43"/>
-      <c r="U2317" s="43"/>
-      <c r="V2317" s="43"/>
-      <c r="W2317" s="43"/>
-      <c r="X2317" s="43"/>
-      <c r="Y2317" s="43"/>
-      <c r="Z2317" s="43"/>
-      <c r="AA2317" s="43"/>
-      <c r="AB2317" s="43"/>
-      <c r="AC2317" s="43"/>
-      <c r="AD2317" s="43"/>
-      <c r="AE2317" s="43"/>
-      <c r="AF2317" s="43"/>
-      <c r="AG2317" s="43"/>
-      <c r="AH2317" s="43"/>
+      <c r="B2317" s="55"/>
+      <c r="C2317" s="55"/>
+      <c r="D2317" s="55"/>
+      <c r="E2317" s="55"/>
+      <c r="F2317" s="55"/>
+      <c r="G2317" s="55"/>
+      <c r="H2317" s="55"/>
+      <c r="I2317" s="55"/>
+      <c r="J2317" s="55"/>
+      <c r="K2317" s="55"/>
+      <c r="L2317" s="55"/>
+      <c r="M2317" s="55"/>
+      <c r="N2317" s="55"/>
+      <c r="O2317" s="55"/>
+      <c r="P2317" s="55"/>
+      <c r="Q2317" s="55"/>
+      <c r="R2317" s="55"/>
+      <c r="S2317" s="55"/>
+      <c r="T2317" s="55"/>
+      <c r="U2317" s="55"/>
+      <c r="V2317" s="55"/>
+      <c r="W2317" s="55"/>
+      <c r="X2317" s="55"/>
+      <c r="Y2317" s="55"/>
+      <c r="Z2317" s="55"/>
+      <c r="AA2317" s="55"/>
+      <c r="AB2317" s="55"/>
+      <c r="AC2317" s="55"/>
+      <c r="AD2317" s="55"/>
+      <c r="AE2317" s="55"/>
+      <c r="AF2317" s="55"/>
+      <c r="AG2317" s="55"/>
+      <c r="AH2317" s="55"/>
     </row>
     <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2419" s="43"/>
-      <c r="C2419" s="43"/>
-      <c r="D2419" s="43"/>
-      <c r="E2419" s="43"/>
-      <c r="F2419" s="43"/>
-      <c r="G2419" s="43"/>
-      <c r="H2419" s="43"/>
-      <c r="I2419" s="43"/>
-      <c r="J2419" s="43"/>
-      <c r="K2419" s="43"/>
-      <c r="L2419" s="43"/>
-      <c r="M2419" s="43"/>
-      <c r="N2419" s="43"/>
-      <c r="O2419" s="43"/>
-      <c r="P2419" s="43"/>
-      <c r="Q2419" s="43"/>
-      <c r="R2419" s="43"/>
-      <c r="S2419" s="43"/>
-      <c r="T2419" s="43"/>
-      <c r="U2419" s="43"/>
-      <c r="V2419" s="43"/>
-      <c r="W2419" s="43"/>
-      <c r="X2419" s="43"/>
-      <c r="Y2419" s="43"/>
-      <c r="Z2419" s="43"/>
-      <c r="AA2419" s="43"/>
-      <c r="AB2419" s="43"/>
-      <c r="AC2419" s="43"/>
-      <c r="AD2419" s="43"/>
-      <c r="AE2419" s="43"/>
-      <c r="AF2419" s="43"/>
-      <c r="AG2419" s="43"/>
-      <c r="AH2419" s="43"/>
+      <c r="B2419" s="55"/>
+      <c r="C2419" s="55"/>
+      <c r="D2419" s="55"/>
+      <c r="E2419" s="55"/>
+      <c r="F2419" s="55"/>
+      <c r="G2419" s="55"/>
+      <c r="H2419" s="55"/>
+      <c r="I2419" s="55"/>
+      <c r="J2419" s="55"/>
+      <c r="K2419" s="55"/>
+      <c r="L2419" s="55"/>
+      <c r="M2419" s="55"/>
+      <c r="N2419" s="55"/>
+      <c r="O2419" s="55"/>
+      <c r="P2419" s="55"/>
+      <c r="Q2419" s="55"/>
+      <c r="R2419" s="55"/>
+      <c r="S2419" s="55"/>
+      <c r="T2419" s="55"/>
+      <c r="U2419" s="55"/>
+      <c r="V2419" s="55"/>
+      <c r="W2419" s="55"/>
+      <c r="X2419" s="55"/>
+      <c r="Y2419" s="55"/>
+      <c r="Z2419" s="55"/>
+      <c r="AA2419" s="55"/>
+      <c r="AB2419" s="55"/>
+      <c r="AC2419" s="55"/>
+      <c r="AD2419" s="55"/>
+      <c r="AE2419" s="55"/>
+      <c r="AF2419" s="55"/>
+      <c r="AG2419" s="55"/>
+      <c r="AH2419" s="55"/>
     </row>
     <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2509" s="43"/>
-      <c r="C2509" s="43"/>
-      <c r="D2509" s="43"/>
-      <c r="E2509" s="43"/>
-      <c r="F2509" s="43"/>
-      <c r="G2509" s="43"/>
-      <c r="H2509" s="43"/>
-      <c r="I2509" s="43"/>
-      <c r="J2509" s="43"/>
-      <c r="K2509" s="43"/>
-      <c r="L2509" s="43"/>
-      <c r="M2509" s="43"/>
-      <c r="N2509" s="43"/>
-      <c r="O2509" s="43"/>
-      <c r="P2509" s="43"/>
-      <c r="Q2509" s="43"/>
-      <c r="R2509" s="43"/>
-      <c r="S2509" s="43"/>
-      <c r="T2509" s="43"/>
-      <c r="U2509" s="43"/>
-      <c r="V2509" s="43"/>
-      <c r="W2509" s="43"/>
-      <c r="X2509" s="43"/>
-      <c r="Y2509" s="43"/>
-      <c r="Z2509" s="43"/>
-      <c r="AA2509" s="43"/>
-      <c r="AB2509" s="43"/>
-      <c r="AC2509" s="43"/>
-      <c r="AD2509" s="43"/>
-      <c r="AE2509" s="43"/>
-      <c r="AF2509" s="43"/>
-      <c r="AG2509" s="43"/>
-      <c r="AH2509" s="43"/>
+      <c r="B2509" s="55"/>
+      <c r="C2509" s="55"/>
+      <c r="D2509" s="55"/>
+      <c r="E2509" s="55"/>
+      <c r="F2509" s="55"/>
+      <c r="G2509" s="55"/>
+      <c r="H2509" s="55"/>
+      <c r="I2509" s="55"/>
+      <c r="J2509" s="55"/>
+      <c r="K2509" s="55"/>
+      <c r="L2509" s="55"/>
+      <c r="M2509" s="55"/>
+      <c r="N2509" s="55"/>
+      <c r="O2509" s="55"/>
+      <c r="P2509" s="55"/>
+      <c r="Q2509" s="55"/>
+      <c r="R2509" s="55"/>
+      <c r="S2509" s="55"/>
+      <c r="T2509" s="55"/>
+      <c r="U2509" s="55"/>
+      <c r="V2509" s="55"/>
+      <c r="W2509" s="55"/>
+      <c r="X2509" s="55"/>
+      <c r="Y2509" s="55"/>
+      <c r="Z2509" s="55"/>
+      <c r="AA2509" s="55"/>
+      <c r="AB2509" s="55"/>
+      <c r="AC2509" s="55"/>
+      <c r="AD2509" s="55"/>
+      <c r="AE2509" s="55"/>
+      <c r="AF2509" s="55"/>
+      <c r="AG2509" s="55"/>
+      <c r="AH2509" s="55"/>
     </row>
     <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2598" s="43"/>
-      <c r="C2598" s="43"/>
-      <c r="D2598" s="43"/>
-      <c r="E2598" s="43"/>
-      <c r="F2598" s="43"/>
-      <c r="G2598" s="43"/>
-      <c r="H2598" s="43"/>
-      <c r="I2598" s="43"/>
-      <c r="J2598" s="43"/>
-      <c r="K2598" s="43"/>
-      <c r="L2598" s="43"/>
-      <c r="M2598" s="43"/>
-      <c r="N2598" s="43"/>
-      <c r="O2598" s="43"/>
-      <c r="P2598" s="43"/>
-      <c r="Q2598" s="43"/>
-      <c r="R2598" s="43"/>
-      <c r="S2598" s="43"/>
-      <c r="T2598" s="43"/>
-      <c r="U2598" s="43"/>
-      <c r="V2598" s="43"/>
-      <c r="W2598" s="43"/>
-      <c r="X2598" s="43"/>
-      <c r="Y2598" s="43"/>
-      <c r="Z2598" s="43"/>
-      <c r="AA2598" s="43"/>
-      <c r="AB2598" s="43"/>
-      <c r="AC2598" s="43"/>
-      <c r="AD2598" s="43"/>
-      <c r="AE2598" s="43"/>
-      <c r="AF2598" s="43"/>
-      <c r="AG2598" s="43"/>
-      <c r="AH2598" s="43"/>
+      <c r="B2598" s="55"/>
+      <c r="C2598" s="55"/>
+      <c r="D2598" s="55"/>
+      <c r="E2598" s="55"/>
+      <c r="F2598" s="55"/>
+      <c r="G2598" s="55"/>
+      <c r="H2598" s="55"/>
+      <c r="I2598" s="55"/>
+      <c r="J2598" s="55"/>
+      <c r="K2598" s="55"/>
+      <c r="L2598" s="55"/>
+      <c r="M2598" s="55"/>
+      <c r="N2598" s="55"/>
+      <c r="O2598" s="55"/>
+      <c r="P2598" s="55"/>
+      <c r="Q2598" s="55"/>
+      <c r="R2598" s="55"/>
+      <c r="S2598" s="55"/>
+      <c r="T2598" s="55"/>
+      <c r="U2598" s="55"/>
+      <c r="V2598" s="55"/>
+      <c r="W2598" s="55"/>
+      <c r="X2598" s="55"/>
+      <c r="Y2598" s="55"/>
+      <c r="Z2598" s="55"/>
+      <c r="AA2598" s="55"/>
+      <c r="AB2598" s="55"/>
+      <c r="AC2598" s="55"/>
+      <c r="AD2598" s="55"/>
+      <c r="AE2598" s="55"/>
+      <c r="AF2598" s="55"/>
+      <c r="AG2598" s="55"/>
+      <c r="AH2598" s="55"/>
     </row>
     <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2719" s="43"/>
-      <c r="C2719" s="43"/>
-      <c r="D2719" s="43"/>
-      <c r="E2719" s="43"/>
-      <c r="F2719" s="43"/>
-      <c r="G2719" s="43"/>
-      <c r="H2719" s="43"/>
-      <c r="I2719" s="43"/>
-      <c r="J2719" s="43"/>
-      <c r="K2719" s="43"/>
-      <c r="L2719" s="43"/>
-      <c r="M2719" s="43"/>
-      <c r="N2719" s="43"/>
-      <c r="O2719" s="43"/>
-      <c r="P2719" s="43"/>
-      <c r="Q2719" s="43"/>
-      <c r="R2719" s="43"/>
-      <c r="S2719" s="43"/>
-      <c r="T2719" s="43"/>
-      <c r="U2719" s="43"/>
-      <c r="V2719" s="43"/>
-      <c r="W2719" s="43"/>
-      <c r="X2719" s="43"/>
-      <c r="Y2719" s="43"/>
-      <c r="Z2719" s="43"/>
-      <c r="AA2719" s="43"/>
-      <c r="AB2719" s="43"/>
-      <c r="AC2719" s="43"/>
-      <c r="AD2719" s="43"/>
-      <c r="AE2719" s="43"/>
-      <c r="AF2719" s="43"/>
-      <c r="AG2719" s="43"/>
-      <c r="AH2719" s="43"/>
+      <c r="B2719" s="55"/>
+      <c r="C2719" s="55"/>
+      <c r="D2719" s="55"/>
+      <c r="E2719" s="55"/>
+      <c r="F2719" s="55"/>
+      <c r="G2719" s="55"/>
+      <c r="H2719" s="55"/>
+      <c r="I2719" s="55"/>
+      <c r="J2719" s="55"/>
+      <c r="K2719" s="55"/>
+      <c r="L2719" s="55"/>
+      <c r="M2719" s="55"/>
+      <c r="N2719" s="55"/>
+      <c r="O2719" s="55"/>
+      <c r="P2719" s="55"/>
+      <c r="Q2719" s="55"/>
+      <c r="R2719" s="55"/>
+      <c r="S2719" s="55"/>
+      <c r="T2719" s="55"/>
+      <c r="U2719" s="55"/>
+      <c r="V2719" s="55"/>
+      <c r="W2719" s="55"/>
+      <c r="X2719" s="55"/>
+      <c r="Y2719" s="55"/>
+      <c r="Z2719" s="55"/>
+      <c r="AA2719" s="55"/>
+      <c r="AB2719" s="55"/>
+      <c r="AC2719" s="55"/>
+      <c r="AD2719" s="55"/>
+      <c r="AE2719" s="55"/>
+      <c r="AF2719" s="55"/>
+      <c r="AG2719" s="55"/>
+      <c r="AH2719" s="55"/>
     </row>
     <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2837" s="43"/>
-      <c r="C2837" s="43"/>
-      <c r="D2837" s="43"/>
-      <c r="E2837" s="43"/>
-      <c r="F2837" s="43"/>
-      <c r="G2837" s="43"/>
-      <c r="H2837" s="43"/>
-      <c r="I2837" s="43"/>
-      <c r="J2837" s="43"/>
-      <c r="K2837" s="43"/>
-      <c r="L2837" s="43"/>
-      <c r="M2837" s="43"/>
-      <c r="N2837" s="43"/>
-      <c r="O2837" s="43"/>
-      <c r="P2837" s="43"/>
-      <c r="Q2837" s="43"/>
-      <c r="R2837" s="43"/>
-      <c r="S2837" s="43"/>
-      <c r="T2837" s="43"/>
-      <c r="U2837" s="43"/>
-      <c r="V2837" s="43"/>
-      <c r="W2837" s="43"/>
-      <c r="X2837" s="43"/>
-      <c r="Y2837" s="43"/>
-      <c r="Z2837" s="43"/>
-      <c r="AA2837" s="43"/>
-      <c r="AB2837" s="43"/>
-      <c r="AC2837" s="43"/>
-      <c r="AD2837" s="43"/>
-      <c r="AE2837" s="43"/>
-      <c r="AF2837" s="43"/>
-      <c r="AG2837" s="43"/>
-      <c r="AH2837" s="43"/>
+      <c r="B2837" s="55"/>
+      <c r="C2837" s="55"/>
+      <c r="D2837" s="55"/>
+      <c r="E2837" s="55"/>
+      <c r="F2837" s="55"/>
+      <c r="G2837" s="55"/>
+      <c r="H2837" s="55"/>
+      <c r="I2837" s="55"/>
+      <c r="J2837" s="55"/>
+      <c r="K2837" s="55"/>
+      <c r="L2837" s="55"/>
+      <c r="M2837" s="55"/>
+      <c r="N2837" s="55"/>
+      <c r="O2837" s="55"/>
+      <c r="P2837" s="55"/>
+      <c r="Q2837" s="55"/>
+      <c r="R2837" s="55"/>
+      <c r="S2837" s="55"/>
+      <c r="T2837" s="55"/>
+      <c r="U2837" s="55"/>
+      <c r="V2837" s="55"/>
+      <c r="W2837" s="55"/>
+      <c r="X2837" s="55"/>
+      <c r="Y2837" s="55"/>
+      <c r="Z2837" s="55"/>
+      <c r="AA2837" s="55"/>
+      <c r="AB2837" s="55"/>
+      <c r="AC2837" s="55"/>
+      <c r="AD2837" s="55"/>
+      <c r="AE2837" s="55"/>
+      <c r="AF2837" s="55"/>
+      <c r="AG2837" s="55"/>
+      <c r="AH2837" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B112:AH112"/>
+    <mergeCell ref="B122:AG122"/>
+    <mergeCell ref="B308:AH308"/>
+    <mergeCell ref="B511:AH511"/>
+    <mergeCell ref="B712:AH712"/>
+    <mergeCell ref="B887:AH887"/>
+    <mergeCell ref="B1100:AH1100"/>
+    <mergeCell ref="B1227:AH1227"/>
+    <mergeCell ref="B1390:AH1390"/>
+    <mergeCell ref="B1502:AH1502"/>
+    <mergeCell ref="B1604:AH1604"/>
+    <mergeCell ref="B1698:AH1698"/>
+    <mergeCell ref="B1945:AH1945"/>
+    <mergeCell ref="B2031:AH2031"/>
     <mergeCell ref="B2719:AH2719"/>
     <mergeCell ref="B2837:AH2837"/>
     <mergeCell ref="B2153:AH2153"/>
@@ -23662,20 +23714,6 @@
     <mergeCell ref="B2419:AH2419"/>
     <mergeCell ref="B2509:AH2509"/>
     <mergeCell ref="B2598:AH2598"/>
-    <mergeCell ref="B1502:AH1502"/>
-    <mergeCell ref="B1604:AH1604"/>
-    <mergeCell ref="B1698:AH1698"/>
-    <mergeCell ref="B1945:AH1945"/>
-    <mergeCell ref="B2031:AH2031"/>
-    <mergeCell ref="B712:AH712"/>
-    <mergeCell ref="B887:AH887"/>
-    <mergeCell ref="B1100:AH1100"/>
-    <mergeCell ref="B1227:AH1227"/>
-    <mergeCell ref="B1390:AH1390"/>
-    <mergeCell ref="B112:AH112"/>
-    <mergeCell ref="B122:AG122"/>
-    <mergeCell ref="B308:AH308"/>
-    <mergeCell ref="B511:AH511"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -23686,7 +23724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
